--- a/书籍/论语.xlsx
+++ b/书籍/论语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="559">
   <si>
     <t>篇幅</t>
   </si>
@@ -88,33 +88,86 @@
     <t>子曰：“弟子入则孝，出则弟，谨而信，泛爱众，而亲仁。行有余力，则以学文。”</t>
   </si>
   <si>
+    <t>1. 学习的最佳途径
+2. 在家的时候孝顺，出了社会要诚恳待人，不夸夸其谈，能够爱更多普通的人，亲近有德行的人。把以上这些基本的事做好了，再来学"文"。</t>
+  </si>
+  <si>
     <t>子夏曰：“贤贤易色；事父母，能竭其力；事君，能致其身；与朋友交，言而有信。虽曰未学，吾必谓之学矣。”</t>
   </si>
   <si>
+    <t>1. 别沉迷于外在的美好
+2. 色：外在的东西</t>
+  </si>
+  <si>
     <t>子曰：“君子不重则不威，学则不固。主忠信，无友不如己者，过则勿惮改。”</t>
   </si>
   <si>
+    <t>1. 君子不重则不威: 君子应该有原则和立场
+2. 学则不固：学问是否能成为你人生的一部分
+3. 主忠信: 坚持以忠信为原则
+4. 无友不如己者: 生活中主动结交一些优秀的人
+5. 过则勿惮改: 犯错了，不要耿耿于怀、不要忌讳</t>
+  </si>
+  <si>
     <t>曾子曰：“慎终追远，民德归厚矣。”</t>
   </si>
   <si>
+    <t>1. 如何看待自己的过去和未来
+2. 慎终: 严肃地对待死亡（未来）
+3. 追远: 了解自己的历史（过去）
+4. 民德归厚矣: 民族的底蕴才会变得厚重，风气才会变得更好</t>
+  </si>
+  <si>
     <t>子禽问于子贡曰：“夫子至于是邦也，必闻其政，求之与，抑与之与？”子贡曰：“夫子温、良、恭、俭、让以得之。夫子之求之也，其诸异乎人之求之与？”</t>
   </si>
   <si>
+    <t>1. 温良恭俭让：每天都应当做好正向积累
+2. 温: 温和，不走极端
+3. 良: 善良 
+4. 恭: 谦恭 
+5. 俭: 俭朴、不奢华 
+6. 让: 谦让</t>
+  </si>
+  <si>
+    <t>每天要做正向积累、持续改善</t>
+  </si>
+  <si>
     <t>子曰：“父在，观其志。父没，观其行；三年无改于父之道，可谓孝矣。”</t>
   </si>
   <si>
+    <t>1. 传承好的家风、家训、价值观</t>
+  </si>
+  <si>
     <t>有子曰：“礼之用，和为贵。先王之道，斯为美，小大由之。有所不行，知和而和，不以礼节之，亦不可行也。”</t>
   </si>
   <si>
+    <t>“以和为贵"绝对不是和稀泥</t>
+  </si>
+  <si>
     <t>有子曰：“信近于义，言可复也。恭近于礼，远耻辱也。因不失其亲，亦可宗也。”</t>
   </si>
   <si>
+    <t xml:space="preserve"> 无原则守信是愚，过分恭敬是失礼</t>
+  </si>
+  <si>
     <t>　　子曰：“君子食无求饱，居无求安，敏于事而慎于言，就有道而正焉，可谓好学也已。”</t>
   </si>
   <si>
+    <t>1. 居无求安: 当我们贫穷时，如何自在地生活
+2. "敏于事", 认真对待学习和工作
+3. "慎于言", 不夸夸其谈</t>
+  </si>
+  <si>
     <t>　　子贡曰：“贫而无谄，富而无骄，何如？”子曰：“可也。未若贫而乐，富而好礼者也。”子贡曰：“《诗》云：‘如切如磋，如琢如磨’，其斯之谓与？”子曰：“赐也，始可与言《诗》已矣，告诸往而知来者。”</t>
   </si>
   <si>
+    <t>1. 贫而乐道，富而好礼：最高级的金钱观
+2. 如切如磋，如琢如磨：人的修为没有尽头，永远可以切磋琢磨下去</t>
+  </si>
+  <si>
+    <t>如切如磋，如琢如磨，持续打磨自己</t>
+  </si>
+  <si>
     <t>　　子曰：“不患人之不己知，患不知人也。”</t>
   </si>
   <si>
@@ -497,6 +550,9 @@
   </si>
   <si>
     <t>　　子曰：“质胜文则野，文胜质则史。文质彬彬，然后君子。”</t>
+  </si>
+  <si>
+    <t>1. 文是外在表现，质是内在底蕴</t>
   </si>
   <si>
     <t>　　子曰：“人之生也直，罔之生也幸而免。”</t>
@@ -1669,9 +1725,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1690,16 +1746,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1714,16 +1785,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,16 +1815,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1776,6 +1854,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1787,50 +1887,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1849,19 +1905,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1873,7 +1947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,7 +1977,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,13 +2055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,115 +2073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,6 +2127,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2080,11 +2151,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2115,36 +2216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2153,172 +2224,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2339,9 +2395,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2665,9 +2718,9 @@
   <dimension ref="A1:E516"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
@@ -2680,7 +2733,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" ht="37" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="100" customHeight="1" spans="1:5">
+    <row r="2" ht="111" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2708,11 +2761,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" ht="80" customHeight="1" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
@@ -2721,11 +2774,11 @@
         <v>10</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" ht="80" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -2734,11 +2787,11 @@
         <v>13</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="92" customHeight="1" spans="1:5">
+    <row r="5" ht="80" customHeight="1" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
@@ -2747,9 +2800,9 @@
         <v>16</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" ht="64" customHeight="1" spans="1:5">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" ht="80" customHeight="1" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
@@ -2758,4637 +2811,4663 @@
         <v>18</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" ht="80" customHeight="1" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" ht="80" customHeight="1" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" ht="95" customHeight="1" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" ht="73" customHeight="1" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" ht="107" customHeight="1" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
+      <c r="E11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="80" customHeight="1" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" ht="80" customHeight="1" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" ht="80" customHeight="1" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" ht="80" customHeight="1" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="80" customHeight="1" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="80" customHeight="1" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" ht="80" customHeight="1" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" ht="80" customHeight="1" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" ht="80" customHeight="1" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" ht="80" customHeight="1" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:5">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" ht="80" customHeight="1" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:5">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" ht="80" customHeight="1" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:5">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" ht="80" customHeight="1" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:5">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" ht="80" customHeight="1" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:5">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" ht="80" customHeight="1" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:5">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="80" customHeight="1" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:5">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" ht="80" customHeight="1" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:5">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" ht="80" customHeight="1" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:5">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" ht="80" customHeight="1" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:5">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" ht="80" customHeight="1" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:5">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" ht="80" customHeight="1" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:5">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" ht="80" customHeight="1" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:5">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" ht="80" customHeight="1" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:5">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" ht="80" customHeight="1" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:5">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" ht="80" customHeight="1" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:5">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" ht="80" customHeight="1" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:5">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" ht="80" customHeight="1" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:5">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" ht="80" customHeight="1" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:5">
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" ht="80" customHeight="1" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:5">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" ht="80" customHeight="1" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:5">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" ht="80" customHeight="1" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:5">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" ht="80" customHeight="1" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:5">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" ht="80" customHeight="1" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:5">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" ht="80" customHeight="1" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:5">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" ht="80" customHeight="1" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:5">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" ht="80" customHeight="1" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:5">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" ht="80" customHeight="1" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:5">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" ht="80" customHeight="1" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:5">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" ht="80" customHeight="1" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:5">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" ht="80" customHeight="1" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:5">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" ht="80" customHeight="1" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:5">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" ht="80" customHeight="1" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:5">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" ht="80" customHeight="1" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:5">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" ht="80" customHeight="1" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:5">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" ht="80" customHeight="1" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:5">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" ht="80" customHeight="1" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:5">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" ht="80" customHeight="1" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:5">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" ht="80" customHeight="1" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:5">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" ht="80" customHeight="1" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:5">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" ht="80" customHeight="1" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:5">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" ht="80" customHeight="1" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:5">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" ht="80" customHeight="1" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:5">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" ht="80" customHeight="1" spans="1:5">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:5">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" ht="80" customHeight="1" spans="1:5">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:5">
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" ht="80" customHeight="1" spans="1:5">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" customHeight="1" spans="1:5">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" ht="80" customHeight="1" spans="1:5">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:5">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" ht="80" customHeight="1" spans="1:5">
       <c r="A68" s="4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:5">
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" ht="80" customHeight="1" spans="1:5">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="7"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:5">
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" ht="80" customHeight="1" spans="1:5">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="7"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:5">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" ht="80" customHeight="1" spans="1:5">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="7"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:5">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" ht="80" customHeight="1" spans="1:5">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:5">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" ht="80" customHeight="1" spans="1:5">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:5">
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" ht="80" customHeight="1" spans="1:5">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="7"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:5">
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" ht="80" customHeight="1" spans="1:5">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:5">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" ht="80" customHeight="1" spans="1:5">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="7"/>
-    </row>
-    <row r="77" customHeight="1" spans="1:5">
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" ht="80" customHeight="1" spans="1:5">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:5">
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" ht="80" customHeight="1" spans="1:5">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" customHeight="1" spans="1:5">
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" ht="80" customHeight="1" spans="1:5">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" customHeight="1" spans="1:5">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" ht="80" customHeight="1" spans="1:5">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:5">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" ht="80" customHeight="1" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="7"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:5">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" ht="80" customHeight="1" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:5">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" ht="80" customHeight="1" spans="1:5">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:5">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" ht="80" customHeight="1" spans="1:5">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:5">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" ht="80" customHeight="1" spans="1:5">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:5">
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" ht="80" customHeight="1" spans="1:5">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:5">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" ht="80" customHeight="1" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="7"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:5">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" ht="80" customHeight="1" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:5">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" ht="80" customHeight="1" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:5">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" ht="80" customHeight="1" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" customHeight="1" spans="1:5">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" ht="80" customHeight="1" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:5">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" ht="80" customHeight="1" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" customHeight="1" spans="1:5">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" ht="80" customHeight="1" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" customHeight="1" spans="1:5">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" ht="80" customHeight="1" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:5">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" ht="80" customHeight="1" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:5">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" ht="80" customHeight="1" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:5">
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" ht="80" customHeight="1" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" customHeight="1" spans="1:5">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" ht="80" customHeight="1" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" customHeight="1" spans="1:5">
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" ht="80" customHeight="1" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:5">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" ht="80" customHeight="1" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" customHeight="1" spans="1:5">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" ht="80" customHeight="1" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" customHeight="1" spans="1:5">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" ht="80" customHeight="1" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="4"/>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:5">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" ht="80" customHeight="1" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:5">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" ht="80" customHeight="1" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="7"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:5">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" ht="80" customHeight="1" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:5">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" ht="80" customHeight="1" spans="1:5">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:5">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" ht="80" customHeight="1" spans="1:5">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:5">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" ht="80" customHeight="1" spans="1:5">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="7"/>
-    </row>
-    <row r="109" customHeight="1" spans="1:5">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" ht="80" customHeight="1" spans="1:5">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="7"/>
-    </row>
-    <row r="110" customHeight="1" spans="1:5">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" ht="80" customHeight="1" spans="1:5">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="7"/>
-    </row>
-    <row r="111" customHeight="1" spans="1:5">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" ht="80" customHeight="1" spans="1:5">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="7"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:5">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" ht="80" customHeight="1" spans="1:5">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="7"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:5">
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" ht="80" customHeight="1" spans="1:5">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:5">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" ht="80" customHeight="1" spans="1:5">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:5">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" ht="80" customHeight="1" spans="1:5">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="7"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:5">
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" ht="80" customHeight="1" spans="1:5">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:5">
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" ht="80" customHeight="1" spans="1:5">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:5">
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" ht="80" customHeight="1" spans="1:5">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="7"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:5">
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" ht="80" customHeight="1" spans="1:5">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:5">
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" ht="80" customHeight="1" spans="1:5">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="7"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:5">
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" ht="80" customHeight="1" spans="1:5">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:5">
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" ht="80" customHeight="1" spans="1:5">
       <c r="A122" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="7"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:5">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" ht="80" customHeight="1" spans="1:5">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="4"/>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:5">
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" ht="80" customHeight="1" spans="1:5">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="4"/>
-      <c r="E124" s="7"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:5">
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" ht="80" customHeight="1" spans="1:5">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="4"/>
-      <c r="E125" s="7"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:5">
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" ht="80" customHeight="1" spans="1:5">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="4"/>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:5">
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" ht="80" customHeight="1" spans="1:5">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="4"/>
-      <c r="E127" s="7"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:5">
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" ht="80" customHeight="1" spans="1:5">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="4"/>
-      <c r="E128" s="7"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:5">
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" ht="80" customHeight="1" spans="1:5">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="4"/>
-      <c r="E129" s="7"/>
-    </row>
-    <row r="130" customHeight="1" spans="1:5">
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" ht="80" customHeight="1" spans="1:5">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="7"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:5">
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" ht="80" customHeight="1" spans="1:5">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="7"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:5">
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" ht="80" customHeight="1" spans="1:5">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:5">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" ht="80" customHeight="1" spans="1:5">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" customHeight="1" spans="1:5">
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" ht="80" customHeight="1" spans="1:5">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:5">
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" ht="80" customHeight="1" spans="1:5">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="7"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:5">
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" ht="80" customHeight="1" spans="1:5">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:5">
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" ht="80" customHeight="1" spans="1:5">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:5">
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" ht="80" customHeight="1" spans="1:5">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="7"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:5">
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" ht="80" customHeight="1" spans="1:5">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C139" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="D139" s="4"/>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:5">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" ht="80" customHeight="1" spans="1:5">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" customHeight="1" spans="1:5">
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" ht="80" customHeight="1" spans="1:5">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="7"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:5">
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" ht="80" customHeight="1" spans="1:5">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="7"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:5">
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" ht="80" customHeight="1" spans="1:5">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="7"/>
-    </row>
-    <row r="144" customHeight="1" spans="1:5">
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" ht="80" customHeight="1" spans="1:5">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="7"/>
-    </row>
-    <row r="145" customHeight="1" spans="1:5">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" ht="80" customHeight="1" spans="1:5">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="7"/>
-    </row>
-    <row r="146" customHeight="1" spans="1:5">
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" ht="80" customHeight="1" spans="1:5">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="7"/>
-    </row>
-    <row r="147" customHeight="1" spans="1:5">
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" ht="80" customHeight="1" spans="1:5">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="7"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:5">
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" ht="80" customHeight="1" spans="1:5">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="7"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:5">
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" ht="80" customHeight="1" spans="1:5">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="7"/>
-    </row>
-    <row r="150" customHeight="1" spans="1:5">
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" ht="80" customHeight="1" spans="1:5">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="7"/>
-    </row>
-    <row r="151" customHeight="1" spans="1:5">
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" ht="80" customHeight="1" spans="1:5">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="7"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:5">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" ht="80" customHeight="1" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="7"/>
-    </row>
-    <row r="153" customHeight="1" spans="1:5">
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" ht="80" customHeight="1" spans="1:5">
       <c r="A153" s="4"/>
       <c r="B153" s="4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="7"/>
-    </row>
-    <row r="154" customHeight="1" spans="1:5">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" ht="80" customHeight="1" spans="1:5">
       <c r="A154" s="4"/>
       <c r="B154" s="4" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="7"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:5">
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" ht="80" customHeight="1" spans="1:5">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="7"/>
-    </row>
-    <row r="156" customHeight="1" spans="1:5">
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" ht="80" customHeight="1" spans="1:5">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="7"/>
-    </row>
-    <row r="157" customHeight="1" spans="1:5">
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" ht="80" customHeight="1" spans="1:5">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="7"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:5">
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" ht="80" customHeight="1" spans="1:5">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="7"/>
-    </row>
-    <row r="159" customHeight="1" spans="1:5">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" ht="80" customHeight="1" spans="1:5">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="7"/>
-    </row>
-    <row r="160" customHeight="1" spans="1:5">
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" ht="80" customHeight="1" spans="1:5">
       <c r="A160" s="4"/>
       <c r="B160" s="4" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="7"/>
-    </row>
-    <row r="161" customHeight="1" spans="1:5">
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" ht="80" customHeight="1" spans="1:5">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="7"/>
-    </row>
-    <row r="162" customHeight="1" spans="1:5">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" ht="80" customHeight="1" spans="1:5">
       <c r="A162" s="4"/>
       <c r="B162" s="4" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="7"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:5">
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" ht="80" customHeight="1" spans="1:5">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="7"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:5">
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" ht="80" customHeight="1" spans="1:5">
       <c r="A164" s="4"/>
       <c r="B164" s="4" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="7"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:5">
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" ht="80" customHeight="1" spans="1:5">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="7"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:5">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" ht="80" customHeight="1" spans="1:5">
       <c r="A166" s="4"/>
       <c r="B166" s="4" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="7"/>
-    </row>
-    <row r="167" customHeight="1" spans="1:5">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" ht="80" customHeight="1" spans="1:5">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="7"/>
-    </row>
-    <row r="168" customHeight="1" spans="1:5">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" ht="80" customHeight="1" spans="1:5">
       <c r="A168" s="4"/>
       <c r="B168" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="7"/>
-    </row>
-    <row r="169" customHeight="1" spans="1:5">
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" ht="80" customHeight="1" spans="1:5">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="7"/>
-    </row>
-    <row r="170" customHeight="1" spans="1:5">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" ht="80" customHeight="1" spans="1:5">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="4"/>
-      <c r="E170" s="7"/>
-    </row>
-    <row r="171" customHeight="1" spans="1:5">
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" ht="80" customHeight="1" spans="1:5">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="4"/>
-      <c r="E171" s="7"/>
-    </row>
-    <row r="172" customHeight="1" spans="1:5">
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" ht="80" customHeight="1" spans="1:5">
       <c r="A172" s="4"/>
       <c r="B172" s="4" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="7"/>
-    </row>
-    <row r="173" customHeight="1" spans="1:5">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" ht="80" customHeight="1" spans="1:5">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="7"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:5">
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" ht="80" customHeight="1" spans="1:5">
       <c r="A174" s="4"/>
       <c r="B174" s="4" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="7"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:5">
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" ht="80" customHeight="1" spans="1:5">
       <c r="A175" s="4"/>
       <c r="B175" s="4" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="7"/>
-    </row>
-    <row r="176" customHeight="1" spans="1:5">
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" ht="80" customHeight="1" spans="1:5">
       <c r="A176" s="4"/>
       <c r="B176" s="4" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="7"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:5">
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" ht="80" customHeight="1" spans="1:5">
       <c r="A177" s="4"/>
       <c r="B177" s="4" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="7"/>
-    </row>
-    <row r="178" customHeight="1" spans="1:5">
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" ht="80" customHeight="1" spans="1:5">
       <c r="A178" s="4"/>
       <c r="B178" s="4" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="7"/>
-    </row>
-    <row r="179" customHeight="1" spans="1:5">
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" ht="80" customHeight="1" spans="1:5">
       <c r="A179" s="4"/>
       <c r="B179" s="4" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="4"/>
-      <c r="E179" s="7"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:5">
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" ht="80" customHeight="1" spans="1:5">
       <c r="A180" s="4"/>
       <c r="B180" s="4" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="7"/>
-    </row>
-    <row r="181" customHeight="1" spans="1:5">
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" ht="80" customHeight="1" spans="1:5">
       <c r="A181" s="4"/>
       <c r="B181" s="4" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="7"/>
-    </row>
-    <row r="182" customHeight="1" spans="1:5">
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" ht="80" customHeight="1" spans="1:5">
       <c r="A182" s="4"/>
       <c r="B182" s="4" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="7"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:5">
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" ht="80" customHeight="1" spans="1:5">
       <c r="A183" s="4"/>
       <c r="B183" s="4" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="7"/>
-    </row>
-    <row r="184" customHeight="1" spans="1:5">
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" ht="80" customHeight="1" spans="1:5">
       <c r="A184" s="4"/>
       <c r="B184" s="4" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="4"/>
-      <c r="E184" s="7"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:5">
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" ht="80" customHeight="1" spans="1:5">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="4"/>
-      <c r="E185" s="7"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:5">
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" ht="80" customHeight="1" spans="1:5">
       <c r="A186" s="4"/>
       <c r="B186" s="4" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="4"/>
-      <c r="E186" s="7"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:5">
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" ht="80" customHeight="1" spans="1:5">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="4"/>
-      <c r="E187" s="7"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:5">
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" ht="80" customHeight="1" spans="1:5">
       <c r="A188" s="4"/>
       <c r="B188" s="4" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="4"/>
-      <c r="E188" s="7"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:5">
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" ht="80" customHeight="1" spans="1:5">
       <c r="A189" s="4"/>
       <c r="B189" s="4" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="4"/>
-      <c r="E189" s="7"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:5">
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" ht="80" customHeight="1" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="4"/>
-      <c r="E190" s="7"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:5">
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" ht="80" customHeight="1" spans="1:5">
       <c r="A191" s="4"/>
       <c r="B191" s="4" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="4"/>
-      <c r="E191" s="7"/>
-    </row>
-    <row r="192" customHeight="1" spans="1:5">
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" ht="80" customHeight="1" spans="1:5">
       <c r="A192" s="4"/>
       <c r="B192" s="4" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="4"/>
-      <c r="E192" s="7"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:5">
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" ht="80" customHeight="1" spans="1:5">
       <c r="A193" s="4"/>
       <c r="B193" s="4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="4"/>
-      <c r="E193" s="7"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:5">
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" ht="80" customHeight="1" spans="1:5">
       <c r="A194" s="4"/>
       <c r="B194" s="4" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="4"/>
-      <c r="E194" s="7"/>
-    </row>
-    <row r="195" customHeight="1" spans="1:5">
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" ht="80" customHeight="1" spans="1:5">
       <c r="A195" s="4"/>
       <c r="B195" s="4" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="4"/>
-      <c r="E195" s="7"/>
-    </row>
-    <row r="196" customHeight="1" spans="1:5">
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" ht="80" customHeight="1" spans="1:5">
       <c r="A196" s="4"/>
       <c r="B196" s="4" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="4"/>
-      <c r="E196" s="7"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:5">
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" ht="80" customHeight="1" spans="1:5">
       <c r="A197" s="4"/>
       <c r="B197" s="4" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="4"/>
-      <c r="E197" s="7"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:5">
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" ht="80" customHeight="1" spans="1:5">
       <c r="A198" s="4"/>
       <c r="B198" s="4" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="4"/>
-      <c r="E198" s="7"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:5">
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" ht="80" customHeight="1" spans="1:5">
       <c r="A199" s="4"/>
       <c r="B199" s="4" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="4"/>
-      <c r="E199" s="7"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:5">
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" ht="80" customHeight="1" spans="1:5">
       <c r="A200" s="4"/>
       <c r="B200" s="4" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="4"/>
-      <c r="E200" s="7"/>
-    </row>
-    <row r="201" customHeight="1" spans="1:5">
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" ht="80" customHeight="1" spans="1:5">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="4"/>
-      <c r="E201" s="7"/>
-    </row>
-    <row r="202" customHeight="1" spans="1:5">
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" ht="80" customHeight="1" spans="1:5">
       <c r="A202" s="4"/>
       <c r="B202" s="4" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="4"/>
-      <c r="E202" s="7"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:5">
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" ht="80" customHeight="1" spans="1:5">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="4"/>
-      <c r="E203" s="7"/>
-    </row>
-    <row r="204" customHeight="1" spans="1:5">
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" ht="80" customHeight="1" spans="1:5">
       <c r="A204" s="4"/>
       <c r="B204" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="4"/>
-      <c r="E204" s="7"/>
-    </row>
-    <row r="205" customHeight="1" spans="1:5">
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" ht="80" customHeight="1" spans="1:5">
       <c r="A205" s="4"/>
       <c r="B205" s="4" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="4"/>
-      <c r="E205" s="7"/>
-    </row>
-    <row r="206" customHeight="1" spans="1:5">
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" ht="80" customHeight="1" spans="1:5">
       <c r="A206" s="4"/>
       <c r="B206" s="4" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="4"/>
-      <c r="E206" s="7"/>
-    </row>
-    <row r="207" customHeight="1" spans="1:5">
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" ht="80" customHeight="1" spans="1:5">
       <c r="A207" s="4"/>
       <c r="B207" s="4" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="4"/>
-      <c r="E207" s="7"/>
-    </row>
-    <row r="208" customHeight="1" spans="1:5">
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" ht="80" customHeight="1" spans="1:5">
       <c r="A208" s="4"/>
       <c r="B208" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="4"/>
-      <c r="E208" s="7"/>
-    </row>
-    <row r="209" customHeight="1" spans="1:5">
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" ht="80" customHeight="1" spans="1:5">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="4"/>
-      <c r="E209" s="7"/>
-    </row>
-    <row r="210" customHeight="1" spans="1:5">
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" ht="80" customHeight="1" spans="1:5">
       <c r="A210" s="4"/>
       <c r="B210" s="4" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="4"/>
-      <c r="E210" s="7"/>
-    </row>
-    <row r="211" customHeight="1" spans="1:5">
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" ht="80" customHeight="1" spans="1:5">
       <c r="A211" s="4" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="4"/>
-      <c r="E211" s="7"/>
-    </row>
-    <row r="212" customHeight="1" spans="1:5">
+      <c r="E211" s="4"/>
+    </row>
+    <row r="212" ht="80" customHeight="1" spans="1:5">
       <c r="A212" s="4"/>
       <c r="B212" s="4" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="4"/>
-      <c r="E212" s="7"/>
-    </row>
-    <row r="213" customHeight="1" spans="1:5">
+      <c r="E212" s="4"/>
+    </row>
+    <row r="213" ht="80" customHeight="1" spans="1:5">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="4"/>
-      <c r="E213" s="7"/>
-    </row>
-    <row r="214" customHeight="1" spans="1:5">
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" ht="80" customHeight="1" spans="1:5">
       <c r="A214" s="4"/>
       <c r="B214" s="4" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="4"/>
-      <c r="E214" s="7"/>
-    </row>
-    <row r="215" customHeight="1" spans="1:5">
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" ht="80" customHeight="1" spans="1:5">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="4"/>
-      <c r="E215" s="7"/>
-    </row>
-    <row r="216" customHeight="1" spans="1:5">
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" ht="80" customHeight="1" spans="1:5">
       <c r="A216" s="4"/>
       <c r="B216" s="4" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="4"/>
-      <c r="E216" s="7"/>
-    </row>
-    <row r="217" customHeight="1" spans="1:5">
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" ht="80" customHeight="1" spans="1:5">
       <c r="A217" s="4"/>
       <c r="B217" s="4" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="4"/>
-      <c r="E217" s="7"/>
-    </row>
-    <row r="218" customHeight="1" spans="1:5">
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" ht="80" customHeight="1" spans="1:5">
       <c r="A218" s="4"/>
       <c r="B218" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="4"/>
-      <c r="E218" s="7"/>
-    </row>
-    <row r="219" customHeight="1" spans="1:5">
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" ht="80" customHeight="1" spans="1:5">
       <c r="A219" s="4"/>
       <c r="B219" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="4"/>
-      <c r="E219" s="7"/>
-    </row>
-    <row r="220" customHeight="1" spans="1:5">
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" ht="80" customHeight="1" spans="1:5">
       <c r="A220" s="4"/>
       <c r="B220" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="4"/>
-      <c r="E220" s="7"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:5">
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" ht="80" customHeight="1" spans="1:5">
       <c r="A221" s="4"/>
       <c r="B221" s="4" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="4"/>
-      <c r="E221" s="7"/>
-    </row>
-    <row r="222" customHeight="1" spans="1:5">
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222" ht="80" customHeight="1" spans="1:5">
       <c r="A222" s="4"/>
       <c r="B222" s="4" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="4"/>
-      <c r="E222" s="7"/>
-    </row>
-    <row r="223" customHeight="1" spans="1:5">
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" ht="80" customHeight="1" spans="1:5">
       <c r="A223" s="4"/>
       <c r="B223" s="4" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="4"/>
-      <c r="E223" s="7"/>
-    </row>
-    <row r="224" customHeight="1" spans="1:5">
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" ht="80" customHeight="1" spans="1:5">
       <c r="A224" s="4"/>
       <c r="B224" s="4" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="4"/>
-      <c r="E224" s="7"/>
-    </row>
-    <row r="225" customHeight="1" spans="1:5">
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" ht="80" customHeight="1" spans="1:5">
       <c r="A225" s="4"/>
       <c r="B225" s="4" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="4"/>
-      <c r="E225" s="7"/>
-    </row>
-    <row r="226" customHeight="1" spans="1:5">
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" ht="80" customHeight="1" spans="1:5">
       <c r="A226" s="4"/>
       <c r="B226" s="4" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="4"/>
-      <c r="E226" s="7"/>
-    </row>
-    <row r="227" customHeight="1" spans="1:5">
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" ht="80" customHeight="1" spans="1:5">
       <c r="A227" s="4"/>
       <c r="B227" s="4" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="4"/>
-      <c r="E227" s="7"/>
-    </row>
-    <row r="228" customHeight="1" spans="1:5">
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" ht="80" customHeight="1" spans="1:5">
       <c r="A228" s="4"/>
       <c r="B228" s="4" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="4"/>
-      <c r="E228" s="7"/>
-    </row>
-    <row r="229" customHeight="1" spans="1:5">
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" ht="80" customHeight="1" spans="1:5">
       <c r="A229" s="4"/>
       <c r="B229" s="4" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="4"/>
-      <c r="E229" s="7"/>
-    </row>
-    <row r="230" customHeight="1" spans="1:5">
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" ht="80" customHeight="1" spans="1:5">
       <c r="A230" s="4"/>
       <c r="B230" s="4" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="4"/>
-      <c r="E230" s="7"/>
-    </row>
-    <row r="231" customHeight="1" spans="1:5">
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" ht="80" customHeight="1" spans="1:5">
       <c r="A231" s="4"/>
       <c r="B231" s="4" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="4"/>
-      <c r="E231" s="7"/>
-    </row>
-    <row r="232" customHeight="1" spans="1:5">
+      <c r="E231" s="4"/>
+    </row>
+    <row r="232" ht="80" customHeight="1" spans="1:5">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="4"/>
-      <c r="E232" s="7"/>
-    </row>
-    <row r="233" customHeight="1" spans="1:5">
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" ht="80" customHeight="1" spans="1:5">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="4"/>
-      <c r="E233" s="7"/>
-    </row>
-    <row r="234" customHeight="1" spans="1:5">
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" ht="80" customHeight="1" spans="1:5">
       <c r="A234" s="4"/>
       <c r="B234" s="4" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="4"/>
-      <c r="E234" s="7"/>
-    </row>
-    <row r="235" customHeight="1" spans="1:5">
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" ht="80" customHeight="1" spans="1:5">
       <c r="A235" s="4"/>
       <c r="B235" s="4" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="4"/>
-      <c r="E235" s="7"/>
-    </row>
-    <row r="236" customHeight="1" spans="1:5">
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" ht="80" customHeight="1" spans="1:5">
       <c r="A236" s="4"/>
       <c r="B236" s="4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="4"/>
-      <c r="E236" s="7"/>
-    </row>
-    <row r="237" customHeight="1" spans="1:5">
+      <c r="E236" s="4"/>
+    </row>
+    <row r="237" ht="80" customHeight="1" spans="1:5">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="4"/>
-      <c r="E237" s="7"/>
-    </row>
-    <row r="238" customHeight="1" spans="1:5">
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" ht="80" customHeight="1" spans="1:5">
       <c r="A238" s="4"/>
       <c r="B238" s="4" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="4"/>
-      <c r="E238" s="7"/>
-    </row>
-    <row r="239" customHeight="1" spans="1:5">
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239" ht="80" customHeight="1" spans="1:5">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="4"/>
-      <c r="E239" s="7"/>
-    </row>
-    <row r="240" customHeight="1" spans="1:5">
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240" ht="80" customHeight="1" spans="1:5">
       <c r="A240" s="4"/>
       <c r="B240" s="4" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="4"/>
-      <c r="E240" s="7"/>
-    </row>
-    <row r="241" customHeight="1" spans="1:5">
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" ht="80" customHeight="1" spans="1:5">
       <c r="A241" s="4"/>
       <c r="B241" s="4" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="4"/>
-      <c r="E241" s="7"/>
-    </row>
-    <row r="242" customHeight="1" spans="1:5">
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" ht="80" customHeight="1" spans="1:5">
       <c r="A242" s="4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="4"/>
-      <c r="E242" s="7"/>
-    </row>
-    <row r="243" customHeight="1" spans="1:5">
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" ht="80" customHeight="1" spans="1:5">
       <c r="A243" s="4"/>
       <c r="B243" s="4" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="4"/>
-      <c r="E243" s="7"/>
-    </row>
-    <row r="244" customHeight="1" spans="1:5">
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" ht="80" customHeight="1" spans="1:5">
       <c r="A244" s="4"/>
       <c r="B244" s="4" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="4"/>
-      <c r="E244" s="7"/>
-    </row>
-    <row r="245" customHeight="1" spans="1:5">
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" ht="80" customHeight="1" spans="1:5">
       <c r="A245" s="4"/>
       <c r="B245" s="4" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="4"/>
-      <c r="E245" s="7"/>
-    </row>
-    <row r="246" customHeight="1" spans="1:5">
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" ht="80" customHeight="1" spans="1:5">
       <c r="A246" s="4"/>
       <c r="B246" s="4" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="4"/>
-      <c r="E246" s="7"/>
-    </row>
-    <row r="247" customHeight="1" spans="1:5">
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" ht="80" customHeight="1" spans="1:5">
       <c r="A247" s="4"/>
       <c r="B247" s="4" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="4"/>
-      <c r="E247" s="7"/>
-    </row>
-    <row r="248" customHeight="1" spans="1:5">
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" ht="80" customHeight="1" spans="1:5">
       <c r="A248" s="4"/>
       <c r="B248" s="4" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="4"/>
-      <c r="E248" s="7"/>
-    </row>
-    <row r="249" customHeight="1" spans="1:5">
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" ht="80" customHeight="1" spans="1:5">
       <c r="A249" s="4"/>
       <c r="B249" s="4" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="4"/>
-      <c r="E249" s="7"/>
-    </row>
-    <row r="250" customHeight="1" spans="1:5">
+      <c r="E249" s="4"/>
+    </row>
+    <row r="250" ht="80" customHeight="1" spans="1:5">
       <c r="A250" s="4"/>
       <c r="B250" s="4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="4"/>
-      <c r="E250" s="7"/>
-    </row>
-    <row r="251" customHeight="1" spans="1:5">
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" ht="80" customHeight="1" spans="1:5">
       <c r="A251" s="4"/>
       <c r="B251" s="4" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="4"/>
-      <c r="E251" s="7"/>
-    </row>
-    <row r="252" customHeight="1" spans="1:5">
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" ht="80" customHeight="1" spans="1:5">
       <c r="A252" s="4"/>
       <c r="B252" s="4" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="4"/>
-      <c r="E252" s="7"/>
-    </row>
-    <row r="253" customHeight="1" spans="1:5">
+      <c r="E252" s="4"/>
+    </row>
+    <row r="253" ht="80" customHeight="1" spans="1:5">
       <c r="A253" s="4"/>
       <c r="B253" s="4" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="4"/>
-      <c r="E253" s="7"/>
-    </row>
-    <row r="254" customHeight="1" spans="1:5">
+      <c r="E253" s="4"/>
+    </row>
+    <row r="254" ht="80" customHeight="1" spans="1:5">
       <c r="A254" s="4"/>
       <c r="B254" s="4" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="4"/>
-      <c r="E254" s="7"/>
-    </row>
-    <row r="255" customHeight="1" spans="1:5">
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255" ht="80" customHeight="1" spans="1:5">
       <c r="A255" s="4"/>
       <c r="B255" s="4" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="4"/>
-      <c r="E255" s="7"/>
-    </row>
-    <row r="256" customHeight="1" spans="1:5">
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" ht="80" customHeight="1" spans="1:5">
       <c r="A256" s="4"/>
       <c r="B256" s="4" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="4"/>
-      <c r="E256" s="7"/>
-    </row>
-    <row r="257" customHeight="1" spans="1:5">
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" ht="80" customHeight="1" spans="1:5">
       <c r="A257" s="4"/>
       <c r="B257" s="4" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="4"/>
-      <c r="E257" s="7"/>
-    </row>
-    <row r="258" customHeight="1" spans="1:5">
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" ht="80" customHeight="1" spans="1:5">
       <c r="A258" s="4"/>
       <c r="B258" s="4" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="4"/>
-      <c r="E258" s="7"/>
-    </row>
-    <row r="259" customHeight="1" spans="1:5">
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259" ht="80" customHeight="1" spans="1:5">
       <c r="A259" s="4"/>
       <c r="B259" s="4" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="4"/>
-      <c r="E259" s="7"/>
-    </row>
-    <row r="260" customHeight="1" spans="1:5">
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260" ht="80" customHeight="1" spans="1:5">
       <c r="A260" s="4"/>
       <c r="B260" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="4"/>
-      <c r="E260" s="7"/>
-    </row>
-    <row r="261" customHeight="1" spans="1:5">
+      <c r="E260" s="4"/>
+    </row>
+    <row r="261" ht="80" customHeight="1" spans="1:5">
       <c r="A261" s="4"/>
       <c r="B261" s="4" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="4"/>
-      <c r="E261" s="7"/>
-    </row>
-    <row r="262" customHeight="1" spans="1:5">
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262" ht="80" customHeight="1" spans="1:5">
       <c r="A262" s="4"/>
       <c r="B262" s="4" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="4"/>
-      <c r="E262" s="7"/>
-    </row>
-    <row r="263" customHeight="1" spans="1:5">
+      <c r="E262" s="4"/>
+    </row>
+    <row r="263" ht="80" customHeight="1" spans="1:5">
       <c r="A263" s="4"/>
       <c r="B263" s="4" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="4"/>
-      <c r="E263" s="7"/>
-    </row>
-    <row r="264" customHeight="1" spans="1:5">
+      <c r="E263" s="4"/>
+    </row>
+    <row r="264" ht="80" customHeight="1" spans="1:5">
       <c r="A264" s="4"/>
       <c r="B264" s="4" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="4"/>
-      <c r="E264" s="7"/>
-    </row>
-    <row r="265" customHeight="1" spans="1:5">
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265" ht="80" customHeight="1" spans="1:5">
       <c r="A265" s="4"/>
       <c r="B265" s="4" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="4"/>
-      <c r="E265" s="7"/>
-    </row>
-    <row r="266" customHeight="1" spans="1:5">
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266" ht="80" customHeight="1" spans="1:5">
       <c r="A266" s="4"/>
       <c r="B266" s="4" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="4"/>
-      <c r="E266" s="7"/>
-    </row>
-    <row r="267" customHeight="1" spans="1:5">
+      <c r="E266" s="4"/>
+    </row>
+    <row r="267" ht="80" customHeight="1" spans="1:5">
       <c r="A267" s="4"/>
       <c r="B267" s="4" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="4"/>
-      <c r="E267" s="7"/>
-    </row>
-    <row r="268" customHeight="1" spans="1:5">
+      <c r="E267" s="4"/>
+    </row>
+    <row r="268" ht="80" customHeight="1" spans="1:5">
       <c r="A268" s="4"/>
       <c r="B268" s="4" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="4"/>
-      <c r="E268" s="7"/>
-    </row>
-    <row r="269" customHeight="1" spans="1:5">
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269" ht="80" customHeight="1" spans="1:5">
       <c r="A269" s="4" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="4"/>
-      <c r="E269" s="7"/>
-    </row>
-    <row r="270" customHeight="1" spans="1:5">
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270" ht="80" customHeight="1" spans="1:5">
       <c r="A270" s="4"/>
       <c r="B270" s="4" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="4"/>
-      <c r="E270" s="7"/>
-    </row>
-    <row r="271" customHeight="1" spans="1:5">
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271" ht="80" customHeight="1" spans="1:5">
       <c r="A271" s="4"/>
       <c r="B271" s="4" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C271" s="6"/>
       <c r="D271" s="4"/>
-      <c r="E271" s="7"/>
-    </row>
-    <row r="272" customHeight="1" spans="1:5">
+      <c r="E271" s="4"/>
+    </row>
+    <row r="272" ht="80" customHeight="1" spans="1:5">
       <c r="A272" s="4"/>
       <c r="B272" s="4" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="4"/>
-      <c r="E272" s="7"/>
-    </row>
-    <row r="273" customHeight="1" spans="1:5">
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273" ht="80" customHeight="1" spans="1:5">
       <c r="A273" s="4"/>
       <c r="B273" s="4" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="4"/>
-      <c r="E273" s="7"/>
-    </row>
-    <row r="274" customHeight="1" spans="1:5">
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274" ht="80" customHeight="1" spans="1:5">
       <c r="A274" s="4"/>
       <c r="B274" s="4" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C274" s="6"/>
       <c r="D274" s="4"/>
-      <c r="E274" s="7"/>
-    </row>
-    <row r="275" customHeight="1" spans="1:5">
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275" ht="80" customHeight="1" spans="1:5">
       <c r="A275" s="4"/>
       <c r="B275" s="4" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="4"/>
-      <c r="E275" s="7"/>
-    </row>
-    <row r="276" customHeight="1" spans="1:5">
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276" ht="80" customHeight="1" spans="1:5">
       <c r="A276" s="4"/>
       <c r="B276" s="4" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="4"/>
-      <c r="E276" s="7"/>
-    </row>
-    <row r="277" customHeight="1" spans="1:5">
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277" ht="80" customHeight="1" spans="1:5">
       <c r="A277" s="4"/>
       <c r="B277" s="4" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="4"/>
-      <c r="E277" s="7"/>
-    </row>
-    <row r="278" customHeight="1" spans="1:5">
+      <c r="E277" s="4"/>
+    </row>
+    <row r="278" ht="80" customHeight="1" spans="1:5">
       <c r="A278" s="4"/>
       <c r="B278" s="4" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="4"/>
-      <c r="E278" s="7"/>
-    </row>
-    <row r="279" customHeight="1" spans="1:5">
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279" ht="80" customHeight="1" spans="1:5">
       <c r="A279" s="4"/>
       <c r="B279" s="4" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="4"/>
-      <c r="E279" s="7"/>
-    </row>
-    <row r="280" customHeight="1" spans="1:5">
+      <c r="E279" s="4"/>
+    </row>
+    <row r="280" ht="80" customHeight="1" spans="1:5">
       <c r="A280" s="4"/>
       <c r="B280" s="4" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="4"/>
-      <c r="E280" s="7"/>
-    </row>
-    <row r="281" customHeight="1" spans="1:5">
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281" ht="80" customHeight="1" spans="1:5">
       <c r="A281" s="4"/>
       <c r="B281" s="4" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="4"/>
-      <c r="E281" s="7"/>
-    </row>
-    <row r="282" customHeight="1" spans="1:5">
+      <c r="E281" s="4"/>
+    </row>
+    <row r="282" ht="80" customHeight="1" spans="1:5">
       <c r="A282" s="4"/>
       <c r="B282" s="4" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="4"/>
-      <c r="E282" s="7"/>
-    </row>
-    <row r="283" customHeight="1" spans="1:5">
+      <c r="E282" s="4"/>
+    </row>
+    <row r="283" ht="80" customHeight="1" spans="1:5">
       <c r="A283" s="4"/>
       <c r="B283" s="4" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="4"/>
-      <c r="E283" s="7"/>
-    </row>
-    <row r="284" customHeight="1" spans="1:5">
+      <c r="E283" s="4"/>
+    </row>
+    <row r="284" ht="80" customHeight="1" spans="1:5">
       <c r="A284" s="4"/>
       <c r="B284" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="4"/>
-      <c r="E284" s="7"/>
-    </row>
-    <row r="285" customHeight="1" spans="1:5">
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285" ht="80" customHeight="1" spans="1:5">
       <c r="A285" s="4"/>
       <c r="B285" s="4" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="4"/>
-      <c r="E285" s="7"/>
-    </row>
-    <row r="286" customHeight="1" spans="1:5">
+      <c r="E285" s="4"/>
+    </row>
+    <row r="286" ht="80" customHeight="1" spans="1:5">
       <c r="A286" s="4"/>
       <c r="B286" s="4" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="4"/>
-      <c r="E286" s="7"/>
-    </row>
-    <row r="287" customHeight="1" spans="1:5">
+      <c r="E286" s="4"/>
+    </row>
+    <row r="287" ht="80" customHeight="1" spans="1:5">
       <c r="A287" s="4"/>
       <c r="B287" s="4" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="4"/>
-      <c r="E287" s="7"/>
-    </row>
-    <row r="288" customHeight="1" spans="1:5">
+      <c r="E287" s="4"/>
+    </row>
+    <row r="288" ht="80" customHeight="1" spans="1:5">
       <c r="A288" s="4"/>
       <c r="B288" s="4" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="4"/>
-      <c r="E288" s="7"/>
-    </row>
-    <row r="289" customHeight="1" spans="1:5">
+      <c r="E288" s="4"/>
+    </row>
+    <row r="289" ht="80" customHeight="1" spans="1:5">
       <c r="A289" s="4"/>
       <c r="B289" s="4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="4"/>
-      <c r="E289" s="7"/>
-    </row>
-    <row r="290" customHeight="1" spans="1:5">
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290" ht="80" customHeight="1" spans="1:5">
       <c r="A290" s="4"/>
       <c r="B290" s="4" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="4"/>
-      <c r="E290" s="7"/>
-    </row>
-    <row r="291" customHeight="1" spans="1:5">
+      <c r="E290" s="4"/>
+    </row>
+    <row r="291" ht="80" customHeight="1" spans="1:5">
       <c r="A291" s="4"/>
       <c r="B291" s="4" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="4"/>
-      <c r="E291" s="7"/>
-    </row>
-    <row r="292" customHeight="1" spans="1:5">
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292" ht="80" customHeight="1" spans="1:5">
       <c r="A292" s="4"/>
       <c r="B292" s="4" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="4"/>
-      <c r="E292" s="7"/>
-    </row>
-    <row r="293" customHeight="1" spans="1:5">
+      <c r="E292" s="4"/>
+    </row>
+    <row r="293" ht="80" customHeight="1" spans="1:5">
       <c r="A293" s="4"/>
       <c r="B293" s="4" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="4"/>
-      <c r="E293" s="7"/>
-    </row>
-    <row r="294" customHeight="1" spans="1:5">
+      <c r="E293" s="4"/>
+    </row>
+    <row r="294" ht="80" customHeight="1" spans="1:5">
       <c r="A294" s="4"/>
       <c r="B294" s="4" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="4"/>
-      <c r="E294" s="7"/>
-    </row>
-    <row r="295" customHeight="1" spans="1:5">
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" ht="80" customHeight="1" spans="1:5">
       <c r="A295" s="4" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="4"/>
-      <c r="E295" s="7"/>
-    </row>
-    <row r="296" customHeight="1" spans="1:5">
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296" ht="80" customHeight="1" spans="1:5">
       <c r="A296" s="4"/>
       <c r="B296" s="4" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="7"/>
-    </row>
-    <row r="297" customHeight="1" spans="1:5">
+      <c r="E296" s="4"/>
+    </row>
+    <row r="297" ht="80" customHeight="1" spans="1:5">
       <c r="A297" s="4"/>
       <c r="B297" s="4" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="7"/>
-    </row>
-    <row r="298" customHeight="1" spans="1:5">
+      <c r="E297" s="4"/>
+    </row>
+    <row r="298" ht="80" customHeight="1" spans="1:5">
       <c r="A298" s="4"/>
       <c r="B298" s="4" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="4"/>
-      <c r="E298" s="7"/>
-    </row>
-    <row r="299" customHeight="1" spans="1:5">
+      <c r="E298" s="4"/>
+    </row>
+    <row r="299" ht="80" customHeight="1" spans="1:5">
       <c r="A299" s="4"/>
       <c r="B299" s="4" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="7"/>
-    </row>
-    <row r="300" customHeight="1" spans="1:5">
+      <c r="E299" s="4"/>
+    </row>
+    <row r="300" ht="80" customHeight="1" spans="1:5">
       <c r="A300" s="4"/>
       <c r="B300" s="4" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="4"/>
-      <c r="E300" s="7"/>
-    </row>
-    <row r="301" customHeight="1" spans="1:5">
+      <c r="E300" s="4"/>
+    </row>
+    <row r="301" ht="80" customHeight="1" spans="1:5">
       <c r="A301" s="4"/>
       <c r="B301" s="4" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="4"/>
-      <c r="E301" s="7"/>
-    </row>
-    <row r="302" customHeight="1" spans="1:5">
+      <c r="E301" s="4"/>
+    </row>
+    <row r="302" ht="80" customHeight="1" spans="1:5">
       <c r="A302" s="4"/>
       <c r="B302" s="4" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="4"/>
-      <c r="E302" s="7"/>
-    </row>
-    <row r="303" customHeight="1" spans="1:5">
+      <c r="E302" s="4"/>
+    </row>
+    <row r="303" ht="80" customHeight="1" spans="1:5">
       <c r="A303" s="4"/>
       <c r="B303" s="4" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C303" s="6"/>
       <c r="D303" s="4"/>
-      <c r="E303" s="7"/>
-    </row>
-    <row r="304" customHeight="1" spans="1:5">
+      <c r="E303" s="4"/>
+    </row>
+    <row r="304" ht="80" customHeight="1" spans="1:5">
       <c r="A304" s="4"/>
       <c r="B304" s="4" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C304" s="6"/>
       <c r="D304" s="4"/>
-      <c r="E304" s="7"/>
-    </row>
-    <row r="305" customHeight="1" spans="1:5">
+      <c r="E304" s="4"/>
+    </row>
+    <row r="305" ht="80" customHeight="1" spans="1:5">
       <c r="A305" s="4"/>
       <c r="B305" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="4"/>
-      <c r="E305" s="7"/>
-    </row>
-    <row r="306" customHeight="1" spans="1:5">
+      <c r="E305" s="4"/>
+    </row>
+    <row r="306" ht="80" customHeight="1" spans="1:5">
       <c r="A306" s="4"/>
       <c r="B306" s="4" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="4"/>
-      <c r="E306" s="7"/>
-    </row>
-    <row r="307" customHeight="1" spans="1:5">
+      <c r="E306" s="4"/>
+    </row>
+    <row r="307" ht="80" customHeight="1" spans="1:5">
       <c r="A307" s="4"/>
       <c r="B307" s="4" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="4"/>
-      <c r="E307" s="7"/>
-    </row>
-    <row r="308" customHeight="1" spans="1:5">
+      <c r="E307" s="4"/>
+    </row>
+    <row r="308" ht="80" customHeight="1" spans="1:5">
       <c r="A308" s="4"/>
       <c r="B308" s="4" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="4"/>
-      <c r="E308" s="7"/>
-    </row>
-    <row r="309" customHeight="1" spans="1:5">
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309" ht="80" customHeight="1" spans="1:5">
       <c r="A309" s="4"/>
       <c r="B309" s="4" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="4"/>
-      <c r="E309" s="7"/>
-    </row>
-    <row r="310" customHeight="1" spans="1:5">
+      <c r="E309" s="4"/>
+    </row>
+    <row r="310" ht="80" customHeight="1" spans="1:5">
       <c r="A310" s="4"/>
       <c r="B310" s="4" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="4"/>
-      <c r="E310" s="7"/>
-    </row>
-    <row r="311" customHeight="1" spans="1:5">
+      <c r="E310" s="4"/>
+    </row>
+    <row r="311" ht="80" customHeight="1" spans="1:5">
       <c r="A311" s="4"/>
       <c r="B311" s="4" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="4"/>
-      <c r="E311" s="7"/>
-    </row>
-    <row r="312" customHeight="1" spans="1:5">
+      <c r="E311" s="4"/>
+    </row>
+    <row r="312" ht="80" customHeight="1" spans="1:5">
       <c r="A312" s="4"/>
       <c r="B312" s="4" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="4"/>
-      <c r="E312" s="7"/>
-    </row>
-    <row r="313" customHeight="1" spans="1:5">
+      <c r="E312" s="4"/>
+    </row>
+    <row r="313" ht="80" customHeight="1" spans="1:5">
       <c r="A313" s="4"/>
       <c r="B313" s="4" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="4"/>
-      <c r="E313" s="7"/>
-    </row>
-    <row r="314" customHeight="1" spans="1:5">
+      <c r="E313" s="4"/>
+    </row>
+    <row r="314" ht="80" customHeight="1" spans="1:5">
       <c r="A314" s="4"/>
       <c r="B314" s="4" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="4"/>
-      <c r="E314" s="7"/>
-    </row>
-    <row r="315" customHeight="1" spans="1:5">
+      <c r="E314" s="4"/>
+    </row>
+    <row r="315" ht="80" customHeight="1" spans="1:5">
       <c r="A315" s="4"/>
       <c r="B315" s="4" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="4"/>
-      <c r="E315" s="7"/>
-    </row>
-    <row r="316" customHeight="1" spans="1:5">
+      <c r="E315" s="4"/>
+    </row>
+    <row r="316" ht="80" customHeight="1" spans="1:5">
       <c r="A316" s="4"/>
       <c r="B316" s="4" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="4"/>
-      <c r="E316" s="7"/>
-    </row>
-    <row r="317" customHeight="1" spans="1:5">
+      <c r="E316" s="4"/>
+    </row>
+    <row r="317" ht="80" customHeight="1" spans="1:5">
       <c r="A317" s="4"/>
       <c r="B317" s="4" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="4"/>
-      <c r="E317" s="7"/>
-    </row>
-    <row r="318" customHeight="1" spans="1:5">
+      <c r="E317" s="4"/>
+    </row>
+    <row r="318" ht="80" customHeight="1" spans="1:5">
       <c r="A318" s="4"/>
       <c r="B318" s="4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="4"/>
-      <c r="E318" s="7"/>
-    </row>
-    <row r="319" customHeight="1" spans="1:5">
+      <c r="E318" s="4"/>
+    </row>
+    <row r="319" ht="80" customHeight="1" spans="1:5">
       <c r="A319" s="4" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C319" s="6"/>
       <c r="D319" s="4"/>
-      <c r="E319" s="7"/>
-    </row>
-    <row r="320" customHeight="1" spans="1:5">
+      <c r="E319" s="4"/>
+    </row>
+    <row r="320" ht="80" customHeight="1" spans="1:5">
       <c r="A320" s="4"/>
       <c r="B320" s="4" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="4"/>
-      <c r="E320" s="7"/>
-    </row>
-    <row r="321" customHeight="1" spans="1:5">
+      <c r="E320" s="4"/>
+    </row>
+    <row r="321" ht="80" customHeight="1" spans="1:5">
       <c r="A321" s="4"/>
       <c r="B321" s="4" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="4"/>
-      <c r="E321" s="7"/>
-    </row>
-    <row r="322" customHeight="1" spans="1:5">
+      <c r="E321" s="4"/>
+    </row>
+    <row r="322" ht="80" customHeight="1" spans="1:5">
       <c r="A322" s="4"/>
       <c r="B322" s="4" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="4"/>
-      <c r="E322" s="7"/>
-    </row>
-    <row r="323" customHeight="1" spans="1:5">
+      <c r="E322" s="4"/>
+    </row>
+    <row r="323" ht="80" customHeight="1" spans="1:5">
       <c r="A323" s="4"/>
       <c r="B323" s="4" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="4"/>
-      <c r="E323" s="7"/>
-    </row>
-    <row r="324" customHeight="1" spans="1:5">
+      <c r="E323" s="4"/>
+    </row>
+    <row r="324" ht="80" customHeight="1" spans="1:5">
       <c r="A324" s="4"/>
       <c r="B324" s="4" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="4"/>
-      <c r="E324" s="7"/>
-    </row>
-    <row r="325" customHeight="1" spans="1:5">
+      <c r="E324" s="4"/>
+    </row>
+    <row r="325" ht="80" customHeight="1" spans="1:5">
       <c r="A325" s="4"/>
       <c r="B325" s="4" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="4"/>
-      <c r="E325" s="7"/>
-    </row>
-    <row r="326" customHeight="1" spans="1:5">
+      <c r="E325" s="4"/>
+    </row>
+    <row r="326" ht="80" customHeight="1" spans="1:5">
       <c r="A326" s="4"/>
       <c r="B326" s="4" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="4"/>
-      <c r="E326" s="7"/>
-    </row>
-    <row r="327" customHeight="1" spans="1:5">
+      <c r="E326" s="4"/>
+    </row>
+    <row r="327" ht="80" customHeight="1" spans="1:5">
       <c r="A327" s="4"/>
       <c r="B327" s="4" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="4"/>
-      <c r="E327" s="7"/>
-    </row>
-    <row r="328" customHeight="1" spans="1:5">
+      <c r="E327" s="4"/>
+    </row>
+    <row r="328" ht="80" customHeight="1" spans="1:5">
       <c r="A328" s="4"/>
       <c r="B328" s="4" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C328" s="6"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="7"/>
-    </row>
-    <row r="329" customHeight="1" spans="1:5">
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329" ht="80" customHeight="1" spans="1:5">
       <c r="A329" s="4"/>
       <c r="B329" s="4" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="4"/>
-      <c r="E329" s="7"/>
-    </row>
-    <row r="330" customHeight="1" spans="1:5">
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330" ht="80" customHeight="1" spans="1:5">
       <c r="A330" s="4"/>
       <c r="B330" s="4" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="4"/>
-      <c r="E330" s="7"/>
-    </row>
-    <row r="331" customHeight="1" spans="1:5">
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331" ht="80" customHeight="1" spans="1:5">
       <c r="A331" s="4"/>
       <c r="B331" s="4" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="4"/>
-      <c r="E331" s="7"/>
-    </row>
-    <row r="332" customHeight="1" spans="1:5">
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332" ht="80" customHeight="1" spans="1:5">
       <c r="A332" s="4"/>
       <c r="B332" s="4" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="4"/>
-      <c r="E332" s="7"/>
-    </row>
-    <row r="333" customHeight="1" spans="1:5">
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333" ht="80" customHeight="1" spans="1:5">
       <c r="A333" s="4"/>
       <c r="B333" s="4" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="4"/>
-      <c r="E333" s="7"/>
-    </row>
-    <row r="334" customHeight="1" spans="1:5">
+      <c r="E333" s="4"/>
+    </row>
+    <row r="334" ht="80" customHeight="1" spans="1:5">
       <c r="A334" s="4"/>
       <c r="B334" s="4" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="4"/>
-      <c r="E334" s="7"/>
-    </row>
-    <row r="335" customHeight="1" spans="1:5">
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335" ht="80" customHeight="1" spans="1:5">
       <c r="A335" s="4"/>
       <c r="B335" s="4" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="4"/>
-      <c r="E335" s="7"/>
-    </row>
-    <row r="336" customHeight="1" spans="1:5">
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336" ht="80" customHeight="1" spans="1:5">
       <c r="A336" s="4"/>
       <c r="B336" s="4" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="4"/>
-      <c r="E336" s="7"/>
-    </row>
-    <row r="337" customHeight="1" spans="1:5">
+      <c r="E336" s="4"/>
+    </row>
+    <row r="337" ht="80" customHeight="1" spans="1:5">
       <c r="A337" s="4"/>
       <c r="B337" s="4" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="4"/>
-      <c r="E337" s="7"/>
-    </row>
-    <row r="338" customHeight="1" spans="1:5">
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338" ht="80" customHeight="1" spans="1:5">
       <c r="A338" s="4"/>
       <c r="B338" s="4" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="4"/>
-      <c r="E338" s="7"/>
-    </row>
-    <row r="339" customHeight="1" spans="1:5">
+      <c r="E338" s="4"/>
+    </row>
+    <row r="339" ht="80" customHeight="1" spans="1:5">
       <c r="A339" s="4"/>
       <c r="B339" s="4" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="4"/>
-      <c r="E339" s="7"/>
-    </row>
-    <row r="340" customHeight="1" spans="1:5">
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340" ht="80" customHeight="1" spans="1:5">
       <c r="A340" s="4"/>
       <c r="B340" s="4" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C340" s="6"/>
       <c r="D340" s="4"/>
-      <c r="E340" s="7"/>
-    </row>
-    <row r="341" customHeight="1" spans="1:5">
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341" ht="80" customHeight="1" spans="1:5">
       <c r="A341" s="4"/>
       <c r="B341" s="4" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="4"/>
-      <c r="E341" s="7"/>
-    </row>
-    <row r="342" customHeight="1" spans="1:5">
+      <c r="E341" s="4"/>
+    </row>
+    <row r="342" ht="80" customHeight="1" spans="1:5">
       <c r="A342" s="4"/>
       <c r="B342" s="4" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="4"/>
-      <c r="E342" s="7"/>
-    </row>
-    <row r="343" customHeight="1" spans="1:5">
+      <c r="E342" s="4"/>
+    </row>
+    <row r="343" ht="80" customHeight="1" spans="1:5">
       <c r="A343" s="4"/>
       <c r="B343" s="4" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="4"/>
-      <c r="E343" s="7"/>
-    </row>
-    <row r="344" customHeight="1" spans="1:5">
+      <c r="E343" s="4"/>
+    </row>
+    <row r="344" ht="80" customHeight="1" spans="1:5">
       <c r="A344" s="4"/>
       <c r="B344" s="4" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="4"/>
-      <c r="E344" s="7"/>
-    </row>
-    <row r="345" customHeight="1" spans="1:5">
+      <c r="E344" s="4"/>
+    </row>
+    <row r="345" ht="80" customHeight="1" spans="1:5">
       <c r="A345" s="4"/>
       <c r="B345" s="4" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="4"/>
-      <c r="E345" s="7"/>
-    </row>
-    <row r="346" customHeight="1" spans="1:5">
+      <c r="E345" s="4"/>
+    </row>
+    <row r="346" ht="80" customHeight="1" spans="1:5">
       <c r="A346" s="4"/>
       <c r="B346" s="4" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="4"/>
-      <c r="E346" s="7"/>
-    </row>
-    <row r="347" customHeight="1" spans="1:5">
+      <c r="E346" s="4"/>
+    </row>
+    <row r="347" ht="80" customHeight="1" spans="1:5">
       <c r="A347" s="4"/>
       <c r="B347" s="4" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="4"/>
-      <c r="E347" s="7"/>
-    </row>
-    <row r="348" customHeight="1" spans="1:5">
+      <c r="E347" s="4"/>
+    </row>
+    <row r="348" ht="80" customHeight="1" spans="1:5">
       <c r="A348" s="4"/>
       <c r="B348" s="4" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C348" s="6"/>
       <c r="D348" s="4"/>
-      <c r="E348" s="7"/>
-    </row>
-    <row r="349" customHeight="1" spans="1:5">
+      <c r="E348" s="4"/>
+    </row>
+    <row r="349" ht="80" customHeight="1" spans="1:5">
       <c r="A349" s="4" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="4"/>
-      <c r="E349" s="7"/>
-    </row>
-    <row r="350" customHeight="1" spans="1:5">
+      <c r="E349" s="4"/>
+    </row>
+    <row r="350" ht="80" customHeight="1" spans="1:5">
       <c r="A350" s="4"/>
       <c r="B350" s="4" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C350" s="6"/>
       <c r="D350" s="4"/>
-      <c r="E350" s="7"/>
-    </row>
-    <row r="351" customHeight="1" spans="1:5">
+      <c r="E350" s="4"/>
+    </row>
+    <row r="351" ht="80" customHeight="1" spans="1:5">
       <c r="A351" s="4"/>
       <c r="B351" s="4" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="4"/>
-      <c r="E351" s="7"/>
-    </row>
-    <row r="352" customHeight="1" spans="1:5">
+      <c r="E351" s="4"/>
+    </row>
+    <row r="352" ht="80" customHeight="1" spans="1:5">
       <c r="A352" s="4"/>
       <c r="B352" s="4" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="4"/>
-      <c r="E352" s="7"/>
-    </row>
-    <row r="353" customHeight="1" spans="1:5">
+      <c r="E352" s="4"/>
+    </row>
+    <row r="353" ht="80" customHeight="1" spans="1:5">
       <c r="A353" s="4"/>
       <c r="B353" s="4" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C353" s="6"/>
       <c r="D353" s="4"/>
-      <c r="E353" s="7"/>
-    </row>
-    <row r="354" customHeight="1" spans="1:5">
+      <c r="E353" s="4"/>
+    </row>
+    <row r="354" ht="80" customHeight="1" spans="1:5">
       <c r="A354" s="4"/>
       <c r="B354" s="4" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="4"/>
-      <c r="E354" s="7"/>
-    </row>
-    <row r="355" customHeight="1" spans="1:5">
+      <c r="E354" s="4"/>
+    </row>
+    <row r="355" ht="80" customHeight="1" spans="1:5">
       <c r="A355" s="4"/>
       <c r="B355" s="4" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="4"/>
-      <c r="E355" s="7"/>
-    </row>
-    <row r="356" customHeight="1" spans="1:5">
+      <c r="E355" s="4"/>
+    </row>
+    <row r="356" ht="80" customHeight="1" spans="1:5">
       <c r="A356" s="4"/>
       <c r="B356" s="4" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="4"/>
-      <c r="E356" s="7"/>
-    </row>
-    <row r="357" customHeight="1" spans="1:5">
+      <c r="E356" s="4"/>
+    </row>
+    <row r="357" ht="80" customHeight="1" spans="1:5">
       <c r="A357" s="4"/>
       <c r="B357" s="4" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="4"/>
-      <c r="E357" s="7"/>
-    </row>
-    <row r="358" customHeight="1" spans="1:5">
+      <c r="E357" s="4"/>
+    </row>
+    <row r="358" ht="80" customHeight="1" spans="1:5">
       <c r="A358" s="4"/>
       <c r="B358" s="4" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="4"/>
-      <c r="E358" s="7"/>
-    </row>
-    <row r="359" customHeight="1" spans="1:5">
+      <c r="E358" s="4"/>
+    </row>
+    <row r="359" ht="80" customHeight="1" spans="1:5">
       <c r="A359" s="4"/>
       <c r="B359" s="4" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C359" s="6"/>
       <c r="D359" s="4"/>
-      <c r="E359" s="7"/>
-    </row>
-    <row r="360" customHeight="1" spans="1:5">
+      <c r="E359" s="4"/>
+    </row>
+    <row r="360" ht="80" customHeight="1" spans="1:5">
       <c r="A360" s="4"/>
       <c r="B360" s="4" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C360" s="6"/>
       <c r="D360" s="4"/>
-      <c r="E360" s="7"/>
-    </row>
-    <row r="361" customHeight="1" spans="1:5">
+      <c r="E360" s="4"/>
+    </row>
+    <row r="361" ht="80" customHeight="1" spans="1:5">
       <c r="A361" s="4"/>
       <c r="B361" s="4" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C361" s="6"/>
       <c r="D361" s="4"/>
-      <c r="E361" s="7"/>
-    </row>
-    <row r="362" customHeight="1" spans="1:5">
+      <c r="E361" s="4"/>
+    </row>
+    <row r="362" ht="80" customHeight="1" spans="1:5">
       <c r="A362" s="4"/>
       <c r="B362" s="4" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C362" s="6"/>
       <c r="D362" s="4"/>
-      <c r="E362" s="7"/>
-    </row>
-    <row r="363" customHeight="1" spans="1:5">
+      <c r="E362" s="4"/>
+    </row>
+    <row r="363" ht="80" customHeight="1" spans="1:5">
       <c r="A363" s="4"/>
       <c r="B363" s="4" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C363" s="6"/>
       <c r="D363" s="4"/>
-      <c r="E363" s="7"/>
-    </row>
-    <row r="364" customHeight="1" spans="1:5">
+      <c r="E363" s="4"/>
+    </row>
+    <row r="364" ht="80" customHeight="1" spans="1:5">
       <c r="A364" s="4"/>
       <c r="B364" s="4" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C364" s="6"/>
       <c r="D364" s="4"/>
-      <c r="E364" s="7"/>
-    </row>
-    <row r="365" customHeight="1" spans="1:5">
+      <c r="E364" s="4"/>
+    </row>
+    <row r="365" ht="80" customHeight="1" spans="1:5">
       <c r="A365" s="4"/>
       <c r="B365" s="4" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="4"/>
-      <c r="E365" s="7"/>
-    </row>
-    <row r="366" customHeight="1" spans="1:5">
+      <c r="E365" s="4"/>
+    </row>
+    <row r="366" ht="80" customHeight="1" spans="1:5">
       <c r="A366" s="4"/>
       <c r="B366" s="4" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="4"/>
-      <c r="E366" s="7"/>
-    </row>
-    <row r="367" customHeight="1" spans="1:5">
+      <c r="E366" s="4"/>
+    </row>
+    <row r="367" ht="80" customHeight="1" spans="1:5">
       <c r="A367" s="4"/>
       <c r="B367" s="4" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="4"/>
-      <c r="E367" s="7"/>
-    </row>
-    <row r="368" customHeight="1" spans="1:5">
+      <c r="E367" s="4"/>
+    </row>
+    <row r="368" ht="80" customHeight="1" spans="1:5">
       <c r="A368" s="4"/>
       <c r="B368" s="4" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="4"/>
-      <c r="E368" s="7"/>
-    </row>
-    <row r="369" customHeight="1" spans="1:5">
+      <c r="E368" s="4"/>
+    </row>
+    <row r="369" ht="80" customHeight="1" spans="1:5">
       <c r="A369" s="4"/>
       <c r="B369" s="4" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C369" s="6"/>
       <c r="D369" s="4"/>
-      <c r="E369" s="7"/>
-    </row>
-    <row r="370" customHeight="1" spans="1:5">
+      <c r="E369" s="4"/>
+    </row>
+    <row r="370" ht="80" customHeight="1" spans="1:5">
       <c r="A370" s="4"/>
       <c r="B370" s="4" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="4"/>
-      <c r="E370" s="7"/>
-    </row>
-    <row r="371" customHeight="1" spans="1:5">
+      <c r="E370" s="4"/>
+    </row>
+    <row r="371" ht="80" customHeight="1" spans="1:5">
       <c r="A371" s="4"/>
       <c r="B371" s="4" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C371" s="6"/>
       <c r="D371" s="4"/>
-      <c r="E371" s="7"/>
-    </row>
-    <row r="372" customHeight="1" spans="1:5">
+      <c r="E371" s="4"/>
+    </row>
+    <row r="372" ht="80" customHeight="1" spans="1:5">
       <c r="A372" s="4"/>
       <c r="B372" s="4" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="4"/>
-      <c r="E372" s="7"/>
-    </row>
-    <row r="373" customHeight="1" spans="1:5">
+      <c r="E372" s="4"/>
+    </row>
+    <row r="373" ht="80" customHeight="1" spans="1:5">
       <c r="A373" s="4"/>
       <c r="B373" s="4" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C373" s="6"/>
       <c r="D373" s="4"/>
-      <c r="E373" s="7"/>
-    </row>
-    <row r="374" customHeight="1" spans="1:5">
+      <c r="E373" s="4"/>
+    </row>
+    <row r="374" ht="80" customHeight="1" spans="1:5">
       <c r="A374" s="4"/>
       <c r="B374" s="4" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C374" s="6"/>
       <c r="D374" s="4"/>
-      <c r="E374" s="7"/>
-    </row>
-    <row r="375" customHeight="1" spans="1:5">
+      <c r="E374" s="4"/>
+    </row>
+    <row r="375" ht="80" customHeight="1" spans="1:5">
       <c r="A375" s="4"/>
       <c r="B375" s="4" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="4"/>
-      <c r="E375" s="7"/>
-    </row>
-    <row r="376" customHeight="1" spans="1:5">
+      <c r="E375" s="4"/>
+    </row>
+    <row r="376" ht="80" customHeight="1" spans="1:5">
       <c r="A376" s="4"/>
       <c r="B376" s="4" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="4"/>
-      <c r="E376" s="7"/>
-    </row>
-    <row r="377" customHeight="1" spans="1:5">
+      <c r="E376" s="4"/>
+    </row>
+    <row r="377" ht="80" customHeight="1" spans="1:5">
       <c r="A377" s="4"/>
       <c r="B377" s="4" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C377" s="6"/>
       <c r="D377" s="4"/>
-      <c r="E377" s="7"/>
-    </row>
-    <row r="378" customHeight="1" spans="1:5">
+      <c r="E377" s="4"/>
+    </row>
+    <row r="378" ht="80" customHeight="1" spans="1:5">
       <c r="A378" s="4"/>
       <c r="B378" s="4" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="4"/>
-      <c r="E378" s="7"/>
-    </row>
-    <row r="379" customHeight="1" spans="1:5">
+      <c r="E378" s="4"/>
+    </row>
+    <row r="379" ht="80" customHeight="1" spans="1:5">
       <c r="A379" s="4"/>
       <c r="B379" s="4" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="4"/>
-      <c r="E379" s="7"/>
-    </row>
-    <row r="380" customHeight="1" spans="1:5">
+      <c r="E379" s="4"/>
+    </row>
+    <row r="380" ht="80" customHeight="1" spans="1:5">
       <c r="A380" s="4"/>
       <c r="B380" s="4" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C380" s="6"/>
       <c r="D380" s="4"/>
-      <c r="E380" s="7"/>
-    </row>
-    <row r="381" customHeight="1" spans="1:5">
+      <c r="E380" s="4"/>
+    </row>
+    <row r="381" ht="80" customHeight="1" spans="1:5">
       <c r="A381" s="4"/>
       <c r="B381" s="4" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C381" s="6"/>
       <c r="D381" s="4"/>
-      <c r="E381" s="7"/>
-    </row>
-    <row r="382" customHeight="1" spans="1:5">
+      <c r="E381" s="4"/>
+    </row>
+    <row r="382" ht="80" customHeight="1" spans="1:5">
       <c r="A382" s="4"/>
       <c r="B382" s="4" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="4"/>
-      <c r="E382" s="7"/>
-    </row>
-    <row r="383" customHeight="1" spans="1:5">
+      <c r="E382" s="4"/>
+    </row>
+    <row r="383" ht="80" customHeight="1" spans="1:5">
       <c r="A383" s="4"/>
       <c r="B383" s="4" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="4"/>
-      <c r="E383" s="7"/>
-    </row>
-    <row r="384" customHeight="1" spans="1:5">
+      <c r="E383" s="4"/>
+    </row>
+    <row r="384" ht="80" customHeight="1" spans="1:5">
       <c r="A384" s="4"/>
       <c r="B384" s="4" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="C384" s="6"/>
       <c r="D384" s="4"/>
-      <c r="E384" s="7"/>
-    </row>
-    <row r="385" customHeight="1" spans="1:5">
+      <c r="E384" s="4"/>
+    </row>
+    <row r="385" ht="80" customHeight="1" spans="1:5">
       <c r="A385" s="4"/>
       <c r="B385" s="4" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C385" s="6"/>
       <c r="D385" s="4"/>
-      <c r="E385" s="7"/>
-    </row>
-    <row r="386" customHeight="1" spans="1:5">
+      <c r="E385" s="4"/>
+    </row>
+    <row r="386" ht="80" customHeight="1" spans="1:5">
       <c r="A386" s="4"/>
       <c r="B386" s="4" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="4"/>
-      <c r="E386" s="7"/>
-    </row>
-    <row r="387" customHeight="1" spans="1:5">
+      <c r="E386" s="4"/>
+    </row>
+    <row r="387" ht="80" customHeight="1" spans="1:5">
       <c r="A387" s="4"/>
       <c r="B387" s="4" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="4"/>
-      <c r="E387" s="7"/>
-    </row>
-    <row r="388" customHeight="1" spans="1:5">
+      <c r="E387" s="4"/>
+    </row>
+    <row r="388" ht="80" customHeight="1" spans="1:5">
       <c r="A388" s="4"/>
       <c r="B388" s="4" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="4"/>
-      <c r="E388" s="7"/>
-    </row>
-    <row r="389" customHeight="1" spans="1:5">
+      <c r="E388" s="4"/>
+    </row>
+    <row r="389" ht="80" customHeight="1" spans="1:5">
       <c r="A389" s="4"/>
       <c r="B389" s="4" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C389" s="6"/>
       <c r="D389" s="4"/>
-      <c r="E389" s="7"/>
-    </row>
-    <row r="390" customHeight="1" spans="1:5">
+      <c r="E389" s="4"/>
+    </row>
+    <row r="390" ht="80" customHeight="1" spans="1:5">
       <c r="A390" s="4"/>
       <c r="B390" s="4" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C390" s="6"/>
       <c r="D390" s="4"/>
-      <c r="E390" s="7"/>
-    </row>
-    <row r="391" customHeight="1" spans="1:5">
+      <c r="E390" s="4"/>
+    </row>
+    <row r="391" ht="80" customHeight="1" spans="1:5">
       <c r="A391" s="4"/>
       <c r="B391" s="4" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C391" s="6"/>
       <c r="D391" s="4"/>
-      <c r="E391" s="7"/>
-    </row>
-    <row r="392" customHeight="1" spans="1:5">
+      <c r="E391" s="4"/>
+    </row>
+    <row r="392" ht="80" customHeight="1" spans="1:5">
       <c r="A392" s="4"/>
       <c r="B392" s="4" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C392" s="6"/>
       <c r="D392" s="4"/>
-      <c r="E392" s="7"/>
-    </row>
-    <row r="393" customHeight="1" spans="1:5">
+      <c r="E392" s="4"/>
+    </row>
+    <row r="393" ht="80" customHeight="1" spans="1:5">
       <c r="A393" s="4" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="4"/>
-      <c r="E393" s="7"/>
-    </row>
-    <row r="394" customHeight="1" spans="1:5">
+      <c r="E393" s="4"/>
+    </row>
+    <row r="394" ht="80" customHeight="1" spans="1:5">
       <c r="A394" s="4"/>
       <c r="B394" s="4" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="4"/>
-      <c r="E394" s="7"/>
-    </row>
-    <row r="395" customHeight="1" spans="1:5">
+      <c r="E394" s="4"/>
+    </row>
+    <row r="395" ht="80" customHeight="1" spans="1:5">
       <c r="A395" s="4"/>
       <c r="B395" s="4" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="4"/>
-      <c r="E395" s="7"/>
-    </row>
-    <row r="396" customHeight="1" spans="1:5">
+      <c r="E395" s="4"/>
+    </row>
+    <row r="396" ht="80" customHeight="1" spans="1:5">
       <c r="A396" s="4"/>
       <c r="B396" s="4" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="4"/>
-      <c r="E396" s="7"/>
-    </row>
-    <row r="397" customHeight="1" spans="1:5">
+      <c r="E396" s="4"/>
+    </row>
+    <row r="397" ht="80" customHeight="1" spans="1:5">
       <c r="A397" s="4"/>
       <c r="B397" s="4" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C397" s="6"/>
       <c r="D397" s="4"/>
-      <c r="E397" s="7"/>
-    </row>
-    <row r="398" customHeight="1" spans="1:5">
+      <c r="E397" s="4"/>
+    </row>
+    <row r="398" ht="80" customHeight="1" spans="1:5">
       <c r="A398" s="4"/>
       <c r="B398" s="4" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="4"/>
-      <c r="E398" s="7"/>
-    </row>
-    <row r="399" customHeight="1" spans="1:5">
+      <c r="E398" s="4"/>
+    </row>
+    <row r="399" ht="80" customHeight="1" spans="1:5">
       <c r="A399" s="4"/>
       <c r="B399" s="4" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="4"/>
-      <c r="E399" s="7"/>
-    </row>
-    <row r="400" customHeight="1" spans="1:5">
+      <c r="E399" s="4"/>
+    </row>
+    <row r="400" ht="80" customHeight="1" spans="1:5">
       <c r="A400" s="4"/>
       <c r="B400" s="4" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C400" s="6"/>
       <c r="D400" s="4"/>
-      <c r="E400" s="7"/>
-    </row>
-    <row r="401" customHeight="1" spans="1:5">
+      <c r="E400" s="4"/>
+    </row>
+    <row r="401" ht="80" customHeight="1" spans="1:5">
       <c r="A401" s="4"/>
       <c r="B401" s="4" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="C401" s="6"/>
       <c r="D401" s="4"/>
-      <c r="E401" s="7"/>
-    </row>
-    <row r="402" customHeight="1" spans="1:5">
+      <c r="E401" s="4"/>
+    </row>
+    <row r="402" ht="80" customHeight="1" spans="1:5">
       <c r="A402" s="4"/>
       <c r="B402" s="4" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="4"/>
-      <c r="E402" s="7"/>
-    </row>
-    <row r="403" customHeight="1" spans="1:5">
+      <c r="E402" s="4"/>
+    </row>
+    <row r="403" ht="80" customHeight="1" spans="1:5">
       <c r="A403" s="4"/>
       <c r="B403" s="4" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="4"/>
-      <c r="E403" s="7"/>
-    </row>
-    <row r="404" customHeight="1" spans="1:5">
+      <c r="E403" s="4"/>
+    </row>
+    <row r="404" ht="80" customHeight="1" spans="1:5">
       <c r="A404" s="4"/>
       <c r="B404" s="4" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C404" s="6"/>
       <c r="D404" s="4"/>
-      <c r="E404" s="7"/>
-    </row>
-    <row r="405" customHeight="1" spans="1:5">
+      <c r="E404" s="4"/>
+    </row>
+    <row r="405" ht="80" customHeight="1" spans="1:5">
       <c r="A405" s="4"/>
       <c r="B405" s="4" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C405" s="6"/>
       <c r="D405" s="4"/>
-      <c r="E405" s="7"/>
-    </row>
-    <row r="406" customHeight="1" spans="1:5">
+      <c r="E405" s="4"/>
+    </row>
+    <row r="406" ht="80" customHeight="1" spans="1:5">
       <c r="A406" s="4"/>
       <c r="B406" s="4" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="C406" s="6"/>
       <c r="D406" s="4"/>
-      <c r="E406" s="7"/>
-    </row>
-    <row r="407" customHeight="1" spans="1:5">
+      <c r="E406" s="4"/>
+    </row>
+    <row r="407" ht="80" customHeight="1" spans="1:5">
       <c r="A407" s="4"/>
       <c r="B407" s="4" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="4"/>
-      <c r="E407" s="7"/>
-    </row>
-    <row r="408" customHeight="1" spans="1:5">
+      <c r="E407" s="4"/>
+    </row>
+    <row r="408" ht="80" customHeight="1" spans="1:5">
       <c r="A408" s="4"/>
       <c r="B408" s="4" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C408" s="6"/>
       <c r="D408" s="4"/>
-      <c r="E408" s="7"/>
-    </row>
-    <row r="409" customHeight="1" spans="1:5">
+      <c r="E408" s="4"/>
+    </row>
+    <row r="409" ht="80" customHeight="1" spans="1:5">
       <c r="A409" s="4"/>
       <c r="B409" s="4" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C409" s="6"/>
       <c r="D409" s="4"/>
-      <c r="E409" s="7"/>
-    </row>
-    <row r="410" customHeight="1" spans="1:5">
+      <c r="E409" s="4"/>
+    </row>
+    <row r="410" ht="80" customHeight="1" spans="1:5">
       <c r="A410" s="4"/>
       <c r="B410" s="4" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="4"/>
-      <c r="E410" s="7"/>
-    </row>
-    <row r="411" customHeight="1" spans="1:5">
+      <c r="E410" s="4"/>
+    </row>
+    <row r="411" ht="80" customHeight="1" spans="1:5">
       <c r="A411" s="4"/>
       <c r="B411" s="4" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="4"/>
-      <c r="E411" s="7"/>
-    </row>
-    <row r="412" customHeight="1" spans="1:5">
+      <c r="E411" s="4"/>
+    </row>
+    <row r="412" ht="80" customHeight="1" spans="1:5">
       <c r="A412" s="4"/>
       <c r="B412" s="4" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="C412" s="6"/>
       <c r="D412" s="4"/>
-      <c r="E412" s="7"/>
-    </row>
-    <row r="413" customHeight="1" spans="1:5">
+      <c r="E412" s="4"/>
+    </row>
+    <row r="413" ht="80" customHeight="1" spans="1:5">
       <c r="A413" s="4"/>
       <c r="B413" s="4" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="4"/>
-      <c r="E413" s="7"/>
-    </row>
-    <row r="414" customHeight="1" spans="1:5">
+      <c r="E413" s="4"/>
+    </row>
+    <row r="414" ht="80" customHeight="1" spans="1:5">
       <c r="A414" s="4"/>
       <c r="B414" s="4" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C414" s="6"/>
       <c r="D414" s="4"/>
-      <c r="E414" s="7"/>
-    </row>
-    <row r="415" customHeight="1" spans="1:5">
+      <c r="E414" s="4"/>
+    </row>
+    <row r="415" ht="80" customHeight="1" spans="1:5">
       <c r="A415" s="4"/>
       <c r="B415" s="4" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C415" s="6"/>
       <c r="D415" s="4"/>
-      <c r="E415" s="7"/>
-    </row>
-    <row r="416" customHeight="1" spans="1:5">
+      <c r="E415" s="4"/>
+    </row>
+    <row r="416" ht="80" customHeight="1" spans="1:5">
       <c r="A416" s="4"/>
       <c r="B416" s="4" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="C416" s="6"/>
       <c r="D416" s="4"/>
-      <c r="E416" s="7"/>
-    </row>
-    <row r="417" customHeight="1" spans="1:5">
+      <c r="E416" s="4"/>
+    </row>
+    <row r="417" ht="80" customHeight="1" spans="1:5">
       <c r="A417" s="4"/>
       <c r="B417" s="4" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C417" s="6"/>
       <c r="D417" s="4"/>
-      <c r="E417" s="7"/>
-    </row>
-    <row r="418" customHeight="1" spans="1:5">
+      <c r="E417" s="4"/>
+    </row>
+    <row r="418" ht="80" customHeight="1" spans="1:5">
       <c r="A418" s="4"/>
       <c r="B418" s="4" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C418" s="6"/>
       <c r="D418" s="4"/>
-      <c r="E418" s="7"/>
-    </row>
-    <row r="419" customHeight="1" spans="1:5">
+      <c r="E418" s="4"/>
+    </row>
+    <row r="419" ht="80" customHeight="1" spans="1:5">
       <c r="A419" s="4"/>
       <c r="B419" s="4" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="C419" s="6"/>
       <c r="D419" s="4"/>
-      <c r="E419" s="7"/>
-    </row>
-    <row r="420" customHeight="1" spans="1:5">
+      <c r="E419" s="4"/>
+    </row>
+    <row r="420" ht="80" customHeight="1" spans="1:5">
       <c r="A420" s="4"/>
       <c r="B420" s="4" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="4"/>
-      <c r="E420" s="7"/>
-    </row>
-    <row r="421" customHeight="1" spans="1:5">
+      <c r="E420" s="4"/>
+    </row>
+    <row r="421" ht="80" customHeight="1" spans="1:5">
       <c r="A421" s="4"/>
       <c r="B421" s="4" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C421" s="6"/>
       <c r="D421" s="4"/>
-      <c r="E421" s="7"/>
-    </row>
-    <row r="422" customHeight="1" spans="1:5">
+      <c r="E421" s="4"/>
+    </row>
+    <row r="422" ht="80" customHeight="1" spans="1:5">
       <c r="A422" s="4"/>
       <c r="B422" s="4" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C422" s="6"/>
       <c r="D422" s="4"/>
-      <c r="E422" s="7"/>
-    </row>
-    <row r="423" customHeight="1" spans="1:5">
+      <c r="E422" s="4"/>
+    </row>
+    <row r="423" ht="80" customHeight="1" spans="1:5">
       <c r="A423" s="4"/>
       <c r="B423" s="4" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="C423" s="6"/>
       <c r="D423" s="4"/>
-      <c r="E423" s="7"/>
-    </row>
-    <row r="424" customHeight="1" spans="1:5">
+      <c r="E423" s="4"/>
+    </row>
+    <row r="424" ht="80" customHeight="1" spans="1:5">
       <c r="A424" s="4"/>
       <c r="B424" s="4" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C424" s="6"/>
       <c r="D424" s="4"/>
-      <c r="E424" s="7"/>
-    </row>
-    <row r="425" customHeight="1" spans="1:5">
+      <c r="E424" s="4"/>
+    </row>
+    <row r="425" ht="80" customHeight="1" spans="1:5">
       <c r="A425" s="4"/>
       <c r="B425" s="4" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="C425" s="6"/>
       <c r="D425" s="4"/>
-      <c r="E425" s="7"/>
-    </row>
-    <row r="426" customHeight="1" spans="1:5">
+      <c r="E425" s="4"/>
+    </row>
+    <row r="426" ht="80" customHeight="1" spans="1:5">
       <c r="A426" s="4"/>
       <c r="B426" s="4" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="C426" s="6"/>
       <c r="D426" s="4"/>
-      <c r="E426" s="7"/>
-    </row>
-    <row r="427" customHeight="1" spans="1:5">
+      <c r="E426" s="4"/>
+    </row>
+    <row r="427" ht="80" customHeight="1" spans="1:5">
       <c r="A427" s="4"/>
       <c r="B427" s="4" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="C427" s="6"/>
       <c r="D427" s="4"/>
-      <c r="E427" s="7"/>
-    </row>
-    <row r="428" customHeight="1" spans="1:5">
+      <c r="E427" s="4"/>
+    </row>
+    <row r="428" ht="80" customHeight="1" spans="1:5">
       <c r="A428" s="4"/>
       <c r="B428" s="4" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="C428" s="6"/>
       <c r="D428" s="4"/>
-      <c r="E428" s="7"/>
-    </row>
-    <row r="429" customHeight="1" spans="1:5">
+      <c r="E428" s="4"/>
+    </row>
+    <row r="429" ht="80" customHeight="1" spans="1:5">
       <c r="A429" s="4"/>
       <c r="B429" s="4" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C429" s="6"/>
       <c r="D429" s="4"/>
-      <c r="E429" s="7"/>
-    </row>
-    <row r="430" customHeight="1" spans="1:5">
+      <c r="E429" s="4"/>
+    </row>
+    <row r="430" ht="80" customHeight="1" spans="1:5">
       <c r="A430" s="4"/>
       <c r="B430" s="4" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C430" s="6"/>
       <c r="D430" s="4"/>
-      <c r="E430" s="7"/>
-    </row>
-    <row r="431" customHeight="1" spans="1:5">
+      <c r="E430" s="4"/>
+    </row>
+    <row r="431" ht="80" customHeight="1" spans="1:5">
       <c r="A431" s="4"/>
       <c r="B431" s="4" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="C431" s="6"/>
       <c r="D431" s="4"/>
-      <c r="E431" s="7"/>
-    </row>
-    <row r="432" customHeight="1" spans="1:5">
+      <c r="E431" s="4"/>
+    </row>
+    <row r="432" ht="80" customHeight="1" spans="1:5">
       <c r="A432" s="4"/>
       <c r="B432" s="4" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C432" s="6"/>
       <c r="D432" s="4"/>
-      <c r="E432" s="7"/>
-    </row>
-    <row r="433" customHeight="1" spans="1:5">
+      <c r="E432" s="4"/>
+    </row>
+    <row r="433" ht="80" customHeight="1" spans="1:5">
       <c r="A433" s="4"/>
       <c r="B433" s="4" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C433" s="6"/>
       <c r="D433" s="4"/>
-      <c r="E433" s="7"/>
-    </row>
-    <row r="434" customHeight="1" spans="1:5">
+      <c r="E433" s="4"/>
+    </row>
+    <row r="434" ht="80" customHeight="1" spans="1:5">
       <c r="A434" s="4"/>
       <c r="B434" s="4" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C434" s="6"/>
       <c r="D434" s="4"/>
-      <c r="E434" s="7"/>
-    </row>
-    <row r="435" customHeight="1" spans="1:5">
+      <c r="E434" s="4"/>
+    </row>
+    <row r="435" ht="80" customHeight="1" spans="1:5">
       <c r="A435" s="4" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="C435" s="6"/>
       <c r="D435" s="4"/>
-      <c r="E435" s="7"/>
-    </row>
-    <row r="436" customHeight="1" spans="1:5">
+      <c r="E435" s="4"/>
+    </row>
+    <row r="436" ht="80" customHeight="1" spans="1:5">
       <c r="A436" s="4"/>
       <c r="B436" s="4" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C436" s="6"/>
       <c r="D436" s="4"/>
-      <c r="E436" s="7"/>
-    </row>
-    <row r="437" customHeight="1" spans="1:5">
+      <c r="E436" s="4"/>
+    </row>
+    <row r="437" ht="80" customHeight="1" spans="1:5">
       <c r="A437" s="4"/>
       <c r="B437" s="4" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="C437" s="6"/>
       <c r="D437" s="4"/>
-      <c r="E437" s="7"/>
-    </row>
-    <row r="438" customHeight="1" spans="1:5">
+      <c r="E437" s="4"/>
+    </row>
+    <row r="438" ht="80" customHeight="1" spans="1:5">
       <c r="A438" s="4"/>
       <c r="B438" s="4" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="C438" s="6"/>
       <c r="D438" s="4"/>
-      <c r="E438" s="7"/>
-    </row>
-    <row r="439" customHeight="1" spans="1:5">
+      <c r="E438" s="4"/>
+    </row>
+    <row r="439" ht="80" customHeight="1" spans="1:5">
       <c r="A439" s="4"/>
       <c r="B439" s="4" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C439" s="6"/>
       <c r="D439" s="4"/>
-      <c r="E439" s="7"/>
-    </row>
-    <row r="440" customHeight="1" spans="1:5">
+      <c r="E439" s="4"/>
+    </row>
+    <row r="440" ht="80" customHeight="1" spans="1:5">
       <c r="A440" s="4"/>
       <c r="B440" s="4" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C440" s="6"/>
       <c r="D440" s="4"/>
-      <c r="E440" s="7"/>
-    </row>
-    <row r="441" customHeight="1" spans="1:5">
+      <c r="E440" s="4"/>
+    </row>
+    <row r="441" ht="80" customHeight="1" spans="1:5">
       <c r="A441" s="4"/>
       <c r="B441" s="4" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C441" s="6"/>
       <c r="D441" s="4"/>
-      <c r="E441" s="7"/>
-    </row>
-    <row r="442" customHeight="1" spans="1:5">
+      <c r="E441" s="4"/>
+    </row>
+    <row r="442" ht="80" customHeight="1" spans="1:5">
       <c r="A442" s="4"/>
       <c r="B442" s="4" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C442" s="6"/>
       <c r="D442" s="4"/>
-      <c r="E442" s="7"/>
-    </row>
-    <row r="443" customHeight="1" spans="1:5">
+      <c r="E442" s="4"/>
+    </row>
+    <row r="443" ht="80" customHeight="1" spans="1:5">
       <c r="A443" s="4"/>
       <c r="B443" s="4" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="C443" s="6"/>
       <c r="D443" s="4"/>
-      <c r="E443" s="7"/>
-    </row>
-    <row r="444" customHeight="1" spans="1:5">
+      <c r="E443" s="4"/>
+    </row>
+    <row r="444" ht="80" customHeight="1" spans="1:5">
       <c r="A444" s="4"/>
       <c r="B444" s="4" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C444" s="6"/>
       <c r="D444" s="4"/>
-      <c r="E444" s="7"/>
-    </row>
-    <row r="445" customHeight="1" spans="1:5">
+      <c r="E444" s="4"/>
+    </row>
+    <row r="445" ht="80" customHeight="1" spans="1:5">
       <c r="A445" s="4"/>
       <c r="B445" s="4" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C445" s="6"/>
       <c r="D445" s="4"/>
-      <c r="E445" s="7"/>
-    </row>
-    <row r="446" customHeight="1" spans="1:5">
+      <c r="E445" s="4"/>
+    </row>
+    <row r="446" ht="80" customHeight="1" spans="1:5">
       <c r="A446" s="4"/>
       <c r="B446" s="4" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="C446" s="6"/>
       <c r="D446" s="4"/>
-      <c r="E446" s="7"/>
-    </row>
-    <row r="447" customHeight="1" spans="1:5">
+      <c r="E446" s="4"/>
+    </row>
+    <row r="447" ht="80" customHeight="1" spans="1:5">
       <c r="A447" s="4"/>
       <c r="B447" s="4" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="C447" s="6"/>
       <c r="D447" s="4"/>
-      <c r="E447" s="7"/>
-    </row>
-    <row r="448" customHeight="1" spans="1:5">
+      <c r="E447" s="4"/>
+    </row>
+    <row r="448" ht="80" customHeight="1" spans="1:5">
       <c r="A448" s="4"/>
       <c r="B448" s="4" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C448" s="6"/>
       <c r="D448" s="4"/>
-      <c r="E448" s="7"/>
-    </row>
-    <row r="449" customHeight="1" spans="1:5">
+      <c r="E448" s="4"/>
+    </row>
+    <row r="449" ht="80" customHeight="1" spans="1:5">
       <c r="A449" s="4" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C449" s="6"/>
       <c r="D449" s="4"/>
-      <c r="E449" s="7"/>
-    </row>
-    <row r="450" customHeight="1" spans="1:5">
+      <c r="E449" s="4"/>
+    </row>
+    <row r="450" ht="80" customHeight="1" spans="1:5">
       <c r="A450" s="4"/>
       <c r="B450" s="4" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C450" s="6"/>
       <c r="D450" s="4"/>
-      <c r="E450" s="7"/>
-    </row>
-    <row r="451" customHeight="1" spans="1:5">
+      <c r="E450" s="4"/>
+    </row>
+    <row r="451" ht="80" customHeight="1" spans="1:5">
       <c r="A451" s="4"/>
       <c r="B451" s="4" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C451" s="6"/>
       <c r="D451" s="4"/>
-      <c r="E451" s="7"/>
-    </row>
-    <row r="452" customHeight="1" spans="1:5">
+      <c r="E451" s="4"/>
+    </row>
+    <row r="452" ht="80" customHeight="1" spans="1:5">
       <c r="A452" s="4"/>
       <c r="B452" s="4" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C452" s="6"/>
       <c r="D452" s="4"/>
-      <c r="E452" s="7"/>
-    </row>
-    <row r="453" customHeight="1" spans="1:5">
+      <c r="E452" s="4"/>
+    </row>
+    <row r="453" ht="80" customHeight="1" spans="1:5">
       <c r="A453" s="4"/>
       <c r="B453" s="4" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C453" s="6"/>
       <c r="D453" s="4"/>
-      <c r="E453" s="7"/>
-    </row>
-    <row r="454" customHeight="1" spans="1:5">
+      <c r="E453" s="4"/>
+    </row>
+    <row r="454" ht="80" customHeight="1" spans="1:5">
       <c r="A454" s="4"/>
       <c r="B454" s="4" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C454" s="6"/>
       <c r="D454" s="4"/>
-      <c r="E454" s="7"/>
-    </row>
-    <row r="455" customHeight="1" spans="1:5">
+      <c r="E454" s="4"/>
+    </row>
+    <row r="455" ht="80" customHeight="1" spans="1:5">
       <c r="A455" s="4"/>
       <c r="B455" s="4" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C455" s="6"/>
       <c r="D455" s="4"/>
-      <c r="E455" s="7"/>
-    </row>
-    <row r="456" customHeight="1" spans="1:5">
+      <c r="E455" s="4"/>
+    </row>
+    <row r="456" ht="80" customHeight="1" spans="1:5">
       <c r="A456" s="4"/>
       <c r="B456" s="4" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C456" s="6"/>
       <c r="D456" s="4"/>
-      <c r="E456" s="7"/>
-    </row>
-    <row r="457" customHeight="1" spans="1:5">
+      <c r="E456" s="4"/>
+    </row>
+    <row r="457" ht="80" customHeight="1" spans="1:5">
       <c r="A457" s="4"/>
       <c r="B457" s="4" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C457" s="6"/>
       <c r="D457" s="4"/>
-      <c r="E457" s="7"/>
-    </row>
-    <row r="458" customHeight="1" spans="1:5">
+      <c r="E457" s="4"/>
+    </row>
+    <row r="458" ht="80" customHeight="1" spans="1:5">
       <c r="A458" s="4"/>
       <c r="B458" s="4" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C458" s="6"/>
       <c r="D458" s="4"/>
-      <c r="E458" s="7"/>
-    </row>
-    <row r="459" customHeight="1" spans="1:5">
+      <c r="E458" s="4"/>
+    </row>
+    <row r="459" ht="80" customHeight="1" spans="1:5">
       <c r="A459" s="4"/>
       <c r="B459" s="4" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C459" s="6"/>
       <c r="D459" s="4"/>
-      <c r="E459" s="7"/>
-    </row>
-    <row r="460" customHeight="1" spans="1:5">
+      <c r="E459" s="4"/>
+    </row>
+    <row r="460" ht="80" customHeight="1" spans="1:5">
       <c r="A460" s="4"/>
       <c r="B460" s="4" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C460" s="6"/>
       <c r="D460" s="4"/>
-      <c r="E460" s="7"/>
-    </row>
-    <row r="461" customHeight="1" spans="1:5">
+      <c r="E460" s="4"/>
+    </row>
+    <row r="461" ht="80" customHeight="1" spans="1:5">
       <c r="A461" s="4"/>
       <c r="B461" s="4" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C461" s="6"/>
       <c r="D461" s="4"/>
-      <c r="E461" s="7"/>
-    </row>
-    <row r="462" customHeight="1" spans="1:5">
+      <c r="E461" s="4"/>
+    </row>
+    <row r="462" ht="80" customHeight="1" spans="1:5">
       <c r="A462" s="4"/>
       <c r="B462" s="4" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="C462" s="6"/>
       <c r="D462" s="4"/>
-      <c r="E462" s="7"/>
-    </row>
-    <row r="463" customHeight="1" spans="1:5">
+      <c r="E462" s="4"/>
+    </row>
+    <row r="463" ht="80" customHeight="1" spans="1:5">
       <c r="A463" s="4"/>
       <c r="B463" s="4" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C463" s="6"/>
       <c r="D463" s="4"/>
-      <c r="E463" s="7"/>
-    </row>
-    <row r="464" customHeight="1" spans="1:5">
+      <c r="E463" s="4"/>
+    </row>
+    <row r="464" ht="80" customHeight="1" spans="1:5">
       <c r="A464" s="4"/>
       <c r="B464" s="4" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="C464" s="6"/>
       <c r="D464" s="4"/>
-      <c r="E464" s="7"/>
-    </row>
-    <row r="465" customHeight="1" spans="1:5">
+      <c r="E464" s="4"/>
+    </row>
+    <row r="465" ht="80" customHeight="1" spans="1:5">
       <c r="A465" s="4"/>
       <c r="B465" s="4" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C465" s="6"/>
       <c r="D465" s="4"/>
-      <c r="E465" s="7"/>
-    </row>
-    <row r="466" customHeight="1" spans="1:5">
+      <c r="E465" s="4"/>
+    </row>
+    <row r="466" ht="80" customHeight="1" spans="1:5">
       <c r="A466" s="4"/>
       <c r="B466" s="4" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C466" s="6"/>
       <c r="D466" s="4"/>
-      <c r="E466" s="7"/>
-    </row>
-    <row r="467" customHeight="1" spans="1:5">
+      <c r="E466" s="4"/>
+    </row>
+    <row r="467" ht="80" customHeight="1" spans="1:5">
       <c r="A467" s="4"/>
       <c r="B467" s="4" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C467" s="6"/>
       <c r="D467" s="4"/>
-      <c r="E467" s="7"/>
-    </row>
-    <row r="468" customHeight="1" spans="1:5">
+      <c r="E467" s="4"/>
+    </row>
+    <row r="468" ht="80" customHeight="1" spans="1:5">
       <c r="A468" s="4"/>
       <c r="B468" s="4" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="C468" s="6"/>
       <c r="D468" s="4"/>
-      <c r="E468" s="7"/>
-    </row>
-    <row r="469" customHeight="1" spans="1:5">
+      <c r="E468" s="4"/>
+    </row>
+    <row r="469" ht="80" customHeight="1" spans="1:5">
       <c r="A469" s="4"/>
       <c r="B469" s="4" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C469" s="6"/>
       <c r="D469" s="4"/>
-      <c r="E469" s="7"/>
-    </row>
-    <row r="470" customHeight="1" spans="1:5">
+      <c r="E469" s="4"/>
+    </row>
+    <row r="470" ht="80" customHeight="1" spans="1:5">
       <c r="A470" s="4"/>
       <c r="B470" s="4" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C470" s="6"/>
       <c r="D470" s="4"/>
-      <c r="E470" s="7"/>
-    </row>
-    <row r="471" customHeight="1" spans="1:5">
+      <c r="E470" s="4"/>
+    </row>
+    <row r="471" ht="80" customHeight="1" spans="1:5">
       <c r="A471" s="4"/>
       <c r="B471" s="4" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="4"/>
-      <c r="E471" s="7"/>
-    </row>
-    <row r="472" customHeight="1" spans="1:5">
+      <c r="E471" s="4"/>
+    </row>
+    <row r="472" ht="80" customHeight="1" spans="1:5">
       <c r="A472" s="4"/>
       <c r="B472" s="4" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="C472" s="6"/>
       <c r="D472" s="4"/>
-      <c r="E472" s="7"/>
-    </row>
-    <row r="473" customHeight="1" spans="1:5">
+      <c r="E472" s="4"/>
+    </row>
+    <row r="473" ht="80" customHeight="1" spans="1:5">
       <c r="A473" s="4"/>
       <c r="B473" s="4" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C473" s="6"/>
       <c r="D473" s="4"/>
-      <c r="E473" s="7"/>
-    </row>
-    <row r="474" customHeight="1" spans="1:5">
+      <c r="E473" s="4"/>
+    </row>
+    <row r="474" ht="80" customHeight="1" spans="1:5">
       <c r="A474" s="4"/>
       <c r="B474" s="4" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C474" s="6"/>
       <c r="D474" s="4"/>
-      <c r="E474" s="7"/>
-    </row>
-    <row r="475" customHeight="1" spans="1:5">
+      <c r="E474" s="4"/>
+    </row>
+    <row r="475" ht="80" customHeight="1" spans="1:5">
       <c r="A475" s="4" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C475" s="6"/>
       <c r="D475" s="4"/>
-      <c r="E475" s="7"/>
-    </row>
-    <row r="476" customHeight="1" spans="1:5">
+      <c r="E475" s="4"/>
+    </row>
+    <row r="476" ht="80" customHeight="1" spans="1:5">
       <c r="A476" s="4"/>
       <c r="B476" s="4" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C476" s="6"/>
       <c r="D476" s="4"/>
-      <c r="E476" s="7"/>
-    </row>
-    <row r="477" customHeight="1" spans="1:5">
+      <c r="E476" s="4"/>
+    </row>
+    <row r="477" ht="80" customHeight="1" spans="1:5">
       <c r="A477" s="4"/>
       <c r="B477" s="4" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C477" s="6"/>
       <c r="D477" s="4"/>
-      <c r="E477" s="7"/>
-    </row>
-    <row r="478" customHeight="1" spans="1:5">
+      <c r="E477" s="4"/>
+    </row>
+    <row r="478" ht="80" customHeight="1" spans="1:5">
       <c r="A478" s="4"/>
       <c r="B478" s="4" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C478" s="6"/>
       <c r="D478" s="4"/>
-      <c r="E478" s="7"/>
-    </row>
-    <row r="479" customHeight="1" spans="1:5">
+      <c r="E478" s="4"/>
+    </row>
+    <row r="479" ht="80" customHeight="1" spans="1:5">
       <c r="A479" s="4"/>
       <c r="B479" s="4" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="C479" s="6"/>
       <c r="D479" s="4"/>
-      <c r="E479" s="7"/>
-    </row>
-    <row r="480" customHeight="1" spans="1:5">
+      <c r="E479" s="4"/>
+    </row>
+    <row r="480" ht="80" customHeight="1" spans="1:5">
       <c r="A480" s="4"/>
       <c r="B480" s="4" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C480" s="6"/>
       <c r="D480" s="4"/>
-      <c r="E480" s="7"/>
-    </row>
-    <row r="481" customHeight="1" spans="1:5">
+      <c r="E480" s="4"/>
+    </row>
+    <row r="481" ht="80" customHeight="1" spans="1:5">
       <c r="A481" s="4"/>
       <c r="B481" s="4" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="C481" s="6"/>
       <c r="D481" s="4"/>
-      <c r="E481" s="7"/>
-    </row>
-    <row r="482" customHeight="1" spans="1:5">
+      <c r="E481" s="4"/>
+    </row>
+    <row r="482" ht="80" customHeight="1" spans="1:5">
       <c r="A482" s="4"/>
       <c r="B482" s="4" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C482" s="6"/>
       <c r="D482" s="4"/>
-      <c r="E482" s="7"/>
-    </row>
-    <row r="483" customHeight="1" spans="1:5">
+      <c r="E482" s="4"/>
+    </row>
+    <row r="483" ht="80" customHeight="1" spans="1:5">
       <c r="A483" s="4"/>
       <c r="B483" s="4" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="C483" s="6"/>
       <c r="D483" s="4"/>
-      <c r="E483" s="7"/>
-    </row>
-    <row r="484" customHeight="1" spans="1:5">
+      <c r="E483" s="4"/>
+    </row>
+    <row r="484" ht="80" customHeight="1" spans="1:5">
       <c r="A484" s="4"/>
       <c r="B484" s="4" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C484" s="6"/>
       <c r="D484" s="4"/>
-      <c r="E484" s="7"/>
-    </row>
-    <row r="485" customHeight="1" spans="1:5">
+      <c r="E484" s="4"/>
+    </row>
+    <row r="485" ht="80" customHeight="1" spans="1:5">
       <c r="A485" s="4"/>
       <c r="B485" s="4" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C485" s="6"/>
       <c r="D485" s="4"/>
-      <c r="E485" s="7"/>
-    </row>
-    <row r="486" customHeight="1" spans="1:5">
+      <c r="E485" s="4"/>
+    </row>
+    <row r="486" ht="80" customHeight="1" spans="1:5">
       <c r="A486" s="4" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C486" s="6"/>
       <c r="D486" s="4"/>
-      <c r="E486" s="7"/>
-    </row>
-    <row r="487" customHeight="1" spans="1:5">
+      <c r="E486" s="4"/>
+    </row>
+    <row r="487" ht="80" customHeight="1" spans="1:5">
       <c r="A487" s="4"/>
       <c r="B487" s="4" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="C487" s="6"/>
       <c r="D487" s="4"/>
-      <c r="E487" s="7"/>
-    </row>
-    <row r="488" customHeight="1" spans="1:5">
+      <c r="E487" s="4"/>
+    </row>
+    <row r="488" ht="80" customHeight="1" spans="1:5">
       <c r="A488" s="4"/>
       <c r="B488" s="4" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C488" s="6"/>
       <c r="D488" s="4"/>
-      <c r="E488" s="7"/>
-    </row>
-    <row r="489" customHeight="1" spans="1:5">
+      <c r="E488" s="4"/>
+    </row>
+    <row r="489" ht="80" customHeight="1" spans="1:5">
       <c r="A489" s="4"/>
       <c r="B489" s="4" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C489" s="6"/>
       <c r="D489" s="4"/>
-      <c r="E489" s="7"/>
-    </row>
-    <row r="490" customHeight="1" spans="1:5">
+      <c r="E489" s="4"/>
+    </row>
+    <row r="490" ht="80" customHeight="1" spans="1:5">
       <c r="A490" s="4"/>
       <c r="B490" s="4" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="C490" s="6"/>
       <c r="D490" s="4"/>
-      <c r="E490" s="7"/>
-    </row>
-    <row r="491" customHeight="1" spans="1:5">
+      <c r="E490" s="4"/>
+    </row>
+    <row r="491" ht="80" customHeight="1" spans="1:5">
       <c r="A491" s="4"/>
       <c r="B491" s="4" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="C491" s="6"/>
       <c r="D491" s="4"/>
-      <c r="E491" s="7"/>
-    </row>
-    <row r="492" customHeight="1" spans="1:5">
+      <c r="E491" s="4"/>
+    </row>
+    <row r="492" ht="80" customHeight="1" spans="1:5">
       <c r="A492" s="4"/>
       <c r="B492" s="4" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C492" s="6"/>
       <c r="D492" s="4"/>
-      <c r="E492" s="7"/>
-    </row>
-    <row r="493" customHeight="1" spans="1:5">
+      <c r="E492" s="4"/>
+    </row>
+    <row r="493" ht="80" customHeight="1" spans="1:5">
       <c r="A493" s="4"/>
       <c r="B493" s="4" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C493" s="6"/>
       <c r="D493" s="4"/>
-      <c r="E493" s="7"/>
-    </row>
-    <row r="494" customHeight="1" spans="1:5">
+      <c r="E493" s="4"/>
+    </row>
+    <row r="494" ht="80" customHeight="1" spans="1:5">
       <c r="A494" s="4"/>
       <c r="B494" s="4" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="C494" s="6"/>
       <c r="D494" s="4"/>
-      <c r="E494" s="7"/>
-    </row>
-    <row r="495" customHeight="1" spans="1:5">
+      <c r="E494" s="4"/>
+    </row>
+    <row r="495" ht="80" customHeight="1" spans="1:5">
       <c r="A495" s="4"/>
       <c r="B495" s="4" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="C495" s="6"/>
       <c r="D495" s="4"/>
-      <c r="E495" s="7"/>
-    </row>
-    <row r="496" customHeight="1" spans="1:5">
+      <c r="E495" s="4"/>
+    </row>
+    <row r="496" ht="80" customHeight="1" spans="1:5">
       <c r="A496" s="4"/>
       <c r="B496" s="4" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C496" s="6"/>
       <c r="D496" s="4"/>
-      <c r="E496" s="7"/>
-    </row>
-    <row r="497" customHeight="1" spans="1:5">
+      <c r="E496" s="4"/>
+    </row>
+    <row r="497" ht="80" customHeight="1" spans="1:5">
       <c r="A497" s="4"/>
       <c r="B497" s="4" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="C497" s="6"/>
       <c r="D497" s="4"/>
-      <c r="E497" s="7"/>
-    </row>
-    <row r="498" customHeight="1" spans="1:5">
+      <c r="E497" s="4"/>
+    </row>
+    <row r="498" ht="80" customHeight="1" spans="1:5">
       <c r="A498" s="4"/>
       <c r="B498" s="4" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="C498" s="6"/>
       <c r="D498" s="4"/>
-      <c r="E498" s="7"/>
-    </row>
-    <row r="499" customHeight="1" spans="1:5">
+      <c r="E498" s="4"/>
+    </row>
+    <row r="499" ht="80" customHeight="1" spans="1:5">
       <c r="A499" s="4"/>
       <c r="B499" s="4" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="C499" s="6"/>
       <c r="D499" s="4"/>
-      <c r="E499" s="7"/>
-    </row>
-    <row r="500" customHeight="1" spans="1:5">
+      <c r="E499" s="4"/>
+    </row>
+    <row r="500" ht="80" customHeight="1" spans="1:5">
       <c r="A500" s="4"/>
       <c r="B500" s="4" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="C500" s="6"/>
       <c r="D500" s="4"/>
-      <c r="E500" s="7"/>
-    </row>
-    <row r="501" customHeight="1" spans="1:5">
+      <c r="E500" s="4"/>
+    </row>
+    <row r="501" ht="80" customHeight="1" spans="1:5">
       <c r="A501" s="4"/>
       <c r="B501" s="4" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="C501" s="6"/>
       <c r="D501" s="4"/>
-      <c r="E501" s="7"/>
-    </row>
-    <row r="502" customHeight="1" spans="1:5">
+      <c r="E501" s="4"/>
+    </row>
+    <row r="502" ht="80" customHeight="1" spans="1:5">
       <c r="A502" s="4"/>
       <c r="B502" s="4" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="C502" s="6"/>
       <c r="D502" s="4"/>
-      <c r="E502" s="7"/>
-    </row>
-    <row r="503" customHeight="1" spans="1:5">
+      <c r="E502" s="4"/>
+    </row>
+    <row r="503" ht="80" customHeight="1" spans="1:5">
       <c r="A503" s="4"/>
       <c r="B503" s="4" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="C503" s="6"/>
       <c r="D503" s="4"/>
-      <c r="E503" s="7"/>
-    </row>
-    <row r="504" customHeight="1" spans="1:5">
+      <c r="E503" s="4"/>
+    </row>
+    <row r="504" ht="80" customHeight="1" spans="1:5">
       <c r="A504" s="4"/>
       <c r="B504" s="4" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C504" s="6"/>
       <c r="D504" s="4"/>
-      <c r="E504" s="7"/>
-    </row>
-    <row r="505" customHeight="1" spans="1:5">
+      <c r="E504" s="4"/>
+    </row>
+    <row r="505" ht="80" customHeight="1" spans="1:5">
       <c r="A505" s="4"/>
       <c r="B505" s="4" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C505" s="6"/>
       <c r="D505" s="4"/>
-      <c r="E505" s="7"/>
-    </row>
-    <row r="506" customHeight="1" spans="1:5">
+      <c r="E505" s="4"/>
+    </row>
+    <row r="506" ht="80" customHeight="1" spans="1:5">
       <c r="A506" s="4"/>
       <c r="B506" s="4" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="C506" s="6"/>
       <c r="D506" s="4"/>
-      <c r="E506" s="7"/>
-    </row>
-    <row r="507" customHeight="1" spans="1:5">
+      <c r="E506" s="4"/>
+    </row>
+    <row r="507" ht="80" customHeight="1" spans="1:5">
       <c r="A507" s="4"/>
       <c r="B507" s="4" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C507" s="6"/>
       <c r="D507" s="4"/>
-      <c r="E507" s="7"/>
-    </row>
-    <row r="508" customHeight="1" spans="1:5">
+      <c r="E507" s="4"/>
+    </row>
+    <row r="508" ht="80" customHeight="1" spans="1:5">
       <c r="A508" s="4"/>
       <c r="B508" s="4" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C508" s="6"/>
       <c r="D508" s="4"/>
-      <c r="E508" s="7"/>
-    </row>
-    <row r="509" customHeight="1" spans="1:5">
+      <c r="E508" s="4"/>
+    </row>
+    <row r="509" ht="80" customHeight="1" spans="1:5">
       <c r="A509" s="4"/>
       <c r="B509" s="4" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C509" s="6"/>
       <c r="D509" s="4"/>
-      <c r="E509" s="7"/>
-    </row>
-    <row r="510" customHeight="1" spans="1:5">
+      <c r="E509" s="4"/>
+    </row>
+    <row r="510" ht="80" customHeight="1" spans="1:5">
       <c r="A510" s="4"/>
       <c r="B510" s="4" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="C510" s="6"/>
       <c r="D510" s="4"/>
-      <c r="E510" s="7"/>
-    </row>
-    <row r="511" customHeight="1" spans="1:5">
+      <c r="E510" s="4"/>
+    </row>
+    <row r="511" ht="80" customHeight="1" spans="1:5">
       <c r="A511" s="4"/>
       <c r="B511" s="4" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="C511" s="6"/>
       <c r="D511" s="4"/>
-      <c r="E511" s="7"/>
-    </row>
-    <row r="512" customHeight="1" spans="1:5">
+      <c r="E511" s="4"/>
+    </row>
+    <row r="512" ht="80" customHeight="1" spans="1:5">
       <c r="A512" s="4"/>
       <c r="B512" s="4" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C512" s="6"/>
       <c r="D512" s="4"/>
-      <c r="E512" s="7"/>
-    </row>
-    <row r="513" customHeight="1" spans="1:5">
+      <c r="E512" s="4"/>
+    </row>
+    <row r="513" ht="80" customHeight="1" spans="1:5">
       <c r="A513" s="4"/>
       <c r="B513" s="4" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C513" s="6"/>
       <c r="D513" s="4"/>
-      <c r="E513" s="7"/>
-    </row>
-    <row r="514" customHeight="1" spans="1:5">
+      <c r="E513" s="4"/>
+    </row>
+    <row r="514" ht="80" customHeight="1" spans="1:5">
       <c r="A514" s="4" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="C514" s="6"/>
       <c r="D514" s="4"/>
-      <c r="E514" s="7"/>
-    </row>
-    <row r="515" customHeight="1" spans="1:5">
+      <c r="E514" s="4"/>
+    </row>
+    <row r="515" ht="80" customHeight="1" spans="1:5">
       <c r="A515" s="4"/>
       <c r="B515" s="4" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C515" s="6"/>
       <c r="D515" s="4"/>
-      <c r="E515" s="7"/>
-    </row>
-    <row r="516" customHeight="1" spans="1:5">
+      <c r="E515" s="4"/>
+    </row>
+    <row r="516" ht="80" customHeight="1" spans="1:5">
       <c r="A516" s="4"/>
       <c r="B516" s="4" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="C516" s="6"/>
       <c r="D516" s="4"/>
-      <c r="E516" s="7"/>
+      <c r="E516" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/书籍/论语.xlsx
+++ b/书籍/论语.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="584">
   <si>
     <t>篇幅</t>
   </si>
@@ -171,49 +171,148 @@
     <t>　　子曰：“不患人之不己知，患不知人也。”</t>
   </si>
   <si>
+    <t>1. 关注影像圈以内的事情
+2. 不患人之不己知：不要担心别人不了解你
+3. 患不知人也：担心你不了解别人</t>
+  </si>
+  <si>
     <t>为政篇</t>
   </si>
   <si>
     <t>子曰：“为政以德，譬如北辰，居其所而众星共之。”</t>
   </si>
   <si>
+    <t>1. 领导者的最高境界是不打扰
+2. 主好要则百事详，主好详则百事荒</t>
+  </si>
+  <si>
+    <t>把控好战略方向</t>
+  </si>
+  <si>
     <t>　　子曰：“《诗》三百，一言以蔽之，曰：‘思无邪’。”</t>
   </si>
   <si>
+    <t>1. 思无邪：最诗意、最动人的语言。
+2. 思无邪：是纯真无邪之意。
+3. 做到乐而不淫，哀而不伤。</t>
+  </si>
+  <si>
+    <t>有节制地表达感情</t>
+  </si>
+  <si>
     <t>　　子曰：“道之以政，齐之以刑，民免而无耻。道之以德，齐之以礼，有耻且格。”</t>
   </si>
   <si>
+    <t xml:space="preserve">1. 道之以德： 管理人，用规则还是道德。
+</t>
+  </si>
+  <si>
+    <t>论述在不同环境下是用法律来约束还是道德来约束。
+浅层次使用法律，但是更为长远的应使用道德。否则出现如虐待宠物、不犯法就是好人吗？这就是”道之以德，齐之以礼，有耻且格。“</t>
+  </si>
+  <si>
     <t>　　子曰：“吾十有五而志于学，三十而立，四十而不惑，五十而知天命，六十而耳顺，七十而从心所欲，不逾矩。”</t>
   </si>
   <si>
+    <t>1. 十有五：明白了学习的意义
+2. 三十：有了自己的专长和立足之地
+3. 四十：不惑于外物
+4. 五十：与自己和解，战胜内心的欲望，让自己宁静从容
+5. 六十：耳顺（无论别人在你面前说多难听的话，都能听到其中有道理的部分）
+6. 七十：自由，但有规矩。</t>
+  </si>
+  <si>
+    <t>每个年龄段的人生目标</t>
+  </si>
+  <si>
     <t>　　孟懿子问孝，子曰：“无违。”樊迟御，子告之曰：“孟孙问孝于我，我对曰‘无违’。”樊迟曰：“何谓也？”子曰：“生，事之以礼；死，葬之以礼，祭之以礼。”</t>
   </si>
   <si>
+    <t>1. 事之以礼：有尺度，才是真正的孝</t>
+  </si>
+  <si>
     <t>　　孟武伯问孝。子曰：“父母唯其疾之忧。”</t>
   </si>
   <si>
+    <t>1. 父母唯其疾之忧（第一种解释）：除了父母省标需要孩子服侍之外，剩下的事情就得尊重父母，让父母自己去做决定
+2. 父母唯其疾之忧（第二种解释）：要成为一个孝顺的人，就应该努力管好自己的生活，让父母无须对自己的任何事情担心。</t>
+  </si>
+  <si>
     <t>　　子游问孝。子曰：“今之孝者，是谓能养。至于犬马，皆能有养；不敬，何以别乎？”</t>
   </si>
   <si>
+    <t>1. "至于犬马，皆能有养": 一个人养一匹马，养一条狗，也能做到如此
+2. ”不敬，何以别乎？“: 一个人在赡养父母的时候，如果对父母没有尊敬的态度，这跟养马、养狗有什么区别。</t>
+  </si>
+  <si>
     <t>　　子夏问孝。子曰：“色难。有事，弟子服其劳；有酒食，先生馔，曾是以为孝乎？”</t>
   </si>
   <si>
+    <t>1. 色难: 你能做到始终和颜悦色地对待父母吗。色难是指，和颜悦色是最难的一件事。</t>
+  </si>
+  <si>
     <t>　　子曰：“吾与回言终日，不违，如愚。退而省其私，亦足以发，回也不愚。”</t>
   </si>
   <si>
+    <t>1. 亦足以发：亦足以发,充分理解并很好发挥。
+2. 自主思考，一个人只有认真的思考了，才能够问出有价值的问题。</t>
+  </si>
+  <si>
+    <t>学而不思则罔。在学习的时候要更多的自主思考，自己构建一个完备的知识体系网络。</t>
+  </si>
+  <si>
     <t>　　子曰：“视其所以，观其所由，察其所安，人焉廋哉？人焉廋哉？”</t>
   </si>
   <si>
+    <t>1. 看穿一个人，三个角度。使命、愿景、价值观
+2. 观其所以：观察一个人使用什么样的方法在做事
+3. 观气所由：观察一个人做事的动机是什么
+4. 察其所安：只一个人在怎样的情况下觉得舒服
+5. 人焉廋哉：根本无法躲藏，无法掩饰。</t>
+  </si>
+  <si>
+    <t>1. 怎么做事
+2. 做事出发点是什么
+3. 判断一个人的日常情况</t>
+  </si>
+  <si>
     <t>　　子曰：“温故而知新，可以为师矣。”</t>
   </si>
   <si>
+    <t>在反思中学习</t>
+  </si>
+  <si>
+    <t>经常复盘，持续改善自己</t>
+  </si>
+  <si>
     <t>　　子曰：“君子不器。”</t>
   </si>
   <si>
+    <t>让自己拥有”反脆弱“的特性
+人不能固化，守着一成不变的技能过一声。</t>
+  </si>
+  <si>
+    <t>要让自己多元化发展，也就是目前所说的 I、T、E 人才</t>
+  </si>
+  <si>
     <t>　　子贡问君子。子曰：“先行其言而后从之。”</t>
   </si>
   <si>
+    <t>1. 什么情况下可以表达心中的想法
+2. 你先把事做好了，再慢慢跟别人说：说了以后，你还要接着做，实现自己所说的话。</t>
+  </si>
+  <si>
+    <t>自己先做出表率在和别人讲道理</t>
+  </si>
+  <si>
     <t>　　子曰：“君子周而不比，小人比而不周。”</t>
+  </si>
+  <si>
+    <t>1. 小人比而不周：人与人相处时，缺乏独立的人格，缺乏独立的、完成的见解。
+2. 君子周而不比：人与人之间所建立的那种和谐的状态，既相互独立，又能平等对话。</t>
+  </si>
+  <si>
+    <t>与别人在一起合作，要建立和谐的状态，相互独立有自己的见解，又能平等堆化。</t>
   </si>
   <si>
     <t>　　子曰：“学而不思则罔，思而不学则殆。”</t>
@@ -2718,9 +2817,9 @@
   <dimension ref="A1:E516"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
@@ -2729,7 +2828,7 @@
     <col min="2" max="2" width="125.6484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.9453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.890625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.390625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2934,142 +3033,192 @@
       <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" ht="80" customHeight="1" spans="1:5">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" ht="80" customHeight="1" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" ht="80" customHeight="1" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="80" customHeight="1" spans="1:5">
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="123" customHeight="1" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" ht="80" customHeight="1" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" ht="80" customHeight="1" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" ht="80" customHeight="1" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" ht="80" customHeight="1" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" ht="80" customHeight="1" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" ht="80" customHeight="1" spans="1:5">
+      <c r="E26" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" ht="96" customHeight="1" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" ht="80" customHeight="1" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" ht="80" customHeight="1" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" ht="80" customHeight="1" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="31" ht="80" customHeight="1" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" ht="80" customHeight="1" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="4"/>
@@ -3078,7 +3227,7 @@
     <row r="33" ht="80" customHeight="1" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="4"/>
@@ -3087,7 +3236,7 @@
     <row r="34" ht="80" customHeight="1" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="4"/>
@@ -3096,7 +3245,7 @@
     <row r="35" ht="80" customHeight="1" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
@@ -3105,7 +3254,7 @@
     <row r="36" ht="80" customHeight="1" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="4"/>
@@ -3114,7 +3263,7 @@
     <row r="37" ht="80" customHeight="1" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="4"/>
@@ -3123,7 +3272,7 @@
     <row r="38" ht="80" customHeight="1" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="4"/>
@@ -3132,7 +3281,7 @@
     <row r="39" ht="80" customHeight="1" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="4"/>
@@ -3141,7 +3290,7 @@
     <row r="40" ht="80" customHeight="1" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="4"/>
@@ -3150,7 +3299,7 @@
     <row r="41" ht="80" customHeight="1" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="4"/>
@@ -3158,10 +3307,10 @@
     </row>
     <row r="42" ht="80" customHeight="1" spans="1:5">
       <c r="A42" s="4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="4"/>
@@ -3170,7 +3319,7 @@
     <row r="43" ht="80" customHeight="1" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="4"/>
@@ -3179,7 +3328,7 @@
     <row r="44" ht="80" customHeight="1" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="4"/>
@@ -3188,7 +3337,7 @@
     <row r="45" ht="80" customHeight="1" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="4"/>
@@ -3197,7 +3346,7 @@
     <row r="46" ht="80" customHeight="1" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="4"/>
@@ -3206,7 +3355,7 @@
     <row r="47" ht="80" customHeight="1" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="4"/>
@@ -3215,7 +3364,7 @@
     <row r="48" ht="80" customHeight="1" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="4"/>
@@ -3224,7 +3373,7 @@
     <row r="49" ht="80" customHeight="1" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="4"/>
@@ -3233,7 +3382,7 @@
     <row r="50" ht="80" customHeight="1" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="4"/>
@@ -3242,7 +3391,7 @@
     <row r="51" ht="80" customHeight="1" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="4"/>
@@ -3251,7 +3400,7 @@
     <row r="52" ht="80" customHeight="1" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="4"/>
@@ -3260,7 +3409,7 @@
     <row r="53" ht="80" customHeight="1" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="4"/>
@@ -3269,7 +3418,7 @@
     <row r="54" ht="80" customHeight="1" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="4"/>
@@ -3278,7 +3427,7 @@
     <row r="55" ht="80" customHeight="1" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="4"/>
@@ -3287,7 +3436,7 @@
     <row r="56" ht="80" customHeight="1" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="4"/>
@@ -3296,7 +3445,7 @@
     <row r="57" ht="80" customHeight="1" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="4"/>
@@ -3305,7 +3454,7 @@
     <row r="58" ht="80" customHeight="1" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="4"/>
@@ -3314,7 +3463,7 @@
     <row r="59" ht="80" customHeight="1" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="4"/>
@@ -3323,7 +3472,7 @@
     <row r="60" ht="80" customHeight="1" spans="1:5">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="4"/>
@@ -3332,7 +3481,7 @@
     <row r="61" ht="80" customHeight="1" spans="1:5">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="4"/>
@@ -3341,7 +3490,7 @@
     <row r="62" ht="80" customHeight="1" spans="1:5">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="4"/>
@@ -3350,7 +3499,7 @@
     <row r="63" ht="80" customHeight="1" spans="1:5">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="4"/>
@@ -3359,7 +3508,7 @@
     <row r="64" ht="80" customHeight="1" spans="1:5">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="4"/>
@@ -3368,7 +3517,7 @@
     <row r="65" ht="80" customHeight="1" spans="1:5">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="4"/>
@@ -3377,7 +3526,7 @@
     <row r="66" ht="80" customHeight="1" spans="1:5">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="4"/>
@@ -3386,7 +3535,7 @@
     <row r="67" ht="80" customHeight="1" spans="1:5">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="4"/>
@@ -3394,10 +3543,10 @@
     </row>
     <row r="68" ht="80" customHeight="1" spans="1:5">
       <c r="A68" s="4" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="4"/>
@@ -3406,7 +3555,7 @@
     <row r="69" ht="80" customHeight="1" spans="1:5">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="4"/>
@@ -3415,7 +3564,7 @@
     <row r="70" ht="80" customHeight="1" spans="1:5">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="4"/>
@@ -3424,7 +3573,7 @@
     <row r="71" ht="80" customHeight="1" spans="1:5">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="4"/>
@@ -3433,7 +3582,7 @@
     <row r="72" ht="80" customHeight="1" spans="1:5">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="4"/>
@@ -3442,7 +3591,7 @@
     <row r="73" ht="80" customHeight="1" spans="1:5">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="4"/>
@@ -3451,7 +3600,7 @@
     <row r="74" ht="80" customHeight="1" spans="1:5">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="4"/>
@@ -3460,7 +3609,7 @@
     <row r="75" ht="80" customHeight="1" spans="1:5">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="4"/>
@@ -3469,7 +3618,7 @@
     <row r="76" ht="80" customHeight="1" spans="1:5">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="4"/>
@@ -3478,7 +3627,7 @@
     <row r="77" ht="80" customHeight="1" spans="1:5">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="4"/>
@@ -3487,7 +3636,7 @@
     <row r="78" ht="80" customHeight="1" spans="1:5">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="4"/>
@@ -3496,7 +3645,7 @@
     <row r="79" ht="80" customHeight="1" spans="1:5">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="4"/>
@@ -3505,7 +3654,7 @@
     <row r="80" ht="80" customHeight="1" spans="1:5">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="4"/>
@@ -3514,7 +3663,7 @@
     <row r="81" ht="80" customHeight="1" spans="1:5">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="4"/>
@@ -3523,7 +3672,7 @@
     <row r="82" ht="80" customHeight="1" spans="1:5">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="4"/>
@@ -3532,7 +3681,7 @@
     <row r="83" ht="80" customHeight="1" spans="1:5">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="4"/>
@@ -3541,7 +3690,7 @@
     <row r="84" ht="80" customHeight="1" spans="1:5">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="4"/>
@@ -3550,7 +3699,7 @@
     <row r="85" ht="80" customHeight="1" spans="1:5">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="4"/>
@@ -3559,7 +3708,7 @@
     <row r="86" ht="80" customHeight="1" spans="1:5">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="4"/>
@@ -3568,7 +3717,7 @@
     <row r="87" ht="80" customHeight="1" spans="1:5">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="4"/>
@@ -3577,7 +3726,7 @@
     <row r="88" ht="80" customHeight="1" spans="1:5">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="4"/>
@@ -3586,7 +3735,7 @@
     <row r="89" ht="80" customHeight="1" spans="1:5">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="4"/>
@@ -3595,7 +3744,7 @@
     <row r="90" ht="80" customHeight="1" spans="1:5">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="4"/>
@@ -3604,7 +3753,7 @@
     <row r="91" ht="80" customHeight="1" spans="1:5">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="4"/>
@@ -3613,7 +3762,7 @@
     <row r="92" ht="80" customHeight="1" spans="1:5">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="4"/>
@@ -3622,7 +3771,7 @@
     <row r="93" ht="80" customHeight="1" spans="1:5">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="4"/>
@@ -3630,10 +3779,10 @@
     </row>
     <row r="94" ht="80" customHeight="1" spans="1:5">
       <c r="A94" s="4" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="4"/>
@@ -3642,7 +3791,7 @@
     <row r="95" ht="80" customHeight="1" spans="1:5">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="4"/>
@@ -3651,7 +3800,7 @@
     <row r="96" ht="80" customHeight="1" spans="1:5">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C96" s="6"/>
       <c r="D96" s="4"/>
@@ -3660,7 +3809,7 @@
     <row r="97" ht="80" customHeight="1" spans="1:5">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="4"/>
@@ -3669,7 +3818,7 @@
     <row r="98" ht="80" customHeight="1" spans="1:5">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="4"/>
@@ -3678,7 +3827,7 @@
     <row r="99" ht="80" customHeight="1" spans="1:5">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="4"/>
@@ -3687,7 +3836,7 @@
     <row r="100" ht="80" customHeight="1" spans="1:5">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="4"/>
@@ -3696,7 +3845,7 @@
     <row r="101" ht="80" customHeight="1" spans="1:5">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="4"/>
@@ -3705,7 +3854,7 @@
     <row r="102" ht="80" customHeight="1" spans="1:5">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="4"/>
@@ -3714,7 +3863,7 @@
     <row r="103" ht="80" customHeight="1" spans="1:5">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="4"/>
@@ -3723,7 +3872,7 @@
     <row r="104" ht="80" customHeight="1" spans="1:5">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="4"/>
@@ -3732,7 +3881,7 @@
     <row r="105" ht="80" customHeight="1" spans="1:5">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="4"/>
@@ -3741,7 +3890,7 @@
     <row r="106" ht="80" customHeight="1" spans="1:5">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C106" s="6"/>
       <c r="D106" s="4"/>
@@ -3750,7 +3899,7 @@
     <row r="107" ht="80" customHeight="1" spans="1:5">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="4"/>
@@ -3759,7 +3908,7 @@
     <row r="108" ht="80" customHeight="1" spans="1:5">
       <c r="A108" s="4"/>
       <c r="B108" s="4" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="4"/>
@@ -3768,7 +3917,7 @@
     <row r="109" ht="80" customHeight="1" spans="1:5">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="4"/>
@@ -3777,7 +3926,7 @@
     <row r="110" ht="80" customHeight="1" spans="1:5">
       <c r="A110" s="4"/>
       <c r="B110" s="4" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="4"/>
@@ -3786,7 +3935,7 @@
     <row r="111" ht="80" customHeight="1" spans="1:5">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="4"/>
@@ -3795,7 +3944,7 @@
     <row r="112" ht="80" customHeight="1" spans="1:5">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="4"/>
@@ -3804,7 +3953,7 @@
     <row r="113" ht="80" customHeight="1" spans="1:5">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="4"/>
@@ -3813,7 +3962,7 @@
     <row r="114" ht="80" customHeight="1" spans="1:5">
       <c r="A114" s="4"/>
       <c r="B114" s="4" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="4"/>
@@ -3822,7 +3971,7 @@
     <row r="115" ht="80" customHeight="1" spans="1:5">
       <c r="A115" s="4"/>
       <c r="B115" s="4" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="4"/>
@@ -3831,7 +3980,7 @@
     <row r="116" ht="80" customHeight="1" spans="1:5">
       <c r="A116" s="4"/>
       <c r="B116" s="4" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="4"/>
@@ -3840,7 +3989,7 @@
     <row r="117" ht="80" customHeight="1" spans="1:5">
       <c r="A117" s="4"/>
       <c r="B117" s="4" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="4"/>
@@ -3849,7 +3998,7 @@
     <row r="118" ht="80" customHeight="1" spans="1:5">
       <c r="A118" s="4"/>
       <c r="B118" s="4" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="4"/>
@@ -3858,7 +4007,7 @@
     <row r="119" ht="80" customHeight="1" spans="1:5">
       <c r="A119" s="4"/>
       <c r="B119" s="4" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="4"/>
@@ -3867,7 +4016,7 @@
     <row r="120" ht="80" customHeight="1" spans="1:5">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="4"/>
@@ -3876,7 +4025,7 @@
     <row r="121" ht="80" customHeight="1" spans="1:5">
       <c r="A121" s="4"/>
       <c r="B121" s="4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="4"/>
@@ -3884,10 +4033,10 @@
     </row>
     <row r="122" ht="80" customHeight="1" spans="1:5">
       <c r="A122" s="4" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="4"/>
@@ -3896,7 +4045,7 @@
     <row r="123" ht="80" customHeight="1" spans="1:5">
       <c r="A123" s="4"/>
       <c r="B123" s="4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="4"/>
@@ -3905,7 +4054,7 @@
     <row r="124" ht="80" customHeight="1" spans="1:5">
       <c r="A124" s="4"/>
       <c r="B124" s="4" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="4"/>
@@ -3914,7 +4063,7 @@
     <row r="125" ht="80" customHeight="1" spans="1:5">
       <c r="A125" s="4"/>
       <c r="B125" s="4" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="4"/>
@@ -3923,7 +4072,7 @@
     <row r="126" ht="80" customHeight="1" spans="1:5">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="4"/>
@@ -3932,7 +4081,7 @@
     <row r="127" ht="80" customHeight="1" spans="1:5">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="4"/>
@@ -3941,7 +4090,7 @@
     <row r="128" ht="80" customHeight="1" spans="1:5">
       <c r="A128" s="4"/>
       <c r="B128" s="4" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="4"/>
@@ -3950,7 +4099,7 @@
     <row r="129" ht="80" customHeight="1" spans="1:5">
       <c r="A129" s="4"/>
       <c r="B129" s="4" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="4"/>
@@ -3959,7 +4108,7 @@
     <row r="130" ht="80" customHeight="1" spans="1:5">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="4"/>
@@ -3968,7 +4117,7 @@
     <row r="131" ht="80" customHeight="1" spans="1:5">
       <c r="A131" s="4"/>
       <c r="B131" s="4" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="4"/>
@@ -3977,7 +4126,7 @@
     <row r="132" ht="80" customHeight="1" spans="1:5">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="4"/>
@@ -3986,7 +4135,7 @@
     <row r="133" ht="80" customHeight="1" spans="1:5">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="4"/>
@@ -3995,7 +4144,7 @@
     <row r="134" ht="80" customHeight="1" spans="1:5">
       <c r="A134" s="4"/>
       <c r="B134" s="4" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="4"/>
@@ -4004,7 +4153,7 @@
     <row r="135" ht="80" customHeight="1" spans="1:5">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="4"/>
@@ -4013,7 +4162,7 @@
     <row r="136" ht="80" customHeight="1" spans="1:5">
       <c r="A136" s="4"/>
       <c r="B136" s="4" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="4"/>
@@ -4022,7 +4171,7 @@
     <row r="137" ht="80" customHeight="1" spans="1:5">
       <c r="A137" s="4"/>
       <c r="B137" s="4" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="4"/>
@@ -4031,7 +4180,7 @@
     <row r="138" ht="80" customHeight="1" spans="1:5">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="4"/>
@@ -4040,10 +4189,10 @@
     <row r="139" ht="80" customHeight="1" spans="1:5">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -4051,7 +4200,7 @@
     <row r="140" ht="80" customHeight="1" spans="1:5">
       <c r="A140" s="4"/>
       <c r="B140" s="4" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="4"/>
@@ -4060,7 +4209,7 @@
     <row r="141" ht="80" customHeight="1" spans="1:5">
       <c r="A141" s="4"/>
       <c r="B141" s="4" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="4"/>
@@ -4069,7 +4218,7 @@
     <row r="142" ht="80" customHeight="1" spans="1:5">
       <c r="A142" s="4"/>
       <c r="B142" s="4" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="4"/>
@@ -4078,7 +4227,7 @@
     <row r="143" ht="80" customHeight="1" spans="1:5">
       <c r="A143" s="4"/>
       <c r="B143" s="4" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="4"/>
@@ -4087,7 +4236,7 @@
     <row r="144" ht="80" customHeight="1" spans="1:5">
       <c r="A144" s="4"/>
       <c r="B144" s="4" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="4"/>
@@ -4096,7 +4245,7 @@
     <row r="145" ht="80" customHeight="1" spans="1:5">
       <c r="A145" s="4"/>
       <c r="B145" s="4" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="4"/>
@@ -4105,7 +4254,7 @@
     <row r="146" ht="80" customHeight="1" spans="1:5">
       <c r="A146" s="4"/>
       <c r="B146" s="4" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="4"/>
@@ -4114,7 +4263,7 @@
     <row r="147" ht="80" customHeight="1" spans="1:5">
       <c r="A147" s="4"/>
       <c r="B147" s="4" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="4"/>
@@ -4123,7 +4272,7 @@
     <row r="148" ht="80" customHeight="1" spans="1:5">
       <c r="A148" s="4"/>
       <c r="B148" s="4" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C148" s="6"/>
       <c r="D148" s="4"/>
@@ -4132,7 +4281,7 @@
     <row r="149" ht="80" customHeight="1" spans="1:5">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="4"/>
@@ -4141,7 +4290,7 @@
     <row r="150" ht="80" customHeight="1" spans="1:5">
       <c r="A150" s="4"/>
       <c r="B150" s="4" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="4"/>
@@ -4150,7 +4299,7 @@
     <row r="151" ht="80" customHeight="1" spans="1:5">
       <c r="A151" s="4"/>
       <c r="B151" s="4" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="4"/>
@@ -4158,10 +4307,10 @@
     </row>
     <row r="152" ht="80" customHeight="1" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="4"/>
@@ -4170,7 +4319,7 @@
     <row r="153" ht="80" customHeight="1" spans="1:5">
       <c r="A153" s="4"/>
       <c r="B153" s="4" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="4"/>
@@ -4179,7 +4328,7 @@
     <row r="154" ht="80" customHeight="1" spans="1:5">
       <c r="A154" s="4"/>
       <c r="B154" s="4" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="C154" s="6"/>
       <c r="D154" s="4"/>
@@ -4188,7 +4337,7 @@
     <row r="155" ht="80" customHeight="1" spans="1:5">
       <c r="A155" s="4"/>
       <c r="B155" s="4" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C155" s="6"/>
       <c r="D155" s="4"/>
@@ -4197,7 +4346,7 @@
     <row r="156" ht="80" customHeight="1" spans="1:5">
       <c r="A156" s="4"/>
       <c r="B156" s="4" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="4"/>
@@ -4206,7 +4355,7 @@
     <row r="157" ht="80" customHeight="1" spans="1:5">
       <c r="A157" s="4"/>
       <c r="B157" s="4" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C157" s="6"/>
       <c r="D157" s="4"/>
@@ -4215,7 +4364,7 @@
     <row r="158" ht="80" customHeight="1" spans="1:5">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="4"/>
@@ -4224,7 +4373,7 @@
     <row r="159" ht="80" customHeight="1" spans="1:5">
       <c r="A159" s="4"/>
       <c r="B159" s="4" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C159" s="6"/>
       <c r="D159" s="4"/>
@@ -4233,7 +4382,7 @@
     <row r="160" ht="80" customHeight="1" spans="1:5">
       <c r="A160" s="4"/>
       <c r="B160" s="4" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="4"/>
@@ -4242,7 +4391,7 @@
     <row r="161" ht="80" customHeight="1" spans="1:5">
       <c r="A161" s="4"/>
       <c r="B161" s="4" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="4"/>
@@ -4251,7 +4400,7 @@
     <row r="162" ht="80" customHeight="1" spans="1:5">
       <c r="A162" s="4"/>
       <c r="B162" s="4" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="4"/>
@@ -4260,7 +4409,7 @@
     <row r="163" ht="80" customHeight="1" spans="1:5">
       <c r="A163" s="4"/>
       <c r="B163" s="4" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="4"/>
@@ -4269,7 +4418,7 @@
     <row r="164" ht="80" customHeight="1" spans="1:5">
       <c r="A164" s="4"/>
       <c r="B164" s="4" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C164" s="6"/>
       <c r="D164" s="4"/>
@@ -4278,7 +4427,7 @@
     <row r="165" ht="80" customHeight="1" spans="1:5">
       <c r="A165" s="4"/>
       <c r="B165" s="4" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="4"/>
@@ -4287,7 +4436,7 @@
     <row r="166" ht="80" customHeight="1" spans="1:5">
       <c r="A166" s="4"/>
       <c r="B166" s="4" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C166" s="6"/>
       <c r="D166" s="4"/>
@@ -4296,7 +4445,7 @@
     <row r="167" ht="80" customHeight="1" spans="1:5">
       <c r="A167" s="4"/>
       <c r="B167" s="4" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="4"/>
@@ -4305,7 +4454,7 @@
     <row r="168" ht="80" customHeight="1" spans="1:5">
       <c r="A168" s="4"/>
       <c r="B168" s="4" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="4"/>
@@ -4314,7 +4463,7 @@
     <row r="169" ht="80" customHeight="1" spans="1:5">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="4"/>
@@ -4323,7 +4472,7 @@
     <row r="170" ht="80" customHeight="1" spans="1:5">
       <c r="A170" s="4"/>
       <c r="B170" s="4" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="4"/>
@@ -4332,7 +4481,7 @@
     <row r="171" ht="80" customHeight="1" spans="1:5">
       <c r="A171" s="4"/>
       <c r="B171" s="4" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="4"/>
@@ -4341,7 +4490,7 @@
     <row r="172" ht="80" customHeight="1" spans="1:5">
       <c r="A172" s="4"/>
       <c r="B172" s="4" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="4"/>
@@ -4350,7 +4499,7 @@
     <row r="173" ht="80" customHeight="1" spans="1:5">
       <c r="A173" s="4"/>
       <c r="B173" s="4" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="4"/>
@@ -4359,7 +4508,7 @@
     <row r="174" ht="80" customHeight="1" spans="1:5">
       <c r="A174" s="4"/>
       <c r="B174" s="4" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="4"/>
@@ -4368,7 +4517,7 @@
     <row r="175" ht="80" customHeight="1" spans="1:5">
       <c r="A175" s="4"/>
       <c r="B175" s="4" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="4"/>
@@ -4377,7 +4526,7 @@
     <row r="176" ht="80" customHeight="1" spans="1:5">
       <c r="A176" s="4"/>
       <c r="B176" s="4" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C176" s="6"/>
       <c r="D176" s="4"/>
@@ -4386,7 +4535,7 @@
     <row r="177" ht="80" customHeight="1" spans="1:5">
       <c r="A177" s="4"/>
       <c r="B177" s="4" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="4"/>
@@ -4395,7 +4544,7 @@
     <row r="178" ht="80" customHeight="1" spans="1:5">
       <c r="A178" s="4"/>
       <c r="B178" s="4" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="4"/>
@@ -4404,7 +4553,7 @@
     <row r="179" ht="80" customHeight="1" spans="1:5">
       <c r="A179" s="4"/>
       <c r="B179" s="4" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="4"/>
@@ -4413,7 +4562,7 @@
     <row r="180" ht="80" customHeight="1" spans="1:5">
       <c r="A180" s="4"/>
       <c r="B180" s="4" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="4"/>
@@ -4422,7 +4571,7 @@
     <row r="181" ht="80" customHeight="1" spans="1:5">
       <c r="A181" s="4"/>
       <c r="B181" s="4" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C181" s="6"/>
       <c r="D181" s="4"/>
@@ -4431,7 +4580,7 @@
     <row r="182" ht="80" customHeight="1" spans="1:5">
       <c r="A182" s="4"/>
       <c r="B182" s="4" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="4"/>
@@ -4440,7 +4589,7 @@
     <row r="183" ht="80" customHeight="1" spans="1:5">
       <c r="A183" s="4"/>
       <c r="B183" s="4" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="4"/>
@@ -4449,7 +4598,7 @@
     <row r="184" ht="80" customHeight="1" spans="1:5">
       <c r="A184" s="4"/>
       <c r="B184" s="4" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="4"/>
@@ -4458,7 +4607,7 @@
     <row r="185" ht="80" customHeight="1" spans="1:5">
       <c r="A185" s="4"/>
       <c r="B185" s="4" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="4"/>
@@ -4467,7 +4616,7 @@
     <row r="186" ht="80" customHeight="1" spans="1:5">
       <c r="A186" s="4"/>
       <c r="B186" s="4" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="4"/>
@@ -4476,7 +4625,7 @@
     <row r="187" ht="80" customHeight="1" spans="1:5">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="4"/>
@@ -4485,7 +4634,7 @@
     <row r="188" ht="80" customHeight="1" spans="1:5">
       <c r="A188" s="4"/>
       <c r="B188" s="4" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C188" s="6"/>
       <c r="D188" s="4"/>
@@ -4494,7 +4643,7 @@
     <row r="189" ht="80" customHeight="1" spans="1:5">
       <c r="A189" s="4"/>
       <c r="B189" s="4" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C189" s="6"/>
       <c r="D189" s="4"/>
@@ -4502,10 +4651,10 @@
     </row>
     <row r="190" ht="80" customHeight="1" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C190" s="6"/>
       <c r="D190" s="4"/>
@@ -4514,7 +4663,7 @@
     <row r="191" ht="80" customHeight="1" spans="1:5">
       <c r="A191" s="4"/>
       <c r="B191" s="4" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C191" s="6"/>
       <c r="D191" s="4"/>
@@ -4523,7 +4672,7 @@
     <row r="192" ht="80" customHeight="1" spans="1:5">
       <c r="A192" s="4"/>
       <c r="B192" s="4" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C192" s="6"/>
       <c r="D192" s="4"/>
@@ -4532,7 +4681,7 @@
     <row r="193" ht="80" customHeight="1" spans="1:5">
       <c r="A193" s="4"/>
       <c r="B193" s="4" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C193" s="6"/>
       <c r="D193" s="4"/>
@@ -4541,7 +4690,7 @@
     <row r="194" ht="80" customHeight="1" spans="1:5">
       <c r="A194" s="4"/>
       <c r="B194" s="4" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C194" s="6"/>
       <c r="D194" s="4"/>
@@ -4550,7 +4699,7 @@
     <row r="195" ht="80" customHeight="1" spans="1:5">
       <c r="A195" s="4"/>
       <c r="B195" s="4" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="4"/>
@@ -4559,7 +4708,7 @@
     <row r="196" ht="80" customHeight="1" spans="1:5">
       <c r="A196" s="4"/>
       <c r="B196" s="4" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C196" s="6"/>
       <c r="D196" s="4"/>
@@ -4568,7 +4717,7 @@
     <row r="197" ht="80" customHeight="1" spans="1:5">
       <c r="A197" s="4"/>
       <c r="B197" s="4" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="C197" s="6"/>
       <c r="D197" s="4"/>
@@ -4577,7 +4726,7 @@
     <row r="198" ht="80" customHeight="1" spans="1:5">
       <c r="A198" s="4"/>
       <c r="B198" s="4" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C198" s="6"/>
       <c r="D198" s="4"/>
@@ -4586,7 +4735,7 @@
     <row r="199" ht="80" customHeight="1" spans="1:5">
       <c r="A199" s="4"/>
       <c r="B199" s="4" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="4"/>
@@ -4595,7 +4744,7 @@
     <row r="200" ht="80" customHeight="1" spans="1:5">
       <c r="A200" s="4"/>
       <c r="B200" s="4" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="4"/>
@@ -4604,7 +4753,7 @@
     <row r="201" ht="80" customHeight="1" spans="1:5">
       <c r="A201" s="4"/>
       <c r="B201" s="4" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="4"/>
@@ -4613,7 +4762,7 @@
     <row r="202" ht="80" customHeight="1" spans="1:5">
       <c r="A202" s="4"/>
       <c r="B202" s="4" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="4"/>
@@ -4622,7 +4771,7 @@
     <row r="203" ht="80" customHeight="1" spans="1:5">
       <c r="A203" s="4"/>
       <c r="B203" s="4" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="4"/>
@@ -4631,7 +4780,7 @@
     <row r="204" ht="80" customHeight="1" spans="1:5">
       <c r="A204" s="4"/>
       <c r="B204" s="4" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="4"/>
@@ -4640,7 +4789,7 @@
     <row r="205" ht="80" customHeight="1" spans="1:5">
       <c r="A205" s="4"/>
       <c r="B205" s="4" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C205" s="6"/>
       <c r="D205" s="4"/>
@@ -4649,7 +4798,7 @@
     <row r="206" ht="80" customHeight="1" spans="1:5">
       <c r="A206" s="4"/>
       <c r="B206" s="4" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C206" s="6"/>
       <c r="D206" s="4"/>
@@ -4658,7 +4807,7 @@
     <row r="207" ht="80" customHeight="1" spans="1:5">
       <c r="A207" s="4"/>
       <c r="B207" s="4" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="4"/>
@@ -4667,7 +4816,7 @@
     <row r="208" ht="80" customHeight="1" spans="1:5">
       <c r="A208" s="4"/>
       <c r="B208" s="4" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="4"/>
@@ -4676,7 +4825,7 @@
     <row r="209" ht="80" customHeight="1" spans="1:5">
       <c r="A209" s="4"/>
       <c r="B209" s="4" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="4"/>
@@ -4685,7 +4834,7 @@
     <row r="210" ht="80" customHeight="1" spans="1:5">
       <c r="A210" s="4"/>
       <c r="B210" s="4" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="4"/>
@@ -4693,10 +4842,10 @@
     </row>
     <row r="211" ht="80" customHeight="1" spans="1:5">
       <c r="A211" s="4" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="4"/>
@@ -4705,7 +4854,7 @@
     <row r="212" ht="80" customHeight="1" spans="1:5">
       <c r="A212" s="4"/>
       <c r="B212" s="4" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="4"/>
@@ -4714,7 +4863,7 @@
     <row r="213" ht="80" customHeight="1" spans="1:5">
       <c r="A213" s="4"/>
       <c r="B213" s="4" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="4"/>
@@ -4723,7 +4872,7 @@
     <row r="214" ht="80" customHeight="1" spans="1:5">
       <c r="A214" s="4"/>
       <c r="B214" s="4" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="C214" s="6"/>
       <c r="D214" s="4"/>
@@ -4732,7 +4881,7 @@
     <row r="215" ht="80" customHeight="1" spans="1:5">
       <c r="A215" s="4"/>
       <c r="B215" s="4" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="4"/>
@@ -4741,7 +4890,7 @@
     <row r="216" ht="80" customHeight="1" spans="1:5">
       <c r="A216" s="4"/>
       <c r="B216" s="4" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="4"/>
@@ -4750,7 +4899,7 @@
     <row r="217" ht="80" customHeight="1" spans="1:5">
       <c r="A217" s="4"/>
       <c r="B217" s="4" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="4"/>
@@ -4759,7 +4908,7 @@
     <row r="218" ht="80" customHeight="1" spans="1:5">
       <c r="A218" s="4"/>
       <c r="B218" s="4" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C218" s="6"/>
       <c r="D218" s="4"/>
@@ -4768,7 +4917,7 @@
     <row r="219" ht="80" customHeight="1" spans="1:5">
       <c r="A219" s="4"/>
       <c r="B219" s="4" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C219" s="6"/>
       <c r="D219" s="4"/>
@@ -4777,7 +4926,7 @@
     <row r="220" ht="80" customHeight="1" spans="1:5">
       <c r="A220" s="4"/>
       <c r="B220" s="4" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="C220" s="6"/>
       <c r="D220" s="4"/>
@@ -4786,7 +4935,7 @@
     <row r="221" ht="80" customHeight="1" spans="1:5">
       <c r="A221" s="4"/>
       <c r="B221" s="4" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C221" s="6"/>
       <c r="D221" s="4"/>
@@ -4795,7 +4944,7 @@
     <row r="222" ht="80" customHeight="1" spans="1:5">
       <c r="A222" s="4"/>
       <c r="B222" s="4" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="C222" s="6"/>
       <c r="D222" s="4"/>
@@ -4804,7 +4953,7 @@
     <row r="223" ht="80" customHeight="1" spans="1:5">
       <c r="A223" s="4"/>
       <c r="B223" s="4" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="4"/>
@@ -4813,7 +4962,7 @@
     <row r="224" ht="80" customHeight="1" spans="1:5">
       <c r="A224" s="4"/>
       <c r="B224" s="4" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="4"/>
@@ -4822,7 +4971,7 @@
     <row r="225" ht="80" customHeight="1" spans="1:5">
       <c r="A225" s="4"/>
       <c r="B225" s="4" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="C225" s="6"/>
       <c r="D225" s="4"/>
@@ -4831,7 +4980,7 @@
     <row r="226" ht="80" customHeight="1" spans="1:5">
       <c r="A226" s="4"/>
       <c r="B226" s="4" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="C226" s="6"/>
       <c r="D226" s="4"/>
@@ -4840,7 +4989,7 @@
     <row r="227" ht="80" customHeight="1" spans="1:5">
       <c r="A227" s="4"/>
       <c r="B227" s="4" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="4"/>
@@ -4849,7 +4998,7 @@
     <row r="228" ht="80" customHeight="1" spans="1:5">
       <c r="A228" s="4"/>
       <c r="B228" s="4" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C228" s="6"/>
       <c r="D228" s="4"/>
@@ -4858,7 +5007,7 @@
     <row r="229" ht="80" customHeight="1" spans="1:5">
       <c r="A229" s="4"/>
       <c r="B229" s="4" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C229" s="6"/>
       <c r="D229" s="4"/>
@@ -4867,7 +5016,7 @@
     <row r="230" ht="80" customHeight="1" spans="1:5">
       <c r="A230" s="4"/>
       <c r="B230" s="4" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="C230" s="6"/>
       <c r="D230" s="4"/>
@@ -4876,7 +5025,7 @@
     <row r="231" ht="80" customHeight="1" spans="1:5">
       <c r="A231" s="4"/>
       <c r="B231" s="4" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C231" s="6"/>
       <c r="D231" s="4"/>
@@ -4885,7 +5034,7 @@
     <row r="232" ht="80" customHeight="1" spans="1:5">
       <c r="A232" s="4"/>
       <c r="B232" s="4" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="C232" s="6"/>
       <c r="D232" s="4"/>
@@ -4894,7 +5043,7 @@
     <row r="233" ht="80" customHeight="1" spans="1:5">
       <c r="A233" s="4"/>
       <c r="B233" s="4" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="C233" s="6"/>
       <c r="D233" s="4"/>
@@ -4903,7 +5052,7 @@
     <row r="234" ht="80" customHeight="1" spans="1:5">
       <c r="A234" s="4"/>
       <c r="B234" s="4" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="4"/>
@@ -4912,7 +5061,7 @@
     <row r="235" ht="80" customHeight="1" spans="1:5">
       <c r="A235" s="4"/>
       <c r="B235" s="4" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C235" s="6"/>
       <c r="D235" s="4"/>
@@ -4921,7 +5070,7 @@
     <row r="236" ht="80" customHeight="1" spans="1:5">
       <c r="A236" s="4"/>
       <c r="B236" s="4" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="4"/>
@@ -4930,7 +5079,7 @@
     <row r="237" ht="80" customHeight="1" spans="1:5">
       <c r="A237" s="4"/>
       <c r="B237" s="4" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C237" s="6"/>
       <c r="D237" s="4"/>
@@ -4939,7 +5088,7 @@
     <row r="238" ht="80" customHeight="1" spans="1:5">
       <c r="A238" s="4"/>
       <c r="B238" s="4" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C238" s="6"/>
       <c r="D238" s="4"/>
@@ -4948,7 +5097,7 @@
     <row r="239" ht="80" customHeight="1" spans="1:5">
       <c r="A239" s="4"/>
       <c r="B239" s="4" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="4"/>
@@ -4957,7 +5106,7 @@
     <row r="240" ht="80" customHeight="1" spans="1:5">
       <c r="A240" s="4"/>
       <c r="B240" s="4" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="4"/>
@@ -4966,7 +5115,7 @@
     <row r="241" ht="80" customHeight="1" spans="1:5">
       <c r="A241" s="4"/>
       <c r="B241" s="4" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="4"/>
@@ -4974,10 +5123,10 @@
     </row>
     <row r="242" ht="80" customHeight="1" spans="1:5">
       <c r="A242" s="4" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="C242" s="6"/>
       <c r="D242" s="4"/>
@@ -4986,7 +5135,7 @@
     <row r="243" ht="80" customHeight="1" spans="1:5">
       <c r="A243" s="4"/>
       <c r="B243" s="4" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="4"/>
@@ -4995,7 +5144,7 @@
     <row r="244" ht="80" customHeight="1" spans="1:5">
       <c r="A244" s="4"/>
       <c r="B244" s="4" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="4"/>
@@ -5004,7 +5153,7 @@
     <row r="245" ht="80" customHeight="1" spans="1:5">
       <c r="A245" s="4"/>
       <c r="B245" s="4" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="4"/>
@@ -5013,7 +5162,7 @@
     <row r="246" ht="80" customHeight="1" spans="1:5">
       <c r="A246" s="4"/>
       <c r="B246" s="4" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="4"/>
@@ -5022,7 +5171,7 @@
     <row r="247" ht="80" customHeight="1" spans="1:5">
       <c r="A247" s="4"/>
       <c r="B247" s="4" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="4"/>
@@ -5031,7 +5180,7 @@
     <row r="248" ht="80" customHeight="1" spans="1:5">
       <c r="A248" s="4"/>
       <c r="B248" s="4" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="4"/>
@@ -5040,7 +5189,7 @@
     <row r="249" ht="80" customHeight="1" spans="1:5">
       <c r="A249" s="4"/>
       <c r="B249" s="4" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C249" s="6"/>
       <c r="D249" s="4"/>
@@ -5049,7 +5198,7 @@
     <row r="250" ht="80" customHeight="1" spans="1:5">
       <c r="A250" s="4"/>
       <c r="B250" s="4" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C250" s="6"/>
       <c r="D250" s="4"/>
@@ -5058,7 +5207,7 @@
     <row r="251" ht="80" customHeight="1" spans="1:5">
       <c r="A251" s="4"/>
       <c r="B251" s="4" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C251" s="6"/>
       <c r="D251" s="4"/>
@@ -5067,7 +5216,7 @@
     <row r="252" ht="80" customHeight="1" spans="1:5">
       <c r="A252" s="4"/>
       <c r="B252" s="4" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C252" s="6"/>
       <c r="D252" s="4"/>
@@ -5076,7 +5225,7 @@
     <row r="253" ht="80" customHeight="1" spans="1:5">
       <c r="A253" s="4"/>
       <c r="B253" s="4" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="C253" s="6"/>
       <c r="D253" s="4"/>
@@ -5085,7 +5234,7 @@
     <row r="254" ht="80" customHeight="1" spans="1:5">
       <c r="A254" s="4"/>
       <c r="B254" s="4" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="C254" s="6"/>
       <c r="D254" s="4"/>
@@ -5094,7 +5243,7 @@
     <row r="255" ht="80" customHeight="1" spans="1:5">
       <c r="A255" s="4"/>
       <c r="B255" s="4" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C255" s="6"/>
       <c r="D255" s="4"/>
@@ -5103,7 +5252,7 @@
     <row r="256" ht="80" customHeight="1" spans="1:5">
       <c r="A256" s="4"/>
       <c r="B256" s="4" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="C256" s="6"/>
       <c r="D256" s="4"/>
@@ -5112,7 +5261,7 @@
     <row r="257" ht="80" customHeight="1" spans="1:5">
       <c r="A257" s="4"/>
       <c r="B257" s="4" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="C257" s="6"/>
       <c r="D257" s="4"/>
@@ -5121,7 +5270,7 @@
     <row r="258" ht="80" customHeight="1" spans="1:5">
       <c r="A258" s="4"/>
       <c r="B258" s="4" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="C258" s="6"/>
       <c r="D258" s="4"/>
@@ -5130,7 +5279,7 @@
     <row r="259" ht="80" customHeight="1" spans="1:5">
       <c r="A259" s="4"/>
       <c r="B259" s="4" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="4"/>
@@ -5139,7 +5288,7 @@
     <row r="260" ht="80" customHeight="1" spans="1:5">
       <c r="A260" s="4"/>
       <c r="B260" s="4" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="C260" s="6"/>
       <c r="D260" s="4"/>
@@ -5148,7 +5297,7 @@
     <row r="261" ht="80" customHeight="1" spans="1:5">
       <c r="A261" s="4"/>
       <c r="B261" s="4" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C261" s="6"/>
       <c r="D261" s="4"/>
@@ -5157,7 +5306,7 @@
     <row r="262" ht="80" customHeight="1" spans="1:5">
       <c r="A262" s="4"/>
       <c r="B262" s="4" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C262" s="6"/>
       <c r="D262" s="4"/>
@@ -5166,7 +5315,7 @@
     <row r="263" ht="80" customHeight="1" spans="1:5">
       <c r="A263" s="4"/>
       <c r="B263" s="4" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C263" s="6"/>
       <c r="D263" s="4"/>
@@ -5175,7 +5324,7 @@
     <row r="264" ht="80" customHeight="1" spans="1:5">
       <c r="A264" s="4"/>
       <c r="B264" s="4" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="4"/>
@@ -5184,7 +5333,7 @@
     <row r="265" ht="80" customHeight="1" spans="1:5">
       <c r="A265" s="4"/>
       <c r="B265" s="4" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="4"/>
@@ -5193,7 +5342,7 @@
     <row r="266" ht="80" customHeight="1" spans="1:5">
       <c r="A266" s="4"/>
       <c r="B266" s="4" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="4"/>
@@ -5202,7 +5351,7 @@
     <row r="267" ht="80" customHeight="1" spans="1:5">
       <c r="A267" s="4"/>
       <c r="B267" s="4" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="C267" s="6"/>
       <c r="D267" s="4"/>
@@ -5211,7 +5360,7 @@
     <row r="268" ht="80" customHeight="1" spans="1:5">
       <c r="A268" s="4"/>
       <c r="B268" s="4" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C268" s="6"/>
       <c r="D268" s="4"/>
@@ -5219,10 +5368,10 @@
     </row>
     <row r="269" ht="80" customHeight="1" spans="1:5">
       <c r="A269" s="4" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="C269" s="6"/>
       <c r="D269" s="4"/>
@@ -5231,7 +5380,7 @@
     <row r="270" ht="80" customHeight="1" spans="1:5">
       <c r="A270" s="4"/>
       <c r="B270" s="4" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="C270" s="6"/>
       <c r="D270" s="4"/>
@@ -5240,7 +5389,7 @@
     <row r="271" ht="80" customHeight="1" spans="1:5">
       <c r="A271" s="4"/>
       <c r="B271" s="4" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="C271" s="6"/>
       <c r="D271" s="4"/>
@@ -5249,7 +5398,7 @@
     <row r="272" ht="80" customHeight="1" spans="1:5">
       <c r="A272" s="4"/>
       <c r="B272" s="4" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="C272" s="6"/>
       <c r="D272" s="4"/>
@@ -5258,7 +5407,7 @@
     <row r="273" ht="80" customHeight="1" spans="1:5">
       <c r="A273" s="4"/>
       <c r="B273" s="4" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="C273" s="6"/>
       <c r="D273" s="4"/>
@@ -5267,7 +5416,7 @@
     <row r="274" ht="80" customHeight="1" spans="1:5">
       <c r="A274" s="4"/>
       <c r="B274" s="4" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C274" s="6"/>
       <c r="D274" s="4"/>
@@ -5276,7 +5425,7 @@
     <row r="275" ht="80" customHeight="1" spans="1:5">
       <c r="A275" s="4"/>
       <c r="B275" s="4" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="C275" s="6"/>
       <c r="D275" s="4"/>
@@ -5285,7 +5434,7 @@
     <row r="276" ht="80" customHeight="1" spans="1:5">
       <c r="A276" s="4"/>
       <c r="B276" s="4" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C276" s="6"/>
       <c r="D276" s="4"/>
@@ -5294,7 +5443,7 @@
     <row r="277" ht="80" customHeight="1" spans="1:5">
       <c r="A277" s="4"/>
       <c r="B277" s="4" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="C277" s="6"/>
       <c r="D277" s="4"/>
@@ -5303,7 +5452,7 @@
     <row r="278" ht="80" customHeight="1" spans="1:5">
       <c r="A278" s="4"/>
       <c r="B278" s="4" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="C278" s="6"/>
       <c r="D278" s="4"/>
@@ -5312,7 +5461,7 @@
     <row r="279" ht="80" customHeight="1" spans="1:5">
       <c r="A279" s="4"/>
       <c r="B279" s="4" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C279" s="6"/>
       <c r="D279" s="4"/>
@@ -5321,7 +5470,7 @@
     <row r="280" ht="80" customHeight="1" spans="1:5">
       <c r="A280" s="4"/>
       <c r="B280" s="4" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C280" s="6"/>
       <c r="D280" s="4"/>
@@ -5330,7 +5479,7 @@
     <row r="281" ht="80" customHeight="1" spans="1:5">
       <c r="A281" s="4"/>
       <c r="B281" s="4" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="C281" s="6"/>
       <c r="D281" s="4"/>
@@ -5339,7 +5488,7 @@
     <row r="282" ht="80" customHeight="1" spans="1:5">
       <c r="A282" s="4"/>
       <c r="B282" s="4" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="C282" s="6"/>
       <c r="D282" s="4"/>
@@ -5348,7 +5497,7 @@
     <row r="283" ht="80" customHeight="1" spans="1:5">
       <c r="A283" s="4"/>
       <c r="B283" s="4" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="C283" s="6"/>
       <c r="D283" s="4"/>
@@ -5357,7 +5506,7 @@
     <row r="284" ht="80" customHeight="1" spans="1:5">
       <c r="A284" s="4"/>
       <c r="B284" s="4" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="C284" s="6"/>
       <c r="D284" s="4"/>
@@ -5366,7 +5515,7 @@
     <row r="285" ht="80" customHeight="1" spans="1:5">
       <c r="A285" s="4"/>
       <c r="B285" s="4" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="C285" s="6"/>
       <c r="D285" s="4"/>
@@ -5375,7 +5524,7 @@
     <row r="286" ht="80" customHeight="1" spans="1:5">
       <c r="A286" s="4"/>
       <c r="B286" s="4" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="C286" s="6"/>
       <c r="D286" s="4"/>
@@ -5384,7 +5533,7 @@
     <row r="287" ht="80" customHeight="1" spans="1:5">
       <c r="A287" s="4"/>
       <c r="B287" s="4" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="C287" s="6"/>
       <c r="D287" s="4"/>
@@ -5393,7 +5542,7 @@
     <row r="288" ht="80" customHeight="1" spans="1:5">
       <c r="A288" s="4"/>
       <c r="B288" s="4" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="C288" s="6"/>
       <c r="D288" s="4"/>
@@ -5402,7 +5551,7 @@
     <row r="289" ht="80" customHeight="1" spans="1:5">
       <c r="A289" s="4"/>
       <c r="B289" s="4" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="4"/>
@@ -5411,7 +5560,7 @@
     <row r="290" ht="80" customHeight="1" spans="1:5">
       <c r="A290" s="4"/>
       <c r="B290" s="4" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="C290" s="6"/>
       <c r="D290" s="4"/>
@@ -5420,7 +5569,7 @@
     <row r="291" ht="80" customHeight="1" spans="1:5">
       <c r="A291" s="4"/>
       <c r="B291" s="4" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C291" s="6"/>
       <c r="D291" s="4"/>
@@ -5429,7 +5578,7 @@
     <row r="292" ht="80" customHeight="1" spans="1:5">
       <c r="A292" s="4"/>
       <c r="B292" s="4" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C292" s="6"/>
       <c r="D292" s="4"/>
@@ -5438,7 +5587,7 @@
     <row r="293" ht="80" customHeight="1" spans="1:5">
       <c r="A293" s="4"/>
       <c r="B293" s="4" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="C293" s="6"/>
       <c r="D293" s="4"/>
@@ -5447,7 +5596,7 @@
     <row r="294" ht="80" customHeight="1" spans="1:5">
       <c r="A294" s="4"/>
       <c r="B294" s="4" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="C294" s="6"/>
       <c r="D294" s="4"/>
@@ -5455,10 +5604,10 @@
     </row>
     <row r="295" ht="80" customHeight="1" spans="1:5">
       <c r="A295" s="4" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="C295" s="6"/>
       <c r="D295" s="4"/>
@@ -5467,7 +5616,7 @@
     <row r="296" ht="80" customHeight="1" spans="1:5">
       <c r="A296" s="4"/>
       <c r="B296" s="4" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="4"/>
@@ -5476,7 +5625,7 @@
     <row r="297" ht="80" customHeight="1" spans="1:5">
       <c r="A297" s="4"/>
       <c r="B297" s="4" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="4"/>
@@ -5485,7 +5634,7 @@
     <row r="298" ht="80" customHeight="1" spans="1:5">
       <c r="A298" s="4"/>
       <c r="B298" s="4" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="4"/>
@@ -5494,7 +5643,7 @@
     <row r="299" ht="80" customHeight="1" spans="1:5">
       <c r="A299" s="4"/>
       <c r="B299" s="4" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="4"/>
@@ -5503,7 +5652,7 @@
     <row r="300" ht="80" customHeight="1" spans="1:5">
       <c r="A300" s="4"/>
       <c r="B300" s="4" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="C300" s="6"/>
       <c r="D300" s="4"/>
@@ -5512,7 +5661,7 @@
     <row r="301" ht="80" customHeight="1" spans="1:5">
       <c r="A301" s="4"/>
       <c r="B301" s="4" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="C301" s="6"/>
       <c r="D301" s="4"/>
@@ -5521,7 +5670,7 @@
     <row r="302" ht="80" customHeight="1" spans="1:5">
       <c r="A302" s="4"/>
       <c r="B302" s="4" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="C302" s="6"/>
       <c r="D302" s="4"/>
@@ -5530,7 +5679,7 @@
     <row r="303" ht="80" customHeight="1" spans="1:5">
       <c r="A303" s="4"/>
       <c r="B303" s="4" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="C303" s="6"/>
       <c r="D303" s="4"/>
@@ -5539,7 +5688,7 @@
     <row r="304" ht="80" customHeight="1" spans="1:5">
       <c r="A304" s="4"/>
       <c r="B304" s="4" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C304" s="6"/>
       <c r="D304" s="4"/>
@@ -5548,7 +5697,7 @@
     <row r="305" ht="80" customHeight="1" spans="1:5">
       <c r="A305" s="4"/>
       <c r="B305" s="4" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C305" s="6"/>
       <c r="D305" s="4"/>
@@ -5557,7 +5706,7 @@
     <row r="306" ht="80" customHeight="1" spans="1:5">
       <c r="A306" s="4"/>
       <c r="B306" s="4" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C306" s="6"/>
       <c r="D306" s="4"/>
@@ -5566,7 +5715,7 @@
     <row r="307" ht="80" customHeight="1" spans="1:5">
       <c r="A307" s="4"/>
       <c r="B307" s="4" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="C307" s="6"/>
       <c r="D307" s="4"/>
@@ -5575,7 +5724,7 @@
     <row r="308" ht="80" customHeight="1" spans="1:5">
       <c r="A308" s="4"/>
       <c r="B308" s="4" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C308" s="6"/>
       <c r="D308" s="4"/>
@@ -5584,7 +5733,7 @@
     <row r="309" ht="80" customHeight="1" spans="1:5">
       <c r="A309" s="4"/>
       <c r="B309" s="4" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C309" s="6"/>
       <c r="D309" s="4"/>
@@ -5593,7 +5742,7 @@
     <row r="310" ht="80" customHeight="1" spans="1:5">
       <c r="A310" s="4"/>
       <c r="B310" s="4" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="4"/>
@@ -5602,7 +5751,7 @@
     <row r="311" ht="80" customHeight="1" spans="1:5">
       <c r="A311" s="4"/>
       <c r="B311" s="4" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="4"/>
@@ -5611,7 +5760,7 @@
     <row r="312" ht="80" customHeight="1" spans="1:5">
       <c r="A312" s="4"/>
       <c r="B312" s="4" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="4"/>
@@ -5620,7 +5769,7 @@
     <row r="313" ht="80" customHeight="1" spans="1:5">
       <c r="A313" s="4"/>
       <c r="B313" s="4" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C313" s="6"/>
       <c r="D313" s="4"/>
@@ -5629,7 +5778,7 @@
     <row r="314" ht="80" customHeight="1" spans="1:5">
       <c r="A314" s="4"/>
       <c r="B314" s="4" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="4"/>
@@ -5638,7 +5787,7 @@
     <row r="315" ht="80" customHeight="1" spans="1:5">
       <c r="A315" s="4"/>
       <c r="B315" s="4" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="C315" s="6"/>
       <c r="D315" s="4"/>
@@ -5647,7 +5796,7 @@
     <row r="316" ht="80" customHeight="1" spans="1:5">
       <c r="A316" s="4"/>
       <c r="B316" s="4" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="C316" s="6"/>
       <c r="D316" s="4"/>
@@ -5656,7 +5805,7 @@
     <row r="317" ht="80" customHeight="1" spans="1:5">
       <c r="A317" s="4"/>
       <c r="B317" s="4" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C317" s="6"/>
       <c r="D317" s="4"/>
@@ -5665,7 +5814,7 @@
     <row r="318" ht="80" customHeight="1" spans="1:5">
       <c r="A318" s="4"/>
       <c r="B318" s="4" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="C318" s="6"/>
       <c r="D318" s="4"/>
@@ -5673,10 +5822,10 @@
     </row>
     <row r="319" ht="80" customHeight="1" spans="1:5">
       <c r="A319" s="4" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C319" s="6"/>
       <c r="D319" s="4"/>
@@ -5685,7 +5834,7 @@
     <row r="320" ht="80" customHeight="1" spans="1:5">
       <c r="A320" s="4"/>
       <c r="B320" s="4" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C320" s="6"/>
       <c r="D320" s="4"/>
@@ -5694,7 +5843,7 @@
     <row r="321" ht="80" customHeight="1" spans="1:5">
       <c r="A321" s="4"/>
       <c r="B321" s="4" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="C321" s="6"/>
       <c r="D321" s="4"/>
@@ -5703,7 +5852,7 @@
     <row r="322" ht="80" customHeight="1" spans="1:5">
       <c r="A322" s="4"/>
       <c r="B322" s="4" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C322" s="6"/>
       <c r="D322" s="4"/>
@@ -5712,7 +5861,7 @@
     <row r="323" ht="80" customHeight="1" spans="1:5">
       <c r="A323" s="4"/>
       <c r="B323" s="4" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="C323" s="6"/>
       <c r="D323" s="4"/>
@@ -5721,7 +5870,7 @@
     <row r="324" ht="80" customHeight="1" spans="1:5">
       <c r="A324" s="4"/>
       <c r="B324" s="4" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="C324" s="6"/>
       <c r="D324" s="4"/>
@@ -5730,7 +5879,7 @@
     <row r="325" ht="80" customHeight="1" spans="1:5">
       <c r="A325" s="4"/>
       <c r="B325" s="4" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="4"/>
@@ -5739,7 +5888,7 @@
     <row r="326" ht="80" customHeight="1" spans="1:5">
       <c r="A326" s="4"/>
       <c r="B326" s="4" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="C326" s="6"/>
       <c r="D326" s="4"/>
@@ -5748,7 +5897,7 @@
     <row r="327" ht="80" customHeight="1" spans="1:5">
       <c r="A327" s="4"/>
       <c r="B327" s="4" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="C327" s="6"/>
       <c r="D327" s="4"/>
@@ -5757,7 +5906,7 @@
     <row r="328" ht="80" customHeight="1" spans="1:5">
       <c r="A328" s="4"/>
       <c r="B328" s="4" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="C328" s="6"/>
       <c r="D328" s="4"/>
@@ -5766,7 +5915,7 @@
     <row r="329" ht="80" customHeight="1" spans="1:5">
       <c r="A329" s="4"/>
       <c r="B329" s="4" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="C329" s="6"/>
       <c r="D329" s="4"/>
@@ -5775,7 +5924,7 @@
     <row r="330" ht="80" customHeight="1" spans="1:5">
       <c r="A330" s="4"/>
       <c r="B330" s="4" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="C330" s="6"/>
       <c r="D330" s="4"/>
@@ -5784,7 +5933,7 @@
     <row r="331" ht="80" customHeight="1" spans="1:5">
       <c r="A331" s="4"/>
       <c r="B331" s="4" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="C331" s="6"/>
       <c r="D331" s="4"/>
@@ -5793,7 +5942,7 @@
     <row r="332" ht="80" customHeight="1" spans="1:5">
       <c r="A332" s="4"/>
       <c r="B332" s="4" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="C332" s="6"/>
       <c r="D332" s="4"/>
@@ -5802,7 +5951,7 @@
     <row r="333" ht="80" customHeight="1" spans="1:5">
       <c r="A333" s="4"/>
       <c r="B333" s="4" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="C333" s="6"/>
       <c r="D333" s="4"/>
@@ -5811,7 +5960,7 @@
     <row r="334" ht="80" customHeight="1" spans="1:5">
       <c r="A334" s="4"/>
       <c r="B334" s="4" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="C334" s="6"/>
       <c r="D334" s="4"/>
@@ -5820,7 +5969,7 @@
     <row r="335" ht="80" customHeight="1" spans="1:5">
       <c r="A335" s="4"/>
       <c r="B335" s="4" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="4"/>
@@ -5829,7 +5978,7 @@
     <row r="336" ht="80" customHeight="1" spans="1:5">
       <c r="A336" s="4"/>
       <c r="B336" s="4" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C336" s="6"/>
       <c r="D336" s="4"/>
@@ -5838,7 +5987,7 @@
     <row r="337" ht="80" customHeight="1" spans="1:5">
       <c r="A337" s="4"/>
       <c r="B337" s="4" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="C337" s="6"/>
       <c r="D337" s="4"/>
@@ -5847,7 +5996,7 @@
     <row r="338" ht="80" customHeight="1" spans="1:5">
       <c r="A338" s="4"/>
       <c r="B338" s="4" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="4"/>
@@ -5856,7 +6005,7 @@
     <row r="339" ht="80" customHeight="1" spans="1:5">
       <c r="A339" s="4"/>
       <c r="B339" s="4" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="C339" s="6"/>
       <c r="D339" s="4"/>
@@ -5865,7 +6014,7 @@
     <row r="340" ht="80" customHeight="1" spans="1:5">
       <c r="A340" s="4"/>
       <c r="B340" s="4" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="C340" s="6"/>
       <c r="D340" s="4"/>
@@ -5874,7 +6023,7 @@
     <row r="341" ht="80" customHeight="1" spans="1:5">
       <c r="A341" s="4"/>
       <c r="B341" s="4" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="C341" s="6"/>
       <c r="D341" s="4"/>
@@ -5883,7 +6032,7 @@
     <row r="342" ht="80" customHeight="1" spans="1:5">
       <c r="A342" s="4"/>
       <c r="B342" s="4" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="C342" s="6"/>
       <c r="D342" s="4"/>
@@ -5892,7 +6041,7 @@
     <row r="343" ht="80" customHeight="1" spans="1:5">
       <c r="A343" s="4"/>
       <c r="B343" s="4" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="C343" s="6"/>
       <c r="D343" s="4"/>
@@ -5901,7 +6050,7 @@
     <row r="344" ht="80" customHeight="1" spans="1:5">
       <c r="A344" s="4"/>
       <c r="B344" s="4" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="4"/>
@@ -5910,7 +6059,7 @@
     <row r="345" ht="80" customHeight="1" spans="1:5">
       <c r="A345" s="4"/>
       <c r="B345" s="4" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="C345" s="6"/>
       <c r="D345" s="4"/>
@@ -5919,7 +6068,7 @@
     <row r="346" ht="80" customHeight="1" spans="1:5">
       <c r="A346" s="4"/>
       <c r="B346" s="4" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C346" s="6"/>
       <c r="D346" s="4"/>
@@ -5928,7 +6077,7 @@
     <row r="347" ht="80" customHeight="1" spans="1:5">
       <c r="A347" s="4"/>
       <c r="B347" s="4" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="C347" s="6"/>
       <c r="D347" s="4"/>
@@ -5937,7 +6086,7 @@
     <row r="348" ht="80" customHeight="1" spans="1:5">
       <c r="A348" s="4"/>
       <c r="B348" s="4" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C348" s="6"/>
       <c r="D348" s="4"/>
@@ -5945,10 +6094,10 @@
     </row>
     <row r="349" ht="80" customHeight="1" spans="1:5">
       <c r="A349" s="4" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="C349" s="6"/>
       <c r="D349" s="4"/>
@@ -5957,7 +6106,7 @@
     <row r="350" ht="80" customHeight="1" spans="1:5">
       <c r="A350" s="4"/>
       <c r="B350" s="4" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C350" s="6"/>
       <c r="D350" s="4"/>
@@ -5966,7 +6115,7 @@
     <row r="351" ht="80" customHeight="1" spans="1:5">
       <c r="A351" s="4"/>
       <c r="B351" s="4" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="C351" s="6"/>
       <c r="D351" s="4"/>
@@ -5975,7 +6124,7 @@
     <row r="352" ht="80" customHeight="1" spans="1:5">
       <c r="A352" s="4"/>
       <c r="B352" s="4" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="C352" s="6"/>
       <c r="D352" s="4"/>
@@ -5984,7 +6133,7 @@
     <row r="353" ht="80" customHeight="1" spans="1:5">
       <c r="A353" s="4"/>
       <c r="B353" s="4" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="C353" s="6"/>
       <c r="D353" s="4"/>
@@ -5993,7 +6142,7 @@
     <row r="354" ht="80" customHeight="1" spans="1:5">
       <c r="A354" s="4"/>
       <c r="B354" s="4" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="C354" s="6"/>
       <c r="D354" s="4"/>
@@ -6002,7 +6151,7 @@
     <row r="355" ht="80" customHeight="1" spans="1:5">
       <c r="A355" s="4"/>
       <c r="B355" s="4" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="4"/>
@@ -6011,7 +6160,7 @@
     <row r="356" ht="80" customHeight="1" spans="1:5">
       <c r="A356" s="4"/>
       <c r="B356" s="4" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="4"/>
@@ -6020,7 +6169,7 @@
     <row r="357" ht="80" customHeight="1" spans="1:5">
       <c r="A357" s="4"/>
       <c r="B357" s="4" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="4"/>
@@ -6029,7 +6178,7 @@
     <row r="358" ht="80" customHeight="1" spans="1:5">
       <c r="A358" s="4"/>
       <c r="B358" s="4" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="C358" s="6"/>
       <c r="D358" s="4"/>
@@ -6038,7 +6187,7 @@
     <row r="359" ht="80" customHeight="1" spans="1:5">
       <c r="A359" s="4"/>
       <c r="B359" s="4" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="C359" s="6"/>
       <c r="D359" s="4"/>
@@ -6047,7 +6196,7 @@
     <row r="360" ht="80" customHeight="1" spans="1:5">
       <c r="A360" s="4"/>
       <c r="B360" s="4" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C360" s="6"/>
       <c r="D360" s="4"/>
@@ -6056,7 +6205,7 @@
     <row r="361" ht="80" customHeight="1" spans="1:5">
       <c r="A361" s="4"/>
       <c r="B361" s="4" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="C361" s="6"/>
       <c r="D361" s="4"/>
@@ -6065,7 +6214,7 @@
     <row r="362" ht="80" customHeight="1" spans="1:5">
       <c r="A362" s="4"/>
       <c r="B362" s="4" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C362" s="6"/>
       <c r="D362" s="4"/>
@@ -6074,7 +6223,7 @@
     <row r="363" ht="80" customHeight="1" spans="1:5">
       <c r="A363" s="4"/>
       <c r="B363" s="4" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="C363" s="6"/>
       <c r="D363" s="4"/>
@@ -6083,7 +6232,7 @@
     <row r="364" ht="80" customHeight="1" spans="1:5">
       <c r="A364" s="4"/>
       <c r="B364" s="4" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="C364" s="6"/>
       <c r="D364" s="4"/>
@@ -6092,7 +6241,7 @@
     <row r="365" ht="80" customHeight="1" spans="1:5">
       <c r="A365" s="4"/>
       <c r="B365" s="4" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="C365" s="6"/>
       <c r="D365" s="4"/>
@@ -6101,7 +6250,7 @@
     <row r="366" ht="80" customHeight="1" spans="1:5">
       <c r="A366" s="4"/>
       <c r="B366" s="4" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="C366" s="6"/>
       <c r="D366" s="4"/>
@@ -6110,7 +6259,7 @@
     <row r="367" ht="80" customHeight="1" spans="1:5">
       <c r="A367" s="4"/>
       <c r="B367" s="4" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="4"/>
@@ -6119,7 +6268,7 @@
     <row r="368" ht="80" customHeight="1" spans="1:5">
       <c r="A368" s="4"/>
       <c r="B368" s="4" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="C368" s="6"/>
       <c r="D368" s="4"/>
@@ -6128,7 +6277,7 @@
     <row r="369" ht="80" customHeight="1" spans="1:5">
       <c r="A369" s="4"/>
       <c r="B369" s="4" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="C369" s="6"/>
       <c r="D369" s="4"/>
@@ -6137,7 +6286,7 @@
     <row r="370" ht="80" customHeight="1" spans="1:5">
       <c r="A370" s="4"/>
       <c r="B370" s="4" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="4"/>
@@ -6146,7 +6295,7 @@
     <row r="371" ht="80" customHeight="1" spans="1:5">
       <c r="A371" s="4"/>
       <c r="B371" s="4" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C371" s="6"/>
       <c r="D371" s="4"/>
@@ -6155,7 +6304,7 @@
     <row r="372" ht="80" customHeight="1" spans="1:5">
       <c r="A372" s="4"/>
       <c r="B372" s="4" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C372" s="6"/>
       <c r="D372" s="4"/>
@@ -6164,7 +6313,7 @@
     <row r="373" ht="80" customHeight="1" spans="1:5">
       <c r="A373" s="4"/>
       <c r="B373" s="4" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="C373" s="6"/>
       <c r="D373" s="4"/>
@@ -6173,7 +6322,7 @@
     <row r="374" ht="80" customHeight="1" spans="1:5">
       <c r="A374" s="4"/>
       <c r="B374" s="4" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="C374" s="6"/>
       <c r="D374" s="4"/>
@@ -6182,7 +6331,7 @@
     <row r="375" ht="80" customHeight="1" spans="1:5">
       <c r="A375" s="4"/>
       <c r="B375" s="4" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="4"/>
@@ -6191,7 +6340,7 @@
     <row r="376" ht="80" customHeight="1" spans="1:5">
       <c r="A376" s="4"/>
       <c r="B376" s="4" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="4"/>
@@ -6200,7 +6349,7 @@
     <row r="377" ht="80" customHeight="1" spans="1:5">
       <c r="A377" s="4"/>
       <c r="B377" s="4" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="C377" s="6"/>
       <c r="D377" s="4"/>
@@ -6209,7 +6358,7 @@
     <row r="378" ht="80" customHeight="1" spans="1:5">
       <c r="A378" s="4"/>
       <c r="B378" s="4" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="C378" s="6"/>
       <c r="D378" s="4"/>
@@ -6218,7 +6367,7 @@
     <row r="379" ht="80" customHeight="1" spans="1:5">
       <c r="A379" s="4"/>
       <c r="B379" s="4" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="C379" s="6"/>
       <c r="D379" s="4"/>
@@ -6227,7 +6376,7 @@
     <row r="380" ht="80" customHeight="1" spans="1:5">
       <c r="A380" s="4"/>
       <c r="B380" s="4" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="C380" s="6"/>
       <c r="D380" s="4"/>
@@ -6236,7 +6385,7 @@
     <row r="381" ht="80" customHeight="1" spans="1:5">
       <c r="A381" s="4"/>
       <c r="B381" s="4" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C381" s="6"/>
       <c r="D381" s="4"/>
@@ -6245,7 +6394,7 @@
     <row r="382" ht="80" customHeight="1" spans="1:5">
       <c r="A382" s="4"/>
       <c r="B382" s="4" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="C382" s="6"/>
       <c r="D382" s="4"/>
@@ -6254,7 +6403,7 @@
     <row r="383" ht="80" customHeight="1" spans="1:5">
       <c r="A383" s="4"/>
       <c r="B383" s="4" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="C383" s="6"/>
       <c r="D383" s="4"/>
@@ -6263,7 +6412,7 @@
     <row r="384" ht="80" customHeight="1" spans="1:5">
       <c r="A384" s="4"/>
       <c r="B384" s="4" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="C384" s="6"/>
       <c r="D384" s="4"/>
@@ -6272,7 +6421,7 @@
     <row r="385" ht="80" customHeight="1" spans="1:5">
       <c r="A385" s="4"/>
       <c r="B385" s="4" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="C385" s="6"/>
       <c r="D385" s="4"/>
@@ -6281,7 +6430,7 @@
     <row r="386" ht="80" customHeight="1" spans="1:5">
       <c r="A386" s="4"/>
       <c r="B386" s="4" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="C386" s="6"/>
       <c r="D386" s="4"/>
@@ -6290,7 +6439,7 @@
     <row r="387" ht="80" customHeight="1" spans="1:5">
       <c r="A387" s="4"/>
       <c r="B387" s="4" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="4"/>
@@ -6299,7 +6448,7 @@
     <row r="388" ht="80" customHeight="1" spans="1:5">
       <c r="A388" s="4"/>
       <c r="B388" s="4" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="4"/>
@@ -6308,7 +6457,7 @@
     <row r="389" ht="80" customHeight="1" spans="1:5">
       <c r="A389" s="4"/>
       <c r="B389" s="4" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="C389" s="6"/>
       <c r="D389" s="4"/>
@@ -6317,7 +6466,7 @@
     <row r="390" ht="80" customHeight="1" spans="1:5">
       <c r="A390" s="4"/>
       <c r="B390" s="4" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="C390" s="6"/>
       <c r="D390" s="4"/>
@@ -6326,7 +6475,7 @@
     <row r="391" ht="80" customHeight="1" spans="1:5">
       <c r="A391" s="4"/>
       <c r="B391" s="4" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C391" s="6"/>
       <c r="D391" s="4"/>
@@ -6335,7 +6484,7 @@
     <row r="392" ht="80" customHeight="1" spans="1:5">
       <c r="A392" s="4"/>
       <c r="B392" s="4" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="C392" s="6"/>
       <c r="D392" s="4"/>
@@ -6343,10 +6492,10 @@
     </row>
     <row r="393" ht="80" customHeight="1" spans="1:5">
       <c r="A393" s="4" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="C393" s="6"/>
       <c r="D393" s="4"/>
@@ -6355,7 +6504,7 @@
     <row r="394" ht="80" customHeight="1" spans="1:5">
       <c r="A394" s="4"/>
       <c r="B394" s="4" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="C394" s="6"/>
       <c r="D394" s="4"/>
@@ -6364,7 +6513,7 @@
     <row r="395" ht="80" customHeight="1" spans="1:5">
       <c r="A395" s="4"/>
       <c r="B395" s="4" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="4"/>
@@ -6373,7 +6522,7 @@
     <row r="396" ht="80" customHeight="1" spans="1:5">
       <c r="A396" s="4"/>
       <c r="B396" s="4" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="4"/>
@@ -6382,7 +6531,7 @@
     <row r="397" ht="80" customHeight="1" spans="1:5">
       <c r="A397" s="4"/>
       <c r="B397" s="4" t="s">
-        <v>437</v>
+        <v>462</v>
       </c>
       <c r="C397" s="6"/>
       <c r="D397" s="4"/>
@@ -6391,7 +6540,7 @@
     <row r="398" ht="80" customHeight="1" spans="1:5">
       <c r="A398" s="4"/>
       <c r="B398" s="4" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="4"/>
@@ -6400,7 +6549,7 @@
     <row r="399" ht="80" customHeight="1" spans="1:5">
       <c r="A399" s="4"/>
       <c r="B399" s="4" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="4"/>
@@ -6409,7 +6558,7 @@
     <row r="400" ht="80" customHeight="1" spans="1:5">
       <c r="A400" s="4"/>
       <c r="B400" s="4" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C400" s="6"/>
       <c r="D400" s="4"/>
@@ -6418,7 +6567,7 @@
     <row r="401" ht="80" customHeight="1" spans="1:5">
       <c r="A401" s="4"/>
       <c r="B401" s="4" t="s">
-        <v>441</v>
+        <v>466</v>
       </c>
       <c r="C401" s="6"/>
       <c r="D401" s="4"/>
@@ -6427,7 +6576,7 @@
     <row r="402" ht="80" customHeight="1" spans="1:5">
       <c r="A402" s="4"/>
       <c r="B402" s="4" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="4"/>
@@ -6436,7 +6585,7 @@
     <row r="403" ht="80" customHeight="1" spans="1:5">
       <c r="A403" s="4"/>
       <c r="B403" s="4" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="4"/>
@@ -6445,7 +6594,7 @@
     <row r="404" ht="80" customHeight="1" spans="1:5">
       <c r="A404" s="4"/>
       <c r="B404" s="4" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="C404" s="6"/>
       <c r="D404" s="4"/>
@@ -6454,7 +6603,7 @@
     <row r="405" ht="80" customHeight="1" spans="1:5">
       <c r="A405" s="4"/>
       <c r="B405" s="4" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="C405" s="6"/>
       <c r="D405" s="4"/>
@@ -6463,7 +6612,7 @@
     <row r="406" ht="80" customHeight="1" spans="1:5">
       <c r="A406" s="4"/>
       <c r="B406" s="4" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="C406" s="6"/>
       <c r="D406" s="4"/>
@@ -6472,7 +6621,7 @@
     <row r="407" ht="80" customHeight="1" spans="1:5">
       <c r="A407" s="4"/>
       <c r="B407" s="4" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="4"/>
@@ -6481,7 +6630,7 @@
     <row r="408" ht="80" customHeight="1" spans="1:5">
       <c r="A408" s="4"/>
       <c r="B408" s="4" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="C408" s="6"/>
       <c r="D408" s="4"/>
@@ -6490,7 +6639,7 @@
     <row r="409" ht="80" customHeight="1" spans="1:5">
       <c r="A409" s="4"/>
       <c r="B409" s="4" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="C409" s="6"/>
       <c r="D409" s="4"/>
@@ -6499,7 +6648,7 @@
     <row r="410" ht="80" customHeight="1" spans="1:5">
       <c r="A410" s="4"/>
       <c r="B410" s="4" t="s">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="4"/>
@@ -6508,7 +6657,7 @@
     <row r="411" ht="80" customHeight="1" spans="1:5">
       <c r="A411" s="4"/>
       <c r="B411" s="4" t="s">
-        <v>451</v>
+        <v>476</v>
       </c>
       <c r="C411" s="6"/>
       <c r="D411" s="4"/>
@@ -6517,7 +6666,7 @@
     <row r="412" ht="80" customHeight="1" spans="1:5">
       <c r="A412" s="4"/>
       <c r="B412" s="4" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="C412" s="6"/>
       <c r="D412" s="4"/>
@@ -6526,7 +6675,7 @@
     <row r="413" ht="80" customHeight="1" spans="1:5">
       <c r="A413" s="4"/>
       <c r="B413" s="4" t="s">
-        <v>453</v>
+        <v>478</v>
       </c>
       <c r="C413" s="6"/>
       <c r="D413" s="4"/>
@@ -6535,7 +6684,7 @@
     <row r="414" ht="80" customHeight="1" spans="1:5">
       <c r="A414" s="4"/>
       <c r="B414" s="4" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="C414" s="6"/>
       <c r="D414" s="4"/>
@@ -6544,7 +6693,7 @@
     <row r="415" ht="80" customHeight="1" spans="1:5">
       <c r="A415" s="4"/>
       <c r="B415" s="4" t="s">
-        <v>455</v>
+        <v>480</v>
       </c>
       <c r="C415" s="6"/>
       <c r="D415" s="4"/>
@@ -6553,7 +6702,7 @@
     <row r="416" ht="80" customHeight="1" spans="1:5">
       <c r="A416" s="4"/>
       <c r="B416" s="4" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="C416" s="6"/>
       <c r="D416" s="4"/>
@@ -6562,7 +6711,7 @@
     <row r="417" ht="80" customHeight="1" spans="1:5">
       <c r="A417" s="4"/>
       <c r="B417" s="4" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="C417" s="6"/>
       <c r="D417" s="4"/>
@@ -6571,7 +6720,7 @@
     <row r="418" ht="80" customHeight="1" spans="1:5">
       <c r="A418" s="4"/>
       <c r="B418" s="4" t="s">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="C418" s="6"/>
       <c r="D418" s="4"/>
@@ -6580,7 +6729,7 @@
     <row r="419" ht="80" customHeight="1" spans="1:5">
       <c r="A419" s="4"/>
       <c r="B419" s="4" t="s">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="C419" s="6"/>
       <c r="D419" s="4"/>
@@ -6589,7 +6738,7 @@
     <row r="420" ht="80" customHeight="1" spans="1:5">
       <c r="A420" s="4"/>
       <c r="B420" s="4" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="4"/>
@@ -6598,7 +6747,7 @@
     <row r="421" ht="80" customHeight="1" spans="1:5">
       <c r="A421" s="4"/>
       <c r="B421" s="4" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="C421" s="6"/>
       <c r="D421" s="4"/>
@@ -6607,7 +6756,7 @@
     <row r="422" ht="80" customHeight="1" spans="1:5">
       <c r="A422" s="4"/>
       <c r="B422" s="4" t="s">
-        <v>462</v>
+        <v>487</v>
       </c>
       <c r="C422" s="6"/>
       <c r="D422" s="4"/>
@@ -6616,7 +6765,7 @@
     <row r="423" ht="80" customHeight="1" spans="1:5">
       <c r="A423" s="4"/>
       <c r="B423" s="4" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="C423" s="6"/>
       <c r="D423" s="4"/>
@@ -6625,7 +6774,7 @@
     <row r="424" ht="80" customHeight="1" spans="1:5">
       <c r="A424" s="4"/>
       <c r="B424" s="4" t="s">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="C424" s="6"/>
       <c r="D424" s="4"/>
@@ -6634,7 +6783,7 @@
     <row r="425" ht="80" customHeight="1" spans="1:5">
       <c r="A425" s="4"/>
       <c r="B425" s="4" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="C425" s="6"/>
       <c r="D425" s="4"/>
@@ -6643,7 +6792,7 @@
     <row r="426" ht="80" customHeight="1" spans="1:5">
       <c r="A426" s="4"/>
       <c r="B426" s="4" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="C426" s="6"/>
       <c r="D426" s="4"/>
@@ -6652,7 +6801,7 @@
     <row r="427" ht="80" customHeight="1" spans="1:5">
       <c r="A427" s="4"/>
       <c r="B427" s="4" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="C427" s="6"/>
       <c r="D427" s="4"/>
@@ -6661,7 +6810,7 @@
     <row r="428" ht="80" customHeight="1" spans="1:5">
       <c r="A428" s="4"/>
       <c r="B428" s="4" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="C428" s="6"/>
       <c r="D428" s="4"/>
@@ -6670,7 +6819,7 @@
     <row r="429" ht="80" customHeight="1" spans="1:5">
       <c r="A429" s="4"/>
       <c r="B429" s="4" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="C429" s="6"/>
       <c r="D429" s="4"/>
@@ -6679,7 +6828,7 @@
     <row r="430" ht="80" customHeight="1" spans="1:5">
       <c r="A430" s="4"/>
       <c r="B430" s="4" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="C430" s="6"/>
       <c r="D430" s="4"/>
@@ -6688,7 +6837,7 @@
     <row r="431" ht="80" customHeight="1" spans="1:5">
       <c r="A431" s="4"/>
       <c r="B431" s="4" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="C431" s="6"/>
       <c r="D431" s="4"/>
@@ -6697,7 +6846,7 @@
     <row r="432" ht="80" customHeight="1" spans="1:5">
       <c r="A432" s="4"/>
       <c r="B432" s="4" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C432" s="6"/>
       <c r="D432" s="4"/>
@@ -6706,7 +6855,7 @@
     <row r="433" ht="80" customHeight="1" spans="1:5">
       <c r="A433" s="4"/>
       <c r="B433" s="4" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="C433" s="6"/>
       <c r="D433" s="4"/>
@@ -6715,7 +6864,7 @@
     <row r="434" ht="80" customHeight="1" spans="1:5">
       <c r="A434" s="4"/>
       <c r="B434" s="4" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="C434" s="6"/>
       <c r="D434" s="4"/>
@@ -6723,10 +6872,10 @@
     </row>
     <row r="435" ht="80" customHeight="1" spans="1:5">
       <c r="A435" s="4" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="C435" s="6"/>
       <c r="D435" s="4"/>
@@ -6735,7 +6884,7 @@
     <row r="436" ht="80" customHeight="1" spans="1:5">
       <c r="A436" s="4"/>
       <c r="B436" s="4" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C436" s="6"/>
       <c r="D436" s="4"/>
@@ -6744,7 +6893,7 @@
     <row r="437" ht="80" customHeight="1" spans="1:5">
       <c r="A437" s="4"/>
       <c r="B437" s="4" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="C437" s="6"/>
       <c r="D437" s="4"/>
@@ -6753,7 +6902,7 @@
     <row r="438" ht="80" customHeight="1" spans="1:5">
       <c r="A438" s="4"/>
       <c r="B438" s="4" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="C438" s="6"/>
       <c r="D438" s="4"/>
@@ -6762,7 +6911,7 @@
     <row r="439" ht="80" customHeight="1" spans="1:5">
       <c r="A439" s="4"/>
       <c r="B439" s="4" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C439" s="6"/>
       <c r="D439" s="4"/>
@@ -6771,7 +6920,7 @@
     <row r="440" ht="80" customHeight="1" spans="1:5">
       <c r="A440" s="4"/>
       <c r="B440" s="4" t="s">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="C440" s="6"/>
       <c r="D440" s="4"/>
@@ -6780,7 +6929,7 @@
     <row r="441" ht="80" customHeight="1" spans="1:5">
       <c r="A441" s="4"/>
       <c r="B441" s="4" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="C441" s="6"/>
       <c r="D441" s="4"/>
@@ -6789,7 +6938,7 @@
     <row r="442" ht="80" customHeight="1" spans="1:5">
       <c r="A442" s="4"/>
       <c r="B442" s="4" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="C442" s="6"/>
       <c r="D442" s="4"/>
@@ -6798,7 +6947,7 @@
     <row r="443" ht="80" customHeight="1" spans="1:5">
       <c r="A443" s="4"/>
       <c r="B443" s="4" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="C443" s="6"/>
       <c r="D443" s="4"/>
@@ -6807,7 +6956,7 @@
     <row r="444" ht="80" customHeight="1" spans="1:5">
       <c r="A444" s="4"/>
       <c r="B444" s="4" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="C444" s="6"/>
       <c r="D444" s="4"/>
@@ -6816,7 +6965,7 @@
     <row r="445" ht="80" customHeight="1" spans="1:5">
       <c r="A445" s="4"/>
       <c r="B445" s="4" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="C445" s="6"/>
       <c r="D445" s="4"/>
@@ -6825,7 +6974,7 @@
     <row r="446" ht="80" customHeight="1" spans="1:5">
       <c r="A446" s="4"/>
       <c r="B446" s="4" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="C446" s="6"/>
       <c r="D446" s="4"/>
@@ -6834,7 +6983,7 @@
     <row r="447" ht="80" customHeight="1" spans="1:5">
       <c r="A447" s="4"/>
       <c r="B447" s="4" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="C447" s="6"/>
       <c r="D447" s="4"/>
@@ -6843,7 +6992,7 @@
     <row r="448" ht="80" customHeight="1" spans="1:5">
       <c r="A448" s="4"/>
       <c r="B448" s="4" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="C448" s="6"/>
       <c r="D448" s="4"/>
@@ -6851,10 +7000,10 @@
     </row>
     <row r="449" ht="80" customHeight="1" spans="1:5">
       <c r="A449" s="4" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="C449" s="6"/>
       <c r="D449" s="4"/>
@@ -6863,7 +7012,7 @@
     <row r="450" ht="80" customHeight="1" spans="1:5">
       <c r="A450" s="4"/>
       <c r="B450" s="4" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="C450" s="6"/>
       <c r="D450" s="4"/>
@@ -6872,7 +7021,7 @@
     <row r="451" ht="80" customHeight="1" spans="1:5">
       <c r="A451" s="4"/>
       <c r="B451" s="4" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="C451" s="6"/>
       <c r="D451" s="4"/>
@@ -6881,7 +7030,7 @@
     <row r="452" ht="80" customHeight="1" spans="1:5">
       <c r="A452" s="4"/>
       <c r="B452" s="4" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="C452" s="6"/>
       <c r="D452" s="4"/>
@@ -6890,7 +7039,7 @@
     <row r="453" ht="80" customHeight="1" spans="1:5">
       <c r="A453" s="4"/>
       <c r="B453" s="4" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="C453" s="6"/>
       <c r="D453" s="4"/>
@@ -6899,7 +7048,7 @@
     <row r="454" ht="80" customHeight="1" spans="1:5">
       <c r="A454" s="4"/>
       <c r="B454" s="4" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="C454" s="6"/>
       <c r="D454" s="4"/>
@@ -6908,7 +7057,7 @@
     <row r="455" ht="80" customHeight="1" spans="1:5">
       <c r="A455" s="4"/>
       <c r="B455" s="4" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="C455" s="6"/>
       <c r="D455" s="4"/>
@@ -6917,7 +7066,7 @@
     <row r="456" ht="80" customHeight="1" spans="1:5">
       <c r="A456" s="4"/>
       <c r="B456" s="4" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="C456" s="6"/>
       <c r="D456" s="4"/>
@@ -6926,7 +7075,7 @@
     <row r="457" ht="80" customHeight="1" spans="1:5">
       <c r="A457" s="4"/>
       <c r="B457" s="4" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
       <c r="C457" s="6"/>
       <c r="D457" s="4"/>
@@ -6935,7 +7084,7 @@
     <row r="458" ht="80" customHeight="1" spans="1:5">
       <c r="A458" s="4"/>
       <c r="B458" s="4" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C458" s="6"/>
       <c r="D458" s="4"/>
@@ -6944,7 +7093,7 @@
     <row r="459" ht="80" customHeight="1" spans="1:5">
       <c r="A459" s="4"/>
       <c r="B459" s="4" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="C459" s="6"/>
       <c r="D459" s="4"/>
@@ -6953,7 +7102,7 @@
     <row r="460" ht="80" customHeight="1" spans="1:5">
       <c r="A460" s="4"/>
       <c r="B460" s="4" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="C460" s="6"/>
       <c r="D460" s="4"/>
@@ -6962,7 +7111,7 @@
     <row r="461" ht="80" customHeight="1" spans="1:5">
       <c r="A461" s="4"/>
       <c r="B461" s="4" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="C461" s="6"/>
       <c r="D461" s="4"/>
@@ -6971,7 +7120,7 @@
     <row r="462" ht="80" customHeight="1" spans="1:5">
       <c r="A462" s="4"/>
       <c r="B462" s="4" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="C462" s="6"/>
       <c r="D462" s="4"/>
@@ -6980,7 +7129,7 @@
     <row r="463" ht="80" customHeight="1" spans="1:5">
       <c r="A463" s="4"/>
       <c r="B463" s="4" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="C463" s="6"/>
       <c r="D463" s="4"/>
@@ -6989,7 +7138,7 @@
     <row r="464" ht="80" customHeight="1" spans="1:5">
       <c r="A464" s="4"/>
       <c r="B464" s="4" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C464" s="6"/>
       <c r="D464" s="4"/>
@@ -6998,7 +7147,7 @@
     <row r="465" ht="80" customHeight="1" spans="1:5">
       <c r="A465" s="4"/>
       <c r="B465" s="4" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="C465" s="6"/>
       <c r="D465" s="4"/>
@@ -7007,7 +7156,7 @@
     <row r="466" ht="80" customHeight="1" spans="1:5">
       <c r="A466" s="4"/>
       <c r="B466" s="4" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="C466" s="6"/>
       <c r="D466" s="4"/>
@@ -7016,7 +7165,7 @@
     <row r="467" ht="80" customHeight="1" spans="1:5">
       <c r="A467" s="4"/>
       <c r="B467" s="4" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="C467" s="6"/>
       <c r="D467" s="4"/>
@@ -7025,7 +7174,7 @@
     <row r="468" ht="80" customHeight="1" spans="1:5">
       <c r="A468" s="4"/>
       <c r="B468" s="4" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="C468" s="6"/>
       <c r="D468" s="4"/>
@@ -7034,7 +7183,7 @@
     <row r="469" ht="80" customHeight="1" spans="1:5">
       <c r="A469" s="4"/>
       <c r="B469" s="4" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="C469" s="6"/>
       <c r="D469" s="4"/>
@@ -7043,7 +7192,7 @@
     <row r="470" ht="80" customHeight="1" spans="1:5">
       <c r="A470" s="4"/>
       <c r="B470" s="4" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="C470" s="6"/>
       <c r="D470" s="4"/>
@@ -7052,7 +7201,7 @@
     <row r="471" ht="80" customHeight="1" spans="1:5">
       <c r="A471" s="4"/>
       <c r="B471" s="4" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="4"/>
@@ -7061,7 +7210,7 @@
     <row r="472" ht="80" customHeight="1" spans="1:5">
       <c r="A472" s="4"/>
       <c r="B472" s="4" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="C472" s="6"/>
       <c r="D472" s="4"/>
@@ -7070,7 +7219,7 @@
     <row r="473" ht="80" customHeight="1" spans="1:5">
       <c r="A473" s="4"/>
       <c r="B473" s="4" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="C473" s="6"/>
       <c r="D473" s="4"/>
@@ -7079,7 +7228,7 @@
     <row r="474" ht="80" customHeight="1" spans="1:5">
       <c r="A474" s="4"/>
       <c r="B474" s="4" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="C474" s="6"/>
       <c r="D474" s="4"/>
@@ -7087,10 +7236,10 @@
     </row>
     <row r="475" ht="80" customHeight="1" spans="1:5">
       <c r="A475" s="4" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="C475" s="6"/>
       <c r="D475" s="4"/>
@@ -7099,7 +7248,7 @@
     <row r="476" ht="80" customHeight="1" spans="1:5">
       <c r="A476" s="4"/>
       <c r="B476" s="4" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="C476" s="6"/>
       <c r="D476" s="4"/>
@@ -7108,7 +7257,7 @@
     <row r="477" ht="80" customHeight="1" spans="1:5">
       <c r="A477" s="4"/>
       <c r="B477" s="4" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="C477" s="6"/>
       <c r="D477" s="4"/>
@@ -7117,7 +7266,7 @@
     <row r="478" ht="80" customHeight="1" spans="1:5">
       <c r="A478" s="4"/>
       <c r="B478" s="4" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="C478" s="6"/>
       <c r="D478" s="4"/>
@@ -7126,7 +7275,7 @@
     <row r="479" ht="80" customHeight="1" spans="1:5">
       <c r="A479" s="4"/>
       <c r="B479" s="4" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="C479" s="6"/>
       <c r="D479" s="4"/>
@@ -7135,7 +7284,7 @@
     <row r="480" ht="80" customHeight="1" spans="1:5">
       <c r="A480" s="4"/>
       <c r="B480" s="4" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="C480" s="6"/>
       <c r="D480" s="4"/>
@@ -7144,7 +7293,7 @@
     <row r="481" ht="80" customHeight="1" spans="1:5">
       <c r="A481" s="4"/>
       <c r="B481" s="4" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="C481" s="6"/>
       <c r="D481" s="4"/>
@@ -7153,7 +7302,7 @@
     <row r="482" ht="80" customHeight="1" spans="1:5">
       <c r="A482" s="4"/>
       <c r="B482" s="4" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="C482" s="6"/>
       <c r="D482" s="4"/>
@@ -7162,7 +7311,7 @@
     <row r="483" ht="80" customHeight="1" spans="1:5">
       <c r="A483" s="4"/>
       <c r="B483" s="4" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="C483" s="6"/>
       <c r="D483" s="4"/>
@@ -7171,7 +7320,7 @@
     <row r="484" ht="80" customHeight="1" spans="1:5">
       <c r="A484" s="4"/>
       <c r="B484" s="4" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="C484" s="6"/>
       <c r="D484" s="4"/>
@@ -7180,7 +7329,7 @@
     <row r="485" ht="80" customHeight="1" spans="1:5">
       <c r="A485" s="4"/>
       <c r="B485" s="4" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C485" s="6"/>
       <c r="D485" s="4"/>
@@ -7188,10 +7337,10 @@
     </row>
     <row r="486" ht="80" customHeight="1" spans="1:5">
       <c r="A486" s="4" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="C486" s="6"/>
       <c r="D486" s="4"/>
@@ -7200,7 +7349,7 @@
     <row r="487" ht="80" customHeight="1" spans="1:5">
       <c r="A487" s="4"/>
       <c r="B487" s="4" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="C487" s="6"/>
       <c r="D487" s="4"/>
@@ -7209,7 +7358,7 @@
     <row r="488" ht="80" customHeight="1" spans="1:5">
       <c r="A488" s="4"/>
       <c r="B488" s="4" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="C488" s="6"/>
       <c r="D488" s="4"/>
@@ -7218,7 +7367,7 @@
     <row r="489" ht="80" customHeight="1" spans="1:5">
       <c r="A489" s="4"/>
       <c r="B489" s="4" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="C489" s="6"/>
       <c r="D489" s="4"/>
@@ -7227,7 +7376,7 @@
     <row r="490" ht="80" customHeight="1" spans="1:5">
       <c r="A490" s="4"/>
       <c r="B490" s="4" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="C490" s="6"/>
       <c r="D490" s="4"/>
@@ -7236,7 +7385,7 @@
     <row r="491" ht="80" customHeight="1" spans="1:5">
       <c r="A491" s="4"/>
       <c r="B491" s="4" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
       <c r="C491" s="6"/>
       <c r="D491" s="4"/>
@@ -7245,7 +7394,7 @@
     <row r="492" ht="80" customHeight="1" spans="1:5">
       <c r="A492" s="4"/>
       <c r="B492" s="4" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="C492" s="6"/>
       <c r="D492" s="4"/>
@@ -7254,7 +7403,7 @@
     <row r="493" ht="80" customHeight="1" spans="1:5">
       <c r="A493" s="4"/>
       <c r="B493" s="4" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="C493" s="6"/>
       <c r="D493" s="4"/>
@@ -7263,7 +7412,7 @@
     <row r="494" ht="80" customHeight="1" spans="1:5">
       <c r="A494" s="4"/>
       <c r="B494" s="4" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="C494" s="6"/>
       <c r="D494" s="4"/>
@@ -7272,7 +7421,7 @@
     <row r="495" ht="80" customHeight="1" spans="1:5">
       <c r="A495" s="4"/>
       <c r="B495" s="4" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="C495" s="6"/>
       <c r="D495" s="4"/>
@@ -7281,7 +7430,7 @@
     <row r="496" ht="80" customHeight="1" spans="1:5">
       <c r="A496" s="4"/>
       <c r="B496" s="4" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="C496" s="6"/>
       <c r="D496" s="4"/>
@@ -7290,7 +7439,7 @@
     <row r="497" ht="80" customHeight="1" spans="1:5">
       <c r="A497" s="4"/>
       <c r="B497" s="4" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="C497" s="6"/>
       <c r="D497" s="4"/>
@@ -7299,7 +7448,7 @@
     <row r="498" ht="80" customHeight="1" spans="1:5">
       <c r="A498" s="4"/>
       <c r="B498" s="4" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="C498" s="6"/>
       <c r="D498" s="4"/>
@@ -7308,7 +7457,7 @@
     <row r="499" ht="80" customHeight="1" spans="1:5">
       <c r="A499" s="4"/>
       <c r="B499" s="4" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="C499" s="6"/>
       <c r="D499" s="4"/>
@@ -7317,7 +7466,7 @@
     <row r="500" ht="80" customHeight="1" spans="1:5">
       <c r="A500" s="4"/>
       <c r="B500" s="4" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="C500" s="6"/>
       <c r="D500" s="4"/>
@@ -7326,7 +7475,7 @@
     <row r="501" ht="80" customHeight="1" spans="1:5">
       <c r="A501" s="4"/>
       <c r="B501" s="4" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="C501" s="6"/>
       <c r="D501" s="4"/>
@@ -7335,7 +7484,7 @@
     <row r="502" ht="80" customHeight="1" spans="1:5">
       <c r="A502" s="4"/>
       <c r="B502" s="4" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="C502" s="6"/>
       <c r="D502" s="4"/>
@@ -7344,7 +7493,7 @@
     <row r="503" ht="80" customHeight="1" spans="1:5">
       <c r="A503" s="4"/>
       <c r="B503" s="4" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="C503" s="6"/>
       <c r="D503" s="4"/>
@@ -7353,7 +7502,7 @@
     <row r="504" ht="80" customHeight="1" spans="1:5">
       <c r="A504" s="4"/>
       <c r="B504" s="4" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="C504" s="6"/>
       <c r="D504" s="4"/>
@@ -7362,7 +7511,7 @@
     <row r="505" ht="80" customHeight="1" spans="1:5">
       <c r="A505" s="4"/>
       <c r="B505" s="4" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="C505" s="6"/>
       <c r="D505" s="4"/>
@@ -7371,7 +7520,7 @@
     <row r="506" ht="80" customHeight="1" spans="1:5">
       <c r="A506" s="4"/>
       <c r="B506" s="4" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="C506" s="6"/>
       <c r="D506" s="4"/>
@@ -7380,7 +7529,7 @@
     <row r="507" ht="80" customHeight="1" spans="1:5">
       <c r="A507" s="4"/>
       <c r="B507" s="4" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C507" s="6"/>
       <c r="D507" s="4"/>
@@ -7389,7 +7538,7 @@
     <row r="508" ht="80" customHeight="1" spans="1:5">
       <c r="A508" s="4"/>
       <c r="B508" s="4" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="C508" s="6"/>
       <c r="D508" s="4"/>
@@ -7398,7 +7547,7 @@
     <row r="509" ht="80" customHeight="1" spans="1:5">
       <c r="A509" s="4"/>
       <c r="B509" s="4" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="C509" s="6"/>
       <c r="D509" s="4"/>
@@ -7407,7 +7556,7 @@
     <row r="510" ht="80" customHeight="1" spans="1:5">
       <c r="A510" s="4"/>
       <c r="B510" s="4" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="C510" s="6"/>
       <c r="D510" s="4"/>
@@ -7416,7 +7565,7 @@
     <row r="511" ht="80" customHeight="1" spans="1:5">
       <c r="A511" s="4"/>
       <c r="B511" s="4" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="C511" s="6"/>
       <c r="D511" s="4"/>
@@ -7425,7 +7574,7 @@
     <row r="512" ht="80" customHeight="1" spans="1:5">
       <c r="A512" s="4"/>
       <c r="B512" s="4" t="s">
-        <v>553</v>
+        <v>578</v>
       </c>
       <c r="C512" s="6"/>
       <c r="D512" s="4"/>
@@ -7434,7 +7583,7 @@
     <row r="513" ht="80" customHeight="1" spans="1:5">
       <c r="A513" s="4"/>
       <c r="B513" s="4" t="s">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="C513" s="6"/>
       <c r="D513" s="4"/>
@@ -7442,10 +7591,10 @@
     </row>
     <row r="514" ht="80" customHeight="1" spans="1:5">
       <c r="A514" s="4" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C514" s="6"/>
       <c r="D514" s="4"/>
@@ -7454,7 +7603,7 @@
     <row r="515" ht="80" customHeight="1" spans="1:5">
       <c r="A515" s="4"/>
       <c r="B515" s="4" t="s">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="C515" s="6"/>
       <c r="D515" s="4"/>
@@ -7463,7 +7612,7 @@
     <row r="516" ht="80" customHeight="1" spans="1:5">
       <c r="A516" s="4"/>
       <c r="B516" s="4" t="s">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="C516" s="6"/>
       <c r="D516" s="4"/>

--- a/书籍/论语.xlsx
+++ b/书籍/论语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16700"/>
+    <workbookView windowHeight="16660"/>
   </bookViews>
   <sheets>
     <sheet name="论语" sheetId="1" r:id="rId1"/>
@@ -1823,10 +1823,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1845,9 +1845,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1860,8 +1860,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1875,25 +1898,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1908,22 +1953,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1944,50 +1988,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -2004,13 +2004,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,13 +2058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2046,7 +2070,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,31 +2118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,7 +2130,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2106,85 +2160,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2226,17 +2226,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2245,7 +2254,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2265,26 +2274,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2314,162 +2323,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2816,8 +2816,8 @@
   <sheetPr/>
   <dimension ref="A1:E516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
